--- a/templates/Property_upload_template michael.xlsx
+++ b/templates/Property_upload_template michael.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Sina\rental_system\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69445999-1C92-4D90-A7E8-F3DB427AC0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3071276-F3F8-464F-B27F-9FDA4590E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2113,7 +2113,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2202,13 +2202,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2240,6 +2236,9 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2549,8 +2548,8 @@
   <dimension ref="A1:P362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D213" sqref="D213:D256"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O172" sqref="O172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,7 +6007,7 @@
       <c r="I82" s="16">
         <v>573.93647999999996</v>
       </c>
-      <c r="J82" s="30">
+      <c r="J82" s="43">
         <v>31055</v>
       </c>
       <c r="K82" s="5"/>
@@ -6041,7 +6040,7 @@
       <c r="I83" s="16">
         <v>1266.6536999999998</v>
       </c>
-      <c r="J83" s="30"/>
+      <c r="J83" s="43"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -6072,7 +6071,7 @@
       <c r="I84" s="16">
         <v>1266.6536999999998</v>
       </c>
-      <c r="J84" s="30"/>
+      <c r="J84" s="43"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -6103,7 +6102,7 @@
       <c r="I85" s="16">
         <v>1266.6536999999998</v>
       </c>
-      <c r="J85" s="30"/>
+      <c r="J85" s="43"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -6134,7 +6133,7 @@
       <c r="I86" s="16">
         <v>1266.6536999999998</v>
       </c>
-      <c r="J86" s="30"/>
+      <c r="J86" s="43"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -6165,7 +6164,7 @@
       <c r="I87" s="16">
         <v>1015.36812</v>
       </c>
-      <c r="J87" s="30"/>
+      <c r="J87" s="43"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -8468,7 +8467,7 @@
       <c r="D165" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="E165" s="31" t="s">
+      <c r="E165" s="30" t="s">
         <v>282</v>
       </c>
       <c r="F165" s="5"/>
@@ -8497,7 +8496,7 @@
       <c r="D166" s="27">
         <v>1</v>
       </c>
-      <c r="E166" s="31" t="s">
+      <c r="E166" s="30" t="s">
         <v>283</v>
       </c>
       <c r="F166" s="5"/>
@@ -8526,7 +8525,7 @@
       <c r="D167" s="27">
         <v>2</v>
       </c>
-      <c r="E167" s="31" t="s">
+      <c r="E167" s="30" t="s">
         <v>284</v>
       </c>
       <c r="F167" s="5"/>
@@ -8555,7 +8554,7 @@
       <c r="D168" s="27">
         <v>3</v>
       </c>
-      <c r="E168" s="31" t="s">
+      <c r="E168" s="30" t="s">
         <v>285</v>
       </c>
       <c r="F168" s="5"/>
@@ -8584,7 +8583,7 @@
       <c r="D169" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="E169" s="31" t="s">
+      <c r="E169" s="30" t="s">
         <v>286</v>
       </c>
       <c r="F169" s="5"/>
@@ -8613,7 +8612,7 @@
       <c r="D170" s="27">
         <v>1</v>
       </c>
-      <c r="E170" s="31" t="s">
+      <c r="E170" s="30" t="s">
         <v>287</v>
       </c>
       <c r="F170" s="5"/>
@@ -8642,7 +8641,7 @@
       <c r="D171" s="27">
         <v>2</v>
       </c>
-      <c r="E171" s="31" t="s">
+      <c r="E171" s="30" t="s">
         <v>288</v>
       </c>
       <c r="F171" s="5"/>
@@ -8671,7 +8670,7 @@
       <c r="D172" s="27">
         <v>3</v>
       </c>
-      <c r="E172" s="31" t="s">
+      <c r="E172" s="30" t="s">
         <v>289</v>
       </c>
       <c r="F172" s="5"/>
@@ -8700,7 +8699,7 @@
       <c r="D173" s="27">
         <v>1</v>
       </c>
-      <c r="E173" s="31" t="s">
+      <c r="E173" s="30" t="s">
         <v>290</v>
       </c>
       <c r="F173" s="5"/>
@@ -8729,7 +8728,7 @@
       <c r="D174" s="27">
         <v>2</v>
       </c>
-      <c r="E174" s="31" t="s">
+      <c r="E174" s="30" t="s">
         <v>291</v>
       </c>
       <c r="F174" s="5"/>
@@ -8758,7 +8757,7 @@
       <c r="D175" s="27">
         <v>3</v>
       </c>
-      <c r="E175" s="31" t="s">
+      <c r="E175" s="30" t="s">
         <v>292</v>
       </c>
       <c r="F175" s="5"/>
@@ -8787,7 +8786,7 @@
       <c r="D176" s="27">
         <v>1</v>
       </c>
-      <c r="E176" s="31" t="s">
+      <c r="E176" s="30" t="s">
         <v>293</v>
       </c>
       <c r="F176" s="5"/>
@@ -8816,7 +8815,7 @@
       <c r="D177" s="27">
         <v>2</v>
       </c>
-      <c r="E177" s="31" t="s">
+      <c r="E177" s="30" t="s">
         <v>294</v>
       </c>
       <c r="F177" s="5"/>
@@ -8845,7 +8844,7 @@
       <c r="D178" s="27">
         <v>3</v>
       </c>
-      <c r="E178" s="31" t="s">
+      <c r="E178" s="30" t="s">
         <v>295</v>
       </c>
       <c r="F178" s="5"/>
@@ -8874,7 +8873,7 @@
       <c r="D179" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="E179" s="31" t="s">
+      <c r="E179" s="30" t="s">
         <v>296</v>
       </c>
       <c r="F179" s="5"/>
@@ -8903,7 +8902,7 @@
       <c r="D180" s="27">
         <v>1</v>
       </c>
-      <c r="E180" s="31" t="s">
+      <c r="E180" s="30" t="s">
         <v>297</v>
       </c>
       <c r="F180" s="5"/>
@@ -8932,7 +8931,7 @@
       <c r="D181" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="E181" s="31" t="s">
+      <c r="E181" s="30" t="s">
         <v>298</v>
       </c>
       <c r="F181" s="5"/>
@@ -9047,3954 +9046,3954 @@
       </c>
       <c r="P184" s="5"/>
     </row>
-    <row r="185" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="38" t="s">
+    <row r="185" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C185" s="33"/>
-      <c r="D185" s="34" t="s">
+      <c r="C185" s="31"/>
+      <c r="D185" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E185" s="35" t="s">
+      <c r="E185" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="F185" s="36" t="str" cm="1">
+      <c r="F185" s="34" t="str" cm="1">
         <f t="array" ref="F185">_xlfn.REGEXEXTRACT(E185, "\d+")</f>
         <v>23</v>
       </c>
-      <c r="G185" s="36" t="s">
+      <c r="G185" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H185" s="37" t="s">
+      <c r="H185" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I185" s="37">
+      <c r="I185" s="35">
         <v>4482</v>
       </c>
-      <c r="J185" s="36"/>
-      <c r="K185" s="36"/>
-      <c r="L185" s="36"/>
-      <c r="M185" s="36"/>
-      <c r="N185" s="36"/>
-      <c r="O185" s="36"/>
-      <c r="P185" s="36"/>
-    </row>
-    <row r="186" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="38" t="s">
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
+      <c r="L185" s="34"/>
+      <c r="M185" s="34"/>
+      <c r="N185" s="34"/>
+      <c r="O185" s="34"/>
+      <c r="P185" s="34"/>
+    </row>
+    <row r="186" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B186" s="33" t="s">
+      <c r="B186" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C186" s="33"/>
-      <c r="D186" s="34" t="s">
+      <c r="C186" s="31"/>
+      <c r="D186" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E186" s="35" t="s">
+      <c r="E186" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="F186" s="36" t="str" cm="1">
+      <c r="F186" s="34" t="str" cm="1">
         <f t="array" ref="F186">_xlfn.REGEXEXTRACT(E186, "\d+")</f>
         <v>70</v>
       </c>
-      <c r="G186" s="36" t="s">
+      <c r="G186" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H186" s="37" t="s">
+      <c r="H186" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I186" s="37">
+      <c r="I186" s="35">
         <v>2993</v>
       </c>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-      <c r="L186" s="36"/>
-      <c r="M186" s="36"/>
-      <c r="N186" s="36"/>
-      <c r="O186" s="36"/>
-      <c r="P186" s="36"/>
-    </row>
-    <row r="187" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="38" t="s">
+      <c r="J186" s="34"/>
+      <c r="K186" s="34"/>
+      <c r="L186" s="34"/>
+      <c r="M186" s="34"/>
+      <c r="N186" s="34"/>
+      <c r="O186" s="34"/>
+      <c r="P186" s="34"/>
+    </row>
+    <row r="187" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B187" s="33" t="s">
+      <c r="B187" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C187" s="33"/>
-      <c r="D187" s="34" t="s">
+      <c r="C187" s="31"/>
+      <c r="D187" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E187" s="35" t="s">
+      <c r="E187" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="F187" s="36" t="str" cm="1">
+      <c r="F187" s="34" t="str" cm="1">
         <f t="array" ref="F187">_xlfn.REGEXEXTRACT(E187, "\d+")</f>
         <v>54</v>
       </c>
-      <c r="G187" s="36" t="s">
+      <c r="G187" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H187" s="37" t="s">
+      <c r="H187" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I187" s="37">
+      <c r="I187" s="35">
         <v>2705</v>
       </c>
-      <c r="J187" s="36"/>
-      <c r="K187" s="36"/>
-      <c r="L187" s="36"/>
-      <c r="M187" s="36"/>
-      <c r="N187" s="36"/>
-      <c r="O187" s="36"/>
-      <c r="P187" s="36"/>
-    </row>
-    <row r="188" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="38" t="s">
+      <c r="J187" s="34"/>
+      <c r="K187" s="34"/>
+      <c r="L187" s="34"/>
+      <c r="M187" s="34"/>
+      <c r="N187" s="34"/>
+      <c r="O187" s="34"/>
+      <c r="P187" s="34"/>
+    </row>
+    <row r="188" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B188" s="33" t="s">
+      <c r="B188" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C188" s="33"/>
-      <c r="D188" s="34" t="s">
+      <c r="C188" s="31"/>
+      <c r="D188" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E188" s="35" t="s">
+      <c r="E188" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="F188" s="36" t="str" cm="1">
+      <c r="F188" s="34" t="str" cm="1">
         <f t="array" ref="F188">_xlfn.REGEXEXTRACT(E188, "\d+")</f>
         <v>55</v>
       </c>
-      <c r="G188" s="36" t="s">
+      <c r="G188" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H188" s="37" t="s">
+      <c r="H188" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I188" s="37">
+      <c r="I188" s="35">
         <v>2705</v>
       </c>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-      <c r="L188" s="36"/>
-      <c r="M188" s="36"/>
-      <c r="N188" s="36"/>
-      <c r="O188" s="36"/>
-      <c r="P188" s="36"/>
-    </row>
-    <row r="189" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="38" t="s">
+      <c r="J188" s="34"/>
+      <c r="K188" s="34"/>
+      <c r="L188" s="34"/>
+      <c r="M188" s="34"/>
+      <c r="N188" s="34"/>
+      <c r="O188" s="34"/>
+      <c r="P188" s="34"/>
+    </row>
+    <row r="189" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B189" s="33" t="s">
+      <c r="B189" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34" t="s">
+      <c r="C189" s="31"/>
+      <c r="D189" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E189" s="35" t="s">
+      <c r="E189" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F189" s="36" t="str" cm="1">
+      <c r="F189" s="34" t="str" cm="1">
         <f t="array" ref="F189">_xlfn.REGEXEXTRACT(E189, "\d+")</f>
         <v>61</v>
       </c>
-      <c r="G189" s="36" t="s">
+      <c r="G189" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H189" s="37" t="s">
+      <c r="H189" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I189" s="37">
+      <c r="I189" s="35">
         <v>2705</v>
       </c>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
-      <c r="L189" s="36"/>
-      <c r="M189" s="36"/>
-      <c r="N189" s="36"/>
-      <c r="O189" s="36"/>
-      <c r="P189" s="36"/>
-    </row>
-    <row r="190" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="38" t="s">
+      <c r="J189" s="34"/>
+      <c r="K189" s="34"/>
+      <c r="L189" s="34"/>
+      <c r="M189" s="34"/>
+      <c r="N189" s="34"/>
+      <c r="O189" s="34"/>
+      <c r="P189" s="34"/>
+    </row>
+    <row r="190" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B190" s="33" t="s">
+      <c r="B190" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C190" s="33"/>
-      <c r="D190" s="34" t="s">
+      <c r="C190" s="31"/>
+      <c r="D190" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E190" s="35" t="s">
+      <c r="E190" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="F190" s="36" t="str" cm="1">
+      <c r="F190" s="34" t="str" cm="1">
         <f t="array" ref="F190">_xlfn.REGEXEXTRACT(E190, "\d+")</f>
         <v>64</v>
       </c>
-      <c r="G190" s="36" t="s">
+      <c r="G190" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H190" s="37" t="s">
+      <c r="H190" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I190" s="37">
+      <c r="I190" s="35">
         <v>2705</v>
       </c>
-      <c r="J190" s="36"/>
-      <c r="K190" s="36"/>
-      <c r="L190" s="36"/>
-      <c r="M190" s="36"/>
-      <c r="N190" s="36"/>
-      <c r="O190" s="36"/>
-      <c r="P190" s="36"/>
-    </row>
-    <row r="191" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="38" t="s">
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
+      <c r="L190" s="34"/>
+      <c r="M190" s="34"/>
+      <c r="N190" s="34"/>
+      <c r="O190" s="34"/>
+      <c r="P190" s="34"/>
+    </row>
+    <row r="191" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B191" s="33" t="s">
+      <c r="B191" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C191" s="33"/>
-      <c r="D191" s="34" t="s">
+      <c r="C191" s="31"/>
+      <c r="D191" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E191" s="35" t="s">
+      <c r="E191" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="F191" s="36" t="str" cm="1">
+      <c r="F191" s="34" t="str" cm="1">
         <f t="array" ref="F191">_xlfn.REGEXEXTRACT(E191, "\d+")</f>
         <v>71</v>
       </c>
-      <c r="G191" s="36" t="s">
+      <c r="G191" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H191" s="37" t="s">
+      <c r="H191" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I191" s="37">
+      <c r="I191" s="35">
         <v>2705</v>
       </c>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
-      <c r="L191" s="36"/>
-      <c r="M191" s="36"/>
-      <c r="N191" s="36"/>
-      <c r="O191" s="36"/>
-      <c r="P191" s="36"/>
-    </row>
-    <row r="192" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="38" t="s">
+      <c r="J191" s="34"/>
+      <c r="K191" s="34"/>
+      <c r="L191" s="34"/>
+      <c r="M191" s="34"/>
+      <c r="N191" s="34"/>
+      <c r="O191" s="34"/>
+      <c r="P191" s="34"/>
+    </row>
+    <row r="192" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B192" s="33" t="s">
+      <c r="B192" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C192" s="33"/>
-      <c r="D192" s="34" t="s">
+      <c r="C192" s="31"/>
+      <c r="D192" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E192" s="35" t="s">
+      <c r="E192" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="F192" s="36" t="str" cm="1">
+      <c r="F192" s="34" t="str" cm="1">
         <f t="array" ref="F192">_xlfn.REGEXEXTRACT(E192, "\d+")</f>
         <v>73</v>
       </c>
-      <c r="G192" s="36" t="s">
+      <c r="G192" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H192" s="37" t="s">
+      <c r="H192" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I192" s="37">
+      <c r="I192" s="35">
         <v>2705</v>
       </c>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
-      <c r="L192" s="36"/>
-      <c r="M192" s="36"/>
-      <c r="N192" s="36"/>
-      <c r="O192" s="36"/>
-      <c r="P192" s="36"/>
-    </row>
-    <row r="193" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="38" t="s">
+      <c r="J192" s="34"/>
+      <c r="K192" s="34"/>
+      <c r="L192" s="34"/>
+      <c r="M192" s="34"/>
+      <c r="N192" s="34"/>
+      <c r="O192" s="34"/>
+      <c r="P192" s="34"/>
+    </row>
+    <row r="193" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B193" s="33" t="s">
+      <c r="B193" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C193" s="33"/>
-      <c r="D193" s="34" t="s">
+      <c r="C193" s="31"/>
+      <c r="D193" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E193" s="35" t="s">
+      <c r="E193" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F193" s="36" t="str" cm="1">
+      <c r="F193" s="34" t="str" cm="1">
         <f t="array" ref="F193">_xlfn.REGEXEXTRACT(E193, "\d+")</f>
         <v>74</v>
       </c>
-      <c r="G193" s="36" t="s">
+      <c r="G193" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H193" s="37" t="s">
+      <c r="H193" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I193" s="37">
+      <c r="I193" s="35">
         <v>2705</v>
       </c>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
-      <c r="L193" s="36"/>
-      <c r="M193" s="36"/>
-      <c r="N193" s="36"/>
-      <c r="O193" s="36"/>
-      <c r="P193" s="36"/>
-    </row>
-    <row r="194" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="38" t="s">
+      <c r="J193" s="34"/>
+      <c r="K193" s="34"/>
+      <c r="L193" s="34"/>
+      <c r="M193" s="34"/>
+      <c r="N193" s="34"/>
+      <c r="O193" s="34"/>
+      <c r="P193" s="34"/>
+    </row>
+    <row r="194" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B194" s="33" t="s">
+      <c r="B194" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C194" s="33"/>
-      <c r="D194" s="34" t="s">
+      <c r="C194" s="31"/>
+      <c r="D194" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E194" s="35" t="s">
+      <c r="E194" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="F194" s="36" t="str" cm="1">
+      <c r="F194" s="34" t="str" cm="1">
         <f t="array" ref="F194">_xlfn.REGEXEXTRACT(E194, "\d+")</f>
         <v>49</v>
       </c>
-      <c r="G194" s="36" t="s">
+      <c r="G194" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H194" s="37" t="s">
+      <c r="H194" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I194" s="37">
+      <c r="I194" s="35">
         <v>2705</v>
       </c>
-      <c r="J194" s="36"/>
-      <c r="K194" s="36"/>
-      <c r="L194" s="36"/>
-      <c r="M194" s="36"/>
-      <c r="N194" s="36"/>
-      <c r="O194" s="36"/>
-      <c r="P194" s="36"/>
-    </row>
-    <row r="195" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="38" t="s">
+      <c r="J194" s="34"/>
+      <c r="K194" s="34"/>
+      <c r="L194" s="34"/>
+      <c r="M194" s="34"/>
+      <c r="N194" s="34"/>
+      <c r="O194" s="34"/>
+      <c r="P194" s="34"/>
+    </row>
+    <row r="195" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B195" s="33" t="s">
+      <c r="B195" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C195" s="33"/>
-      <c r="D195" s="34" t="s">
+      <c r="C195" s="31"/>
+      <c r="D195" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E195" s="35" t="s">
+      <c r="E195" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="F195" s="36" t="str" cm="1">
+      <c r="F195" s="34" t="str" cm="1">
         <f t="array" ref="F195">_xlfn.REGEXEXTRACT(E195, "\d+")</f>
         <v>50</v>
       </c>
-      <c r="G195" s="36" t="s">
+      <c r="G195" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H195" s="37" t="s">
+      <c r="H195" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I195" s="37">
+      <c r="I195" s="35">
         <v>2705</v>
       </c>
-      <c r="J195" s="36"/>
-      <c r="K195" s="36"/>
-      <c r="L195" s="36"/>
-      <c r="M195" s="36"/>
-      <c r="N195" s="36"/>
-      <c r="O195" s="36"/>
-      <c r="P195" s="36"/>
-    </row>
-    <row r="196" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="38" t="s">
+      <c r="J195" s="34"/>
+      <c r="K195" s="34"/>
+      <c r="L195" s="34"/>
+      <c r="M195" s="34"/>
+      <c r="N195" s="34"/>
+      <c r="O195" s="34"/>
+      <c r="P195" s="34"/>
+    </row>
+    <row r="196" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B196" s="33" t="s">
+      <c r="B196" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C196" s="33"/>
-      <c r="D196" s="34" t="s">
+      <c r="C196" s="31"/>
+      <c r="D196" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E196" s="35" t="s">
+      <c r="E196" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F196" s="36" t="str" cm="1">
+      <c r="F196" s="34" t="str" cm="1">
         <f t="array" ref="F196">_xlfn.REGEXEXTRACT(E196, "\d+")</f>
         <v>83</v>
       </c>
-      <c r="G196" s="36" t="s">
+      <c r="G196" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H196" s="37" t="s">
+      <c r="H196" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I196" s="37">
+      <c r="I196" s="35">
         <v>2705</v>
       </c>
-      <c r="J196" s="36"/>
-      <c r="K196" s="36"/>
-      <c r="L196" s="36"/>
-      <c r="M196" s="36"/>
-      <c r="N196" s="36"/>
-      <c r="O196" s="36"/>
-      <c r="P196" s="36"/>
-    </row>
-    <row r="197" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="38" t="s">
+      <c r="J196" s="34"/>
+      <c r="K196" s="34"/>
+      <c r="L196" s="34"/>
+      <c r="M196" s="34"/>
+      <c r="N196" s="34"/>
+      <c r="O196" s="34"/>
+      <c r="P196" s="34"/>
+    </row>
+    <row r="197" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B197" s="33" t="s">
+      <c r="B197" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C197" s="33"/>
-      <c r="D197" s="34" t="s">
+      <c r="C197" s="31"/>
+      <c r="D197" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E197" s="35" t="s">
+      <c r="E197" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F197" s="36" t="str" cm="1">
+      <c r="F197" s="34" t="str" cm="1">
         <f t="array" ref="F197">_xlfn.REGEXEXTRACT(E197, "\d+")</f>
         <v>84</v>
       </c>
-      <c r="G197" s="36" t="s">
+      <c r="G197" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H197" s="37" t="s">
+      <c r="H197" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I197" s="37">
+      <c r="I197" s="35">
         <v>2705</v>
       </c>
-      <c r="J197" s="36"/>
-      <c r="K197" s="36"/>
-      <c r="L197" s="36"/>
-      <c r="M197" s="36"/>
-      <c r="N197" s="36"/>
-      <c r="O197" s="36"/>
-      <c r="P197" s="36"/>
-    </row>
-    <row r="198" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="38" t="s">
+      <c r="J197" s="34"/>
+      <c r="K197" s="34"/>
+      <c r="L197" s="34"/>
+      <c r="M197" s="34"/>
+      <c r="N197" s="34"/>
+      <c r="O197" s="34"/>
+      <c r="P197" s="34"/>
+    </row>
+    <row r="198" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B198" s="33" t="s">
+      <c r="B198" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34" t="s">
+      <c r="C198" s="31"/>
+      <c r="D198" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E198" s="35" t="s">
+      <c r="E198" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="F198" s="36" t="str" cm="1">
+      <c r="F198" s="34" t="str" cm="1">
         <f t="array" ref="F198">_xlfn.REGEXEXTRACT(E198, "\d+")</f>
         <v>85</v>
       </c>
-      <c r="G198" s="36" t="s">
+      <c r="G198" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H198" s="37" t="s">
+      <c r="H198" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I198" s="37">
+      <c r="I198" s="35">
         <v>2705</v>
       </c>
-      <c r="J198" s="36"/>
-      <c r="K198" s="36"/>
-      <c r="L198" s="36"/>
-      <c r="M198" s="36"/>
-      <c r="N198" s="36"/>
-      <c r="O198" s="36"/>
-      <c r="P198" s="36"/>
-    </row>
-    <row r="199" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="38" t="s">
+      <c r="J198" s="34"/>
+      <c r="K198" s="34"/>
+      <c r="L198" s="34"/>
+      <c r="M198" s="34"/>
+      <c r="N198" s="34"/>
+      <c r="O198" s="34"/>
+      <c r="P198" s="34"/>
+    </row>
+    <row r="199" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B199" s="33" t="s">
+      <c r="B199" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C199" s="33"/>
-      <c r="D199" s="34" t="s">
+      <c r="C199" s="31"/>
+      <c r="D199" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E199" s="35" t="s">
+      <c r="E199" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="F199" s="36" t="str" cm="1">
+      <c r="F199" s="34" t="str" cm="1">
         <f t="array" ref="F199">_xlfn.REGEXEXTRACT(E199, "\d+")</f>
         <v>86</v>
       </c>
-      <c r="G199" s="36" t="s">
+      <c r="G199" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H199" s="37" t="s">
+      <c r="H199" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I199" s="37">
+      <c r="I199" s="35">
         <v>2705</v>
       </c>
-      <c r="J199" s="36"/>
-      <c r="K199" s="36"/>
-      <c r="L199" s="36"/>
-      <c r="M199" s="36"/>
-      <c r="N199" s="36"/>
-      <c r="O199" s="36"/>
-      <c r="P199" s="36"/>
-    </row>
-    <row r="200" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="38" t="s">
+      <c r="J199" s="34"/>
+      <c r="K199" s="34"/>
+      <c r="L199" s="34"/>
+      <c r="M199" s="34"/>
+      <c r="N199" s="34"/>
+      <c r="O199" s="34"/>
+      <c r="P199" s="34"/>
+    </row>
+    <row r="200" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B200" s="33" t="s">
+      <c r="B200" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C200" s="33"/>
-      <c r="D200" s="34" t="s">
+      <c r="C200" s="31"/>
+      <c r="D200" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E200" s="35" t="s">
+      <c r="E200" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F200" s="36" t="str" cm="1">
+      <c r="F200" s="34" t="str" cm="1">
         <f t="array" ref="F200">_xlfn.REGEXEXTRACT(E200, "\d+")</f>
         <v>62</v>
       </c>
-      <c r="G200" s="36" t="s">
+      <c r="G200" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H200" s="37" t="s">
+      <c r="H200" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I200" s="37">
+      <c r="I200" s="35">
         <v>2705</v>
       </c>
-      <c r="J200" s="36"/>
-      <c r="K200" s="36"/>
-      <c r="L200" s="36"/>
-      <c r="M200" s="36"/>
-      <c r="N200" s="36"/>
-      <c r="O200" s="36"/>
-      <c r="P200" s="36"/>
-    </row>
-    <row r="201" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="38" t="s">
+      <c r="J200" s="34"/>
+      <c r="K200" s="34"/>
+      <c r="L200" s="34"/>
+      <c r="M200" s="34"/>
+      <c r="N200" s="34"/>
+      <c r="O200" s="34"/>
+      <c r="P200" s="34"/>
+    </row>
+    <row r="201" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B201" s="33" t="s">
+      <c r="B201" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C201" s="33"/>
-      <c r="D201" s="34" t="s">
+      <c r="C201" s="31"/>
+      <c r="D201" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E201" s="35" t="s">
+      <c r="E201" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="F201" s="36" t="str" cm="1">
+      <c r="F201" s="34" t="str" cm="1">
         <f t="array" ref="F201">_xlfn.REGEXEXTRACT(E201, "\d+")</f>
         <v>63</v>
       </c>
-      <c r="G201" s="36" t="s">
+      <c r="G201" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H201" s="37" t="s">
+      <c r="H201" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I201" s="37">
+      <c r="I201" s="35">
         <v>2705</v>
       </c>
-      <c r="J201" s="36"/>
-      <c r="K201" s="36"/>
-      <c r="L201" s="36"/>
-      <c r="M201" s="36"/>
-      <c r="N201" s="36"/>
-      <c r="O201" s="36"/>
-      <c r="P201" s="36"/>
-    </row>
-    <row r="202" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="38" t="s">
+      <c r="J201" s="34"/>
+      <c r="K201" s="34"/>
+      <c r="L201" s="34"/>
+      <c r="M201" s="34"/>
+      <c r="N201" s="34"/>
+      <c r="O201" s="34"/>
+      <c r="P201" s="34"/>
+    </row>
+    <row r="202" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B202" s="33" t="s">
+      <c r="B202" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C202" s="33"/>
-      <c r="D202" s="34" t="s">
+      <c r="C202" s="31"/>
+      <c r="D202" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E202" s="35" t="s">
+      <c r="E202" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F202" s="36" t="str" cm="1">
+      <c r="F202" s="34" t="str" cm="1">
         <f t="array" ref="F202">_xlfn.REGEXEXTRACT(E202, "\d+")</f>
         <v>16</v>
       </c>
-      <c r="G202" s="36" t="s">
+      <c r="G202" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H202" s="37" t="s">
+      <c r="H202" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I202" s="37">
+      <c r="I202" s="35">
         <v>2500</v>
       </c>
-      <c r="J202" s="36"/>
-      <c r="K202" s="36"/>
-      <c r="L202" s="36"/>
-      <c r="M202" s="36"/>
-      <c r="N202" s="36"/>
-      <c r="O202" s="36"/>
-      <c r="P202" s="36"/>
-    </row>
-    <row r="203" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="38" t="s">
+      <c r="J202" s="34"/>
+      <c r="K202" s="34"/>
+      <c r="L202" s="34"/>
+      <c r="M202" s="34"/>
+      <c r="N202" s="34"/>
+      <c r="O202" s="34"/>
+      <c r="P202" s="34"/>
+    </row>
+    <row r="203" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B203" s="33" t="s">
+      <c r="B203" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C203" s="33"/>
-      <c r="D203" s="34" t="s">
+      <c r="C203" s="31"/>
+      <c r="D203" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E203" s="35" t="s">
+      <c r="E203" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="F203" s="36" t="str" cm="1">
+      <c r="F203" s="34" t="str" cm="1">
         <f t="array" ref="F203">_xlfn.REGEXEXTRACT(E203, "\d+")</f>
         <v>17</v>
       </c>
-      <c r="G203" s="36" t="s">
+      <c r="G203" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H203" s="37" t="s">
+      <c r="H203" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I203" s="37">
+      <c r="I203" s="35">
         <v>2500</v>
       </c>
-      <c r="J203" s="36"/>
-      <c r="K203" s="36"/>
-      <c r="L203" s="36"/>
-      <c r="M203" s="36"/>
-      <c r="N203" s="36"/>
-      <c r="O203" s="36"/>
-      <c r="P203" s="36"/>
-    </row>
-    <row r="204" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="38" t="s">
+      <c r="J203" s="34"/>
+      <c r="K203" s="34"/>
+      <c r="L203" s="34"/>
+      <c r="M203" s="34"/>
+      <c r="N203" s="34"/>
+      <c r="O203" s="34"/>
+      <c r="P203" s="34"/>
+    </row>
+    <row r="204" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B204" s="33" t="s">
+      <c r="B204" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C204" s="33"/>
-      <c r="D204" s="34" t="s">
+      <c r="C204" s="31"/>
+      <c r="D204" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E204" s="35" t="s">
+      <c r="E204" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F204" s="36" t="str" cm="1">
+      <c r="F204" s="34" t="str" cm="1">
         <f t="array" ref="F204">_xlfn.REGEXEXTRACT(E204, "\d+")</f>
         <v>18</v>
       </c>
-      <c r="G204" s="36" t="s">
+      <c r="G204" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H204" s="37" t="s">
+      <c r="H204" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I204" s="37">
+      <c r="I204" s="35">
         <v>2500</v>
       </c>
-      <c r="J204" s="36"/>
-      <c r="K204" s="36"/>
-      <c r="L204" s="36"/>
-      <c r="M204" s="36"/>
-      <c r="N204" s="36"/>
-      <c r="O204" s="36"/>
-      <c r="P204" s="36"/>
-    </row>
-    <row r="205" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="38" t="s">
+      <c r="J204" s="34"/>
+      <c r="K204" s="34"/>
+      <c r="L204" s="34"/>
+      <c r="M204" s="34"/>
+      <c r="N204" s="34"/>
+      <c r="O204" s="34"/>
+      <c r="P204" s="34"/>
+    </row>
+    <row r="205" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B205" s="33" t="s">
+      <c r="B205" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="34" t="s">
+      <c r="C205" s="31"/>
+      <c r="D205" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E205" s="35" t="s">
+      <c r="E205" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="F205" s="36" t="str" cm="1">
+      <c r="F205" s="34" t="str" cm="1">
         <f t="array" ref="F205">_xlfn.REGEXEXTRACT(E205, "\d+")</f>
         <v>19</v>
       </c>
-      <c r="G205" s="36" t="s">
+      <c r="G205" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H205" s="37" t="s">
+      <c r="H205" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I205" s="37">
+      <c r="I205" s="35">
         <v>2500</v>
       </c>
-      <c r="J205" s="36"/>
-      <c r="K205" s="36"/>
-      <c r="L205" s="36"/>
-      <c r="M205" s="36"/>
-      <c r="N205" s="36"/>
-      <c r="O205" s="36"/>
-      <c r="P205" s="36"/>
-    </row>
-    <row r="206" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="38" t="s">
+      <c r="J205" s="34"/>
+      <c r="K205" s="34"/>
+      <c r="L205" s="34"/>
+      <c r="M205" s="34"/>
+      <c r="N205" s="34"/>
+      <c r="O205" s="34"/>
+      <c r="P205" s="34"/>
+    </row>
+    <row r="206" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B206" s="33" t="s">
+      <c r="B206" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C206" s="33"/>
-      <c r="D206" s="34" t="s">
+      <c r="C206" s="31"/>
+      <c r="D206" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E206" s="35" t="s">
+      <c r="E206" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="F206" s="36" t="str" cm="1">
+      <c r="F206" s="34" t="str" cm="1">
         <f t="array" ref="F206">_xlfn.REGEXEXTRACT(E206, "\d+")</f>
         <v>20</v>
       </c>
-      <c r="G206" s="36" t="s">
+      <c r="G206" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H206" s="37" t="s">
+      <c r="H206" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I206" s="37">
+      <c r="I206" s="35">
         <v>2500</v>
       </c>
-      <c r="J206" s="36"/>
-      <c r="K206" s="36"/>
-      <c r="L206" s="36"/>
-      <c r="M206" s="36"/>
-      <c r="N206" s="36"/>
-      <c r="O206" s="36"/>
-      <c r="P206" s="36"/>
-    </row>
-    <row r="207" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="38" t="s">
+      <c r="J206" s="34"/>
+      <c r="K206" s="34"/>
+      <c r="L206" s="34"/>
+      <c r="M206" s="34"/>
+      <c r="N206" s="34"/>
+      <c r="O206" s="34"/>
+      <c r="P206" s="34"/>
+    </row>
+    <row r="207" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B207" s="33" t="s">
+      <c r="B207" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C207" s="33"/>
-      <c r="D207" s="34" t="s">
+      <c r="C207" s="31"/>
+      <c r="D207" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="E207" s="35" t="s">
+      <c r="E207" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F207" s="36" t="str" cm="1">
+      <c r="F207" s="34" t="str" cm="1">
         <f t="array" ref="F207">_xlfn.REGEXEXTRACT(E207, "\d+")</f>
         <v>22</v>
       </c>
-      <c r="G207" s="36" t="s">
+      <c r="G207" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H207" s="37" t="s">
+      <c r="H207" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I207" s="37">
+      <c r="I207" s="35">
         <v>2500</v>
       </c>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
-      <c r="L207" s="36"/>
-      <c r="M207" s="36"/>
-      <c r="N207" s="36"/>
-      <c r="O207" s="36"/>
-      <c r="P207" s="36"/>
-    </row>
-    <row r="208" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="38" t="s">
+      <c r="J207" s="34"/>
+      <c r="K207" s="34"/>
+      <c r="L207" s="34"/>
+      <c r="M207" s="34"/>
+      <c r="N207" s="34"/>
+      <c r="O207" s="34"/>
+      <c r="P207" s="34"/>
+    </row>
+    <row r="208" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="B208" s="33" t="s">
+      <c r="B208" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C208" s="33"/>
-      <c r="D208" s="34" t="s">
+      <c r="C208" s="31"/>
+      <c r="D208" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E208" s="35" t="s">
+      <c r="E208" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="F208" s="36" t="str" cm="1">
+      <c r="F208" s="34" t="str" cm="1">
         <f t="array" ref="F208">_xlfn.REGEXEXTRACT(E208, "\d+")</f>
         <v>82</v>
       </c>
-      <c r="G208" s="36" t="s">
+      <c r="G208" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H208" s="37" t="s">
+      <c r="H208" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I208" s="37">
+      <c r="I208" s="35">
         <v>2993</v>
       </c>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
-      <c r="L208" s="36"/>
-      <c r="M208" s="36"/>
-      <c r="N208" s="36"/>
-      <c r="O208" s="36"/>
-      <c r="P208" s="36"/>
-    </row>
-    <row r="209" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="40" t="s">
+      <c r="J208" s="34"/>
+      <c r="K208" s="34"/>
+      <c r="L208" s="34"/>
+      <c r="M208" s="34"/>
+      <c r="N208" s="34"/>
+      <c r="O208" s="34"/>
+      <c r="P208" s="34"/>
+    </row>
+    <row r="209" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C209" s="41" t="s">
+      <c r="C209" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D209" s="41">
+      <c r="D209" s="39">
         <v>1</v>
       </c>
-      <c r="E209" s="42" t="s">
+      <c r="E209" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="F209" s="43"/>
-      <c r="G209" s="43" t="s">
+      <c r="F209" s="41"/>
+      <c r="G209" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H209" s="44" t="s">
+      <c r="H209" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I209" s="44"/>
-      <c r="J209" s="43"/>
-      <c r="K209" s="43"/>
-      <c r="L209" s="43"/>
-      <c r="M209" s="43"/>
-      <c r="N209" s="43"/>
-      <c r="O209" s="43"/>
-      <c r="P209" s="43"/>
-    </row>
-    <row r="210" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="40" t="s">
+      <c r="I209" s="42"/>
+      <c r="J209" s="41"/>
+      <c r="K209" s="41"/>
+      <c r="L209" s="41"/>
+      <c r="M209" s="41"/>
+      <c r="N209" s="41"/>
+      <c r="O209" s="41"/>
+      <c r="P209" s="41"/>
+    </row>
+    <row r="210" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C210" s="41" t="s">
+      <c r="C210" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D210" s="41" t="s">
+      <c r="D210" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E210" s="42" t="s">
+      <c r="E210" s="40" t="s">
         <v>600</v>
       </c>
-      <c r="F210" s="43"/>
-      <c r="G210" s="43" t="s">
+      <c r="F210" s="41"/>
+      <c r="G210" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H210" s="44" t="s">
+      <c r="H210" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I210" s="44"/>
-      <c r="J210" s="43"/>
-      <c r="K210" s="43"/>
-      <c r="L210" s="43"/>
-      <c r="M210" s="43"/>
-      <c r="N210" s="43"/>
-      <c r="O210" s="43"/>
-      <c r="P210" s="43"/>
-    </row>
-    <row r="211" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="40" t="s">
+      <c r="I210" s="42"/>
+      <c r="J210" s="41"/>
+      <c r="K210" s="41"/>
+      <c r="L210" s="41"/>
+      <c r="M210" s="41"/>
+      <c r="N210" s="41"/>
+      <c r="O210" s="41"/>
+      <c r="P210" s="41"/>
+    </row>
+    <row r="211" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C211" s="41" t="s">
+      <c r="C211" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D211" s="41">
+      <c r="D211" s="39">
         <v>1</v>
       </c>
-      <c r="E211" s="42" t="s">
+      <c r="E211" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="F211" s="43"/>
-      <c r="G211" s="43" t="s">
+      <c r="F211" s="41"/>
+      <c r="G211" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H211" s="44" t="s">
+      <c r="H211" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I211" s="44"/>
-      <c r="J211" s="43"/>
-      <c r="K211" s="43"/>
-      <c r="L211" s="43"/>
-      <c r="M211" s="43"/>
-      <c r="N211" s="43"/>
-      <c r="O211" s="43"/>
-      <c r="P211" s="43"/>
-    </row>
-    <row r="212" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="40" t="s">
+      <c r="I211" s="42"/>
+      <c r="J211" s="41"/>
+      <c r="K211" s="41"/>
+      <c r="L211" s="41"/>
+      <c r="M211" s="41"/>
+      <c r="N211" s="41"/>
+      <c r="O211" s="41"/>
+      <c r="P211" s="41"/>
+    </row>
+    <row r="212" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C212" s="41" t="s">
+      <c r="C212" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D212" s="41" t="s">
+      <c r="D212" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E212" s="42" t="s">
+      <c r="E212" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="F212" s="43"/>
-      <c r="G212" s="43" t="s">
+      <c r="F212" s="41"/>
+      <c r="G212" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H212" s="44" t="s">
+      <c r="H212" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I212" s="44"/>
-      <c r="J212" s="43"/>
-      <c r="K212" s="43"/>
-      <c r="L212" s="43"/>
-      <c r="M212" s="43"/>
-      <c r="N212" s="43"/>
-      <c r="O212" s="43"/>
-      <c r="P212" s="43"/>
-    </row>
-    <row r="213" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="40" t="s">
+      <c r="I212" s="42"/>
+      <c r="J212" s="41"/>
+      <c r="K212" s="41"/>
+      <c r="L212" s="41"/>
+      <c r="M212" s="41"/>
+      <c r="N212" s="41"/>
+      <c r="O212" s="41"/>
+      <c r="P212" s="41"/>
+    </row>
+    <row r="213" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C213" s="41" t="s">
+      <c r="C213" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D213" s="41">
+      <c r="D213" s="39">
         <v>1</v>
       </c>
-      <c r="E213" s="42" t="s">
+      <c r="E213" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="F213" s="43"/>
-      <c r="G213" s="43" t="s">
+      <c r="F213" s="41"/>
+      <c r="G213" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H213" s="44" t="s">
+      <c r="H213" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I213" s="44"/>
-      <c r="J213" s="43"/>
-      <c r="K213" s="43"/>
-      <c r="L213" s="43"/>
-      <c r="M213" s="43"/>
-      <c r="N213" s="43"/>
-      <c r="O213" s="43"/>
-      <c r="P213" s="43"/>
-    </row>
-    <row r="214" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="40" t="s">
+      <c r="I213" s="42"/>
+      <c r="J213" s="41"/>
+      <c r="K213" s="41"/>
+      <c r="L213" s="41"/>
+      <c r="M213" s="41"/>
+      <c r="N213" s="41"/>
+      <c r="O213" s="41"/>
+      <c r="P213" s="41"/>
+    </row>
+    <row r="214" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C214" s="41" t="s">
+      <c r="C214" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D214" s="41" t="s">
+      <c r="D214" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E214" s="42" t="s">
+      <c r="E214" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="F214" s="43"/>
-      <c r="G214" s="43" t="s">
+      <c r="F214" s="41"/>
+      <c r="G214" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H214" s="44" t="s">
+      <c r="H214" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I214" s="44"/>
-      <c r="J214" s="43"/>
-      <c r="K214" s="43"/>
-      <c r="L214" s="43"/>
-      <c r="M214" s="43"/>
-      <c r="N214" s="43"/>
-      <c r="O214" s="43"/>
-      <c r="P214" s="43"/>
-    </row>
-    <row r="215" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="40" t="s">
+      <c r="I214" s="42"/>
+      <c r="J214" s="41"/>
+      <c r="K214" s="41"/>
+      <c r="L214" s="41"/>
+      <c r="M214" s="41"/>
+      <c r="N214" s="41"/>
+      <c r="O214" s="41"/>
+      <c r="P214" s="41"/>
+    </row>
+    <row r="215" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C215" s="41" t="s">
+      <c r="C215" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D215" s="41">
+      <c r="D215" s="39">
         <v>1</v>
       </c>
-      <c r="E215" s="42" t="s">
+      <c r="E215" s="40" t="s">
         <v>605</v>
       </c>
-      <c r="F215" s="43"/>
-      <c r="G215" s="43" t="s">
+      <c r="F215" s="41"/>
+      <c r="G215" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H215" s="44" t="s">
+      <c r="H215" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I215" s="44"/>
-      <c r="J215" s="43"/>
-      <c r="K215" s="43"/>
-      <c r="L215" s="43"/>
-      <c r="M215" s="43"/>
-      <c r="N215" s="43"/>
-      <c r="O215" s="43"/>
-      <c r="P215" s="43"/>
-    </row>
-    <row r="216" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="40" t="s">
+      <c r="I215" s="42"/>
+      <c r="J215" s="41"/>
+      <c r="K215" s="41"/>
+      <c r="L215" s="41"/>
+      <c r="M215" s="41"/>
+      <c r="N215" s="41"/>
+      <c r="O215" s="41"/>
+      <c r="P215" s="41"/>
+    </row>
+    <row r="216" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C216" s="41" t="s">
+      <c r="C216" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D216" s="41" t="s">
+      <c r="D216" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E216" s="42" t="s">
+      <c r="E216" s="40" t="s">
         <v>606</v>
       </c>
-      <c r="F216" s="43"/>
-      <c r="G216" s="43" t="s">
+      <c r="F216" s="41"/>
+      <c r="G216" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H216" s="44" t="s">
+      <c r="H216" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I216" s="44"/>
-      <c r="J216" s="43"/>
-      <c r="K216" s="43"/>
-      <c r="L216" s="43"/>
-      <c r="M216" s="43"/>
-      <c r="N216" s="43"/>
-      <c r="O216" s="43"/>
-      <c r="P216" s="43"/>
-    </row>
-    <row r="217" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="40" t="s">
+      <c r="I216" s="42"/>
+      <c r="J216" s="41"/>
+      <c r="K216" s="41"/>
+      <c r="L216" s="41"/>
+      <c r="M216" s="41"/>
+      <c r="N216" s="41"/>
+      <c r="O216" s="41"/>
+      <c r="P216" s="41"/>
+    </row>
+    <row r="217" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C217" s="41" t="s">
+      <c r="C217" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D217" s="41">
+      <c r="D217" s="39">
         <v>1</v>
       </c>
-      <c r="E217" s="42" t="s">
+      <c r="E217" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="F217" s="43"/>
-      <c r="G217" s="43" t="s">
+      <c r="F217" s="41"/>
+      <c r="G217" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H217" s="44" t="s">
+      <c r="H217" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I217" s="44"/>
-      <c r="J217" s="43"/>
-      <c r="K217" s="43"/>
-      <c r="L217" s="43"/>
-      <c r="M217" s="43"/>
-      <c r="N217" s="43"/>
-      <c r="O217" s="43"/>
-      <c r="P217" s="43"/>
-    </row>
-    <row r="218" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="40" t="s">
+      <c r="I217" s="42"/>
+      <c r="J217" s="41"/>
+      <c r="K217" s="41"/>
+      <c r="L217" s="41"/>
+      <c r="M217" s="41"/>
+      <c r="N217" s="41"/>
+      <c r="O217" s="41"/>
+      <c r="P217" s="41"/>
+    </row>
+    <row r="218" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C218" s="41" t="s">
+      <c r="C218" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D218" s="41" t="s">
+      <c r="D218" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E218" s="42" t="s">
+      <c r="E218" s="40" t="s">
         <v>608</v>
       </c>
-      <c r="F218" s="43"/>
-      <c r="G218" s="43" t="s">
+      <c r="F218" s="41"/>
+      <c r="G218" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H218" s="44" t="s">
+      <c r="H218" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I218" s="44"/>
-      <c r="J218" s="43"/>
-      <c r="K218" s="43"/>
-      <c r="L218" s="43"/>
-      <c r="M218" s="43"/>
-      <c r="N218" s="43"/>
-      <c r="O218" s="43"/>
-      <c r="P218" s="43"/>
-    </row>
-    <row r="219" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="40" t="s">
+      <c r="I218" s="42"/>
+      <c r="J218" s="41"/>
+      <c r="K218" s="41"/>
+      <c r="L218" s="41"/>
+      <c r="M218" s="41"/>
+      <c r="N218" s="41"/>
+      <c r="O218" s="41"/>
+      <c r="P218" s="41"/>
+    </row>
+    <row r="219" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C219" s="41" t="s">
+      <c r="C219" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D219" s="41">
+      <c r="D219" s="39">
         <v>1</v>
       </c>
-      <c r="E219" s="42" t="s">
+      <c r="E219" s="40" t="s">
         <v>609</v>
       </c>
-      <c r="F219" s="43"/>
-      <c r="G219" s="43" t="s">
+      <c r="F219" s="41"/>
+      <c r="G219" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H219" s="44" t="s">
+      <c r="H219" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I219" s="44"/>
-      <c r="J219" s="43"/>
-      <c r="K219" s="43"/>
-      <c r="L219" s="43"/>
-      <c r="M219" s="43"/>
-      <c r="N219" s="43"/>
-      <c r="O219" s="43"/>
-      <c r="P219" s="43"/>
-    </row>
-    <row r="220" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="40" t="s">
+      <c r="I219" s="42"/>
+      <c r="J219" s="41"/>
+      <c r="K219" s="41"/>
+      <c r="L219" s="41"/>
+      <c r="M219" s="41"/>
+      <c r="N219" s="41"/>
+      <c r="O219" s="41"/>
+      <c r="P219" s="41"/>
+    </row>
+    <row r="220" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C220" s="41" t="s">
+      <c r="C220" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D220" s="41" t="s">
+      <c r="D220" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E220" s="42" t="s">
+      <c r="E220" s="40" t="s">
         <v>610</v>
       </c>
-      <c r="F220" s="43"/>
-      <c r="G220" s="43" t="s">
+      <c r="F220" s="41"/>
+      <c r="G220" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H220" s="44" t="s">
+      <c r="H220" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I220" s="44"/>
-      <c r="J220" s="43"/>
-      <c r="K220" s="43"/>
-      <c r="L220" s="43"/>
-      <c r="M220" s="43"/>
-      <c r="N220" s="43"/>
-      <c r="O220" s="43"/>
-      <c r="P220" s="43"/>
-    </row>
-    <row r="221" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="40" t="s">
+      <c r="I220" s="42"/>
+      <c r="J220" s="41"/>
+      <c r="K220" s="41"/>
+      <c r="L220" s="41"/>
+      <c r="M220" s="41"/>
+      <c r="N220" s="41"/>
+      <c r="O220" s="41"/>
+      <c r="P220" s="41"/>
+    </row>
+    <row r="221" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C221" s="41" t="s">
+      <c r="C221" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D221" s="41">
+      <c r="D221" s="39">
         <v>1</v>
       </c>
-      <c r="E221" s="42" t="s">
+      <c r="E221" s="40" t="s">
         <v>611</v>
       </c>
-      <c r="F221" s="43"/>
-      <c r="G221" s="43" t="s">
+      <c r="F221" s="41"/>
+      <c r="G221" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H221" s="44" t="s">
+      <c r="H221" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I221" s="44"/>
-      <c r="J221" s="43"/>
-      <c r="K221" s="43"/>
-      <c r="L221" s="43"/>
-      <c r="M221" s="43"/>
-      <c r="N221" s="43"/>
-      <c r="O221" s="43"/>
-      <c r="P221" s="43"/>
-    </row>
-    <row r="222" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="40" t="s">
+      <c r="I221" s="42"/>
+      <c r="J221" s="41"/>
+      <c r="K221" s="41"/>
+      <c r="L221" s="41"/>
+      <c r="M221" s="41"/>
+      <c r="N221" s="41"/>
+      <c r="O221" s="41"/>
+      <c r="P221" s="41"/>
+    </row>
+    <row r="222" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C222" s="41" t="s">
+      <c r="C222" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D222" s="41" t="s">
+      <c r="D222" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E222" s="42" t="s">
+      <c r="E222" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="F222" s="43"/>
-      <c r="G222" s="43" t="s">
+      <c r="F222" s="41"/>
+      <c r="G222" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H222" s="44" t="s">
+      <c r="H222" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I222" s="44"/>
-      <c r="J222" s="43"/>
-      <c r="K222" s="43"/>
-      <c r="L222" s="43"/>
-      <c r="M222" s="43"/>
-      <c r="N222" s="43"/>
-      <c r="O222" s="43"/>
-      <c r="P222" s="43"/>
-    </row>
-    <row r="223" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="40" t="s">
+      <c r="I222" s="42"/>
+      <c r="J222" s="41"/>
+      <c r="K222" s="41"/>
+      <c r="L222" s="41"/>
+      <c r="M222" s="41"/>
+      <c r="N222" s="41"/>
+      <c r="O222" s="41"/>
+      <c r="P222" s="41"/>
+    </row>
+    <row r="223" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C223" s="41" t="s">
+      <c r="C223" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D223" s="41">
+      <c r="D223" s="39">
         <v>1</v>
       </c>
-      <c r="E223" s="42" t="s">
+      <c r="E223" s="40" t="s">
         <v>613</v>
       </c>
-      <c r="F223" s="43"/>
-      <c r="G223" s="43" t="s">
+      <c r="F223" s="41"/>
+      <c r="G223" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H223" s="44" t="s">
+      <c r="H223" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I223" s="44"/>
-      <c r="J223" s="43"/>
-      <c r="K223" s="43"/>
-      <c r="L223" s="43"/>
-      <c r="M223" s="43"/>
-      <c r="N223" s="43"/>
-      <c r="O223" s="43"/>
-      <c r="P223" s="43"/>
-    </row>
-    <row r="224" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="40" t="s">
+      <c r="I223" s="42"/>
+      <c r="J223" s="41"/>
+      <c r="K223" s="41"/>
+      <c r="L223" s="41"/>
+      <c r="M223" s="41"/>
+      <c r="N223" s="41"/>
+      <c r="O223" s="41"/>
+      <c r="P223" s="41"/>
+    </row>
+    <row r="224" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C224" s="41" t="s">
+      <c r="C224" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D224" s="41" t="s">
+      <c r="D224" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E224" s="42" t="s">
+      <c r="E224" s="40" t="s">
         <v>614</v>
       </c>
-      <c r="F224" s="43"/>
-      <c r="G224" s="43" t="s">
+      <c r="F224" s="41"/>
+      <c r="G224" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H224" s="44" t="s">
+      <c r="H224" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I224" s="44"/>
-      <c r="J224" s="43"/>
-      <c r="K224" s="43"/>
-      <c r="L224" s="43"/>
-      <c r="M224" s="43"/>
-      <c r="N224" s="43"/>
-      <c r="O224" s="43"/>
-      <c r="P224" s="43"/>
-    </row>
-    <row r="225" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="40" t="s">
+      <c r="I224" s="42"/>
+      <c r="J224" s="41"/>
+      <c r="K224" s="41"/>
+      <c r="L224" s="41"/>
+      <c r="M224" s="41"/>
+      <c r="N224" s="41"/>
+      <c r="O224" s="41"/>
+      <c r="P224" s="41"/>
+    </row>
+    <row r="225" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C225" s="41" t="s">
+      <c r="C225" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D225" s="41">
+      <c r="D225" s="39">
         <v>1</v>
       </c>
-      <c r="E225" s="42" t="s">
+      <c r="E225" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="F225" s="43"/>
-      <c r="G225" s="43" t="s">
+      <c r="F225" s="41"/>
+      <c r="G225" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H225" s="44" t="s">
+      <c r="H225" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I225" s="44"/>
-      <c r="J225" s="43"/>
-      <c r="K225" s="43"/>
-      <c r="L225" s="43"/>
-      <c r="M225" s="43"/>
-      <c r="N225" s="43"/>
-      <c r="O225" s="43"/>
-      <c r="P225" s="43"/>
-    </row>
-    <row r="226" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="40" t="s">
+      <c r="I225" s="42"/>
+      <c r="J225" s="41"/>
+      <c r="K225" s="41"/>
+      <c r="L225" s="41"/>
+      <c r="M225" s="41"/>
+      <c r="N225" s="41"/>
+      <c r="O225" s="41"/>
+      <c r="P225" s="41"/>
+    </row>
+    <row r="226" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C226" s="41" t="s">
+      <c r="C226" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D226" s="41" t="s">
+      <c r="D226" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E226" s="42" t="s">
+      <c r="E226" s="40" t="s">
         <v>616</v>
       </c>
-      <c r="F226" s="43"/>
-      <c r="G226" s="43" t="s">
+      <c r="F226" s="41"/>
+      <c r="G226" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H226" s="44" t="s">
+      <c r="H226" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I226" s="44"/>
-      <c r="J226" s="43"/>
-      <c r="K226" s="43"/>
-      <c r="L226" s="43"/>
-      <c r="M226" s="43"/>
-      <c r="N226" s="43"/>
-      <c r="O226" s="43"/>
-      <c r="P226" s="43"/>
-    </row>
-    <row r="227" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="40" t="s">
+      <c r="I226" s="42"/>
+      <c r="J226" s="41"/>
+      <c r="K226" s="41"/>
+      <c r="L226" s="41"/>
+      <c r="M226" s="41"/>
+      <c r="N226" s="41"/>
+      <c r="O226" s="41"/>
+      <c r="P226" s="41"/>
+    </row>
+    <row r="227" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C227" s="41" t="s">
+      <c r="C227" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D227" s="41">
+      <c r="D227" s="39">
         <v>1</v>
       </c>
-      <c r="E227" s="42" t="s">
+      <c r="E227" s="40" t="s">
         <v>617</v>
       </c>
-      <c r="F227" s="43"/>
-      <c r="G227" s="43" t="s">
+      <c r="F227" s="41"/>
+      <c r="G227" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H227" s="44" t="s">
+      <c r="H227" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I227" s="44"/>
-      <c r="J227" s="43"/>
-      <c r="K227" s="43"/>
-      <c r="L227" s="43"/>
-      <c r="M227" s="43"/>
-      <c r="N227" s="43"/>
-      <c r="O227" s="43"/>
-      <c r="P227" s="43"/>
-    </row>
-    <row r="228" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="40" t="s">
+      <c r="I227" s="42"/>
+      <c r="J227" s="41"/>
+      <c r="K227" s="41"/>
+      <c r="L227" s="41"/>
+      <c r="M227" s="41"/>
+      <c r="N227" s="41"/>
+      <c r="O227" s="41"/>
+      <c r="P227" s="41"/>
+    </row>
+    <row r="228" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C228" s="41" t="s">
+      <c r="C228" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D228" s="41" t="s">
+      <c r="D228" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E228" s="42" t="s">
+      <c r="E228" s="40" t="s">
         <v>618</v>
       </c>
-      <c r="F228" s="43"/>
-      <c r="G228" s="43" t="s">
+      <c r="F228" s="41"/>
+      <c r="G228" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H228" s="44" t="s">
+      <c r="H228" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I228" s="44"/>
-      <c r="J228" s="43"/>
-      <c r="K228" s="43"/>
-      <c r="L228" s="43"/>
-      <c r="M228" s="43"/>
-      <c r="N228" s="43"/>
-      <c r="O228" s="43"/>
-      <c r="P228" s="43"/>
-    </row>
-    <row r="229" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="40" t="s">
+      <c r="I228" s="42"/>
+      <c r="J228" s="41"/>
+      <c r="K228" s="41"/>
+      <c r="L228" s="41"/>
+      <c r="M228" s="41"/>
+      <c r="N228" s="41"/>
+      <c r="O228" s="41"/>
+      <c r="P228" s="41"/>
+    </row>
+    <row r="229" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C229" s="41" t="s">
+      <c r="C229" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D229" s="41">
+      <c r="D229" s="39">
         <v>1</v>
       </c>
-      <c r="E229" s="42" t="s">
+      <c r="E229" s="40" t="s">
         <v>619</v>
       </c>
-      <c r="F229" s="43"/>
-      <c r="G229" s="43" t="s">
+      <c r="F229" s="41"/>
+      <c r="G229" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H229" s="44" t="s">
+      <c r="H229" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I229" s="44"/>
-      <c r="J229" s="43"/>
-      <c r="K229" s="43"/>
-      <c r="L229" s="43"/>
-      <c r="M229" s="43"/>
-      <c r="N229" s="43"/>
-      <c r="O229" s="43"/>
-      <c r="P229" s="43"/>
-    </row>
-    <row r="230" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="40" t="s">
+      <c r="I229" s="42"/>
+      <c r="J229" s="41"/>
+      <c r="K229" s="41"/>
+      <c r="L229" s="41"/>
+      <c r="M229" s="41"/>
+      <c r="N229" s="41"/>
+      <c r="O229" s="41"/>
+      <c r="P229" s="41"/>
+    </row>
+    <row r="230" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C230" s="41" t="s">
+      <c r="C230" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D230" s="41" t="s">
+      <c r="D230" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E230" s="42" t="s">
+      <c r="E230" s="40" t="s">
         <v>620</v>
       </c>
-      <c r="F230" s="43"/>
-      <c r="G230" s="43" t="s">
+      <c r="F230" s="41"/>
+      <c r="G230" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H230" s="44" t="s">
+      <c r="H230" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I230" s="44"/>
-      <c r="J230" s="43"/>
-      <c r="K230" s="43"/>
-      <c r="L230" s="43"/>
-      <c r="M230" s="43"/>
-      <c r="N230" s="43"/>
-      <c r="O230" s="43"/>
-      <c r="P230" s="43"/>
-    </row>
-    <row r="231" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="40" t="s">
+      <c r="I230" s="42"/>
+      <c r="J230" s="41"/>
+      <c r="K230" s="41"/>
+      <c r="L230" s="41"/>
+      <c r="M230" s="41"/>
+      <c r="N230" s="41"/>
+      <c r="O230" s="41"/>
+      <c r="P230" s="41"/>
+    </row>
+    <row r="231" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C231" s="41" t="s">
+      <c r="C231" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D231" s="41">
+      <c r="D231" s="39">
         <v>1</v>
       </c>
-      <c r="E231" s="42" t="s">
+      <c r="E231" s="40" t="s">
         <v>621</v>
       </c>
-      <c r="F231" s="43"/>
-      <c r="G231" s="43" t="s">
+      <c r="F231" s="41"/>
+      <c r="G231" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H231" s="44" t="s">
+      <c r="H231" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I231" s="44"/>
-      <c r="J231" s="43"/>
-      <c r="K231" s="43"/>
-      <c r="L231" s="43"/>
-      <c r="M231" s="43"/>
-      <c r="N231" s="43"/>
-      <c r="O231" s="43"/>
-      <c r="P231" s="43"/>
-    </row>
-    <row r="232" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="40" t="s">
+      <c r="I231" s="42"/>
+      <c r="J231" s="41"/>
+      <c r="K231" s="41"/>
+      <c r="L231" s="41"/>
+      <c r="M231" s="41"/>
+      <c r="N231" s="41"/>
+      <c r="O231" s="41"/>
+      <c r="P231" s="41"/>
+    </row>
+    <row r="232" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C232" s="41" t="s">
+      <c r="C232" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D232" s="41" t="s">
+      <c r="D232" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E232" s="42" t="s">
+      <c r="E232" s="40" t="s">
         <v>622</v>
       </c>
-      <c r="F232" s="43"/>
-      <c r="G232" s="43" t="s">
+      <c r="F232" s="41"/>
+      <c r="G232" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H232" s="44" t="s">
+      <c r="H232" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I232" s="44"/>
-      <c r="J232" s="43"/>
-      <c r="K232" s="43"/>
-      <c r="L232" s="43"/>
-      <c r="M232" s="43"/>
-      <c r="N232" s="43"/>
-      <c r="O232" s="43"/>
-      <c r="P232" s="43"/>
-    </row>
-    <row r="233" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="40" t="s">
+      <c r="I232" s="42"/>
+      <c r="J232" s="41"/>
+      <c r="K232" s="41"/>
+      <c r="L232" s="41"/>
+      <c r="M232" s="41"/>
+      <c r="N232" s="41"/>
+      <c r="O232" s="41"/>
+      <c r="P232" s="41"/>
+    </row>
+    <row r="233" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C233" s="41" t="s">
+      <c r="C233" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D233" s="41">
+      <c r="D233" s="39">
         <v>1</v>
       </c>
-      <c r="E233" s="42" t="s">
+      <c r="E233" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="F233" s="43"/>
-      <c r="G233" s="43" t="s">
+      <c r="F233" s="41"/>
+      <c r="G233" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H233" s="44" t="s">
+      <c r="H233" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I233" s="44"/>
-      <c r="J233" s="43"/>
-      <c r="K233" s="43"/>
-      <c r="L233" s="43"/>
-      <c r="M233" s="43"/>
-      <c r="N233" s="43"/>
-      <c r="O233" s="43"/>
-      <c r="P233" s="43"/>
-    </row>
-    <row r="234" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="40" t="s">
+      <c r="I233" s="42"/>
+      <c r="J233" s="41"/>
+      <c r="K233" s="41"/>
+      <c r="L233" s="41"/>
+      <c r="M233" s="41"/>
+      <c r="N233" s="41"/>
+      <c r="O233" s="41"/>
+      <c r="P233" s="41"/>
+    </row>
+    <row r="234" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C234" s="41" t="s">
+      <c r="C234" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D234" s="41" t="s">
+      <c r="D234" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E234" s="42" t="s">
+      <c r="E234" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="F234" s="43"/>
-      <c r="G234" s="43" t="s">
+      <c r="F234" s="41"/>
+      <c r="G234" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H234" s="44" t="s">
+      <c r="H234" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I234" s="44"/>
-      <c r="J234" s="43"/>
-      <c r="K234" s="43"/>
-      <c r="L234" s="43"/>
-      <c r="M234" s="43"/>
-      <c r="N234" s="43"/>
-      <c r="O234" s="43"/>
-      <c r="P234" s="43"/>
-    </row>
-    <row r="235" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="40" t="s">
+      <c r="I234" s="42"/>
+      <c r="J234" s="41"/>
+      <c r="K234" s="41"/>
+      <c r="L234" s="41"/>
+      <c r="M234" s="41"/>
+      <c r="N234" s="41"/>
+      <c r="O234" s="41"/>
+      <c r="P234" s="41"/>
+    </row>
+    <row r="235" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C235" s="41" t="s">
+      <c r="C235" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D235" s="41">
+      <c r="D235" s="39">
         <v>1</v>
       </c>
-      <c r="E235" s="42" t="s">
+      <c r="E235" s="40" t="s">
         <v>625</v>
       </c>
-      <c r="F235" s="43"/>
-      <c r="G235" s="43" t="s">
+      <c r="F235" s="41"/>
+      <c r="G235" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H235" s="44" t="s">
+      <c r="H235" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I235" s="44"/>
-      <c r="J235" s="43"/>
-      <c r="K235" s="43"/>
-      <c r="L235" s="43"/>
-      <c r="M235" s="43"/>
-      <c r="N235" s="43"/>
-      <c r="O235" s="43"/>
-      <c r="P235" s="43"/>
-    </row>
-    <row r="236" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="40" t="s">
+      <c r="I235" s="42"/>
+      <c r="J235" s="41"/>
+      <c r="K235" s="41"/>
+      <c r="L235" s="41"/>
+      <c r="M235" s="41"/>
+      <c r="N235" s="41"/>
+      <c r="O235" s="41"/>
+      <c r="P235" s="41"/>
+    </row>
+    <row r="236" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C236" s="41" t="s">
+      <c r="C236" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D236" s="41" t="s">
+      <c r="D236" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E236" s="42" t="s">
+      <c r="E236" s="40" t="s">
         <v>626</v>
       </c>
-      <c r="F236" s="43"/>
-      <c r="G236" s="43" t="s">
+      <c r="F236" s="41"/>
+      <c r="G236" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H236" s="44" t="s">
+      <c r="H236" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I236" s="44"/>
-      <c r="J236" s="43"/>
-      <c r="K236" s="43"/>
-      <c r="L236" s="43"/>
-      <c r="M236" s="43"/>
-      <c r="N236" s="43"/>
-      <c r="O236" s="43"/>
-      <c r="P236" s="43"/>
-    </row>
-    <row r="237" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="40" t="s">
+      <c r="I236" s="42"/>
+      <c r="J236" s="41"/>
+      <c r="K236" s="41"/>
+      <c r="L236" s="41"/>
+      <c r="M236" s="41"/>
+      <c r="N236" s="41"/>
+      <c r="O236" s="41"/>
+      <c r="P236" s="41"/>
+    </row>
+    <row r="237" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C237" s="41" t="s">
+      <c r="C237" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D237" s="41">
+      <c r="D237" s="39">
         <v>1</v>
       </c>
-      <c r="E237" s="42" t="s">
+      <c r="E237" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="F237" s="43"/>
-      <c r="G237" s="43" t="s">
+      <c r="F237" s="41"/>
+      <c r="G237" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H237" s="44" t="s">
+      <c r="H237" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I237" s="44"/>
-      <c r="J237" s="43"/>
-      <c r="K237" s="43"/>
-      <c r="L237" s="43"/>
-      <c r="M237" s="43"/>
-      <c r="N237" s="43"/>
-      <c r="O237" s="43"/>
-      <c r="P237" s="43"/>
-    </row>
-    <row r="238" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="40" t="s">
+      <c r="I237" s="42"/>
+      <c r="J237" s="41"/>
+      <c r="K237" s="41"/>
+      <c r="L237" s="41"/>
+      <c r="M237" s="41"/>
+      <c r="N237" s="41"/>
+      <c r="O237" s="41"/>
+      <c r="P237" s="41"/>
+    </row>
+    <row r="238" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C238" s="41" t="s">
+      <c r="C238" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="D238" s="41" t="s">
+      <c r="D238" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E238" s="42" t="s">
+      <c r="E238" s="40" t="s">
         <v>628</v>
       </c>
-      <c r="F238" s="43"/>
-      <c r="G238" s="43" t="s">
+      <c r="F238" s="41"/>
+      <c r="G238" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H238" s="44" t="s">
+      <c r="H238" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I238" s="44"/>
-      <c r="J238" s="43"/>
-      <c r="K238" s="43"/>
-      <c r="L238" s="43"/>
-      <c r="M238" s="43"/>
-      <c r="N238" s="43"/>
-      <c r="O238" s="43"/>
-      <c r="P238" s="43"/>
-    </row>
-    <row r="239" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="40" t="s">
+      <c r="I238" s="42"/>
+      <c r="J238" s="41"/>
+      <c r="K238" s="41"/>
+      <c r="L238" s="41"/>
+      <c r="M238" s="41"/>
+      <c r="N238" s="41"/>
+      <c r="O238" s="41"/>
+      <c r="P238" s="41"/>
+    </row>
+    <row r="239" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C239" s="41" t="s">
+      <c r="C239" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D239" s="41">
+      <c r="D239" s="39">
         <v>1</v>
       </c>
-      <c r="E239" s="42" t="s">
+      <c r="E239" s="40" t="s">
         <v>629</v>
       </c>
-      <c r="F239" s="43"/>
-      <c r="G239" s="43" t="s">
+      <c r="F239" s="41"/>
+      <c r="G239" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H239" s="44" t="s">
+      <c r="H239" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I239" s="44"/>
-      <c r="J239" s="43"/>
-      <c r="K239" s="43"/>
-      <c r="L239" s="43"/>
-      <c r="M239" s="43"/>
-      <c r="N239" s="43"/>
-      <c r="O239" s="43"/>
-      <c r="P239" s="43"/>
-    </row>
-    <row r="240" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="40" t="s">
+      <c r="I239" s="42"/>
+      <c r="J239" s="41"/>
+      <c r="K239" s="41"/>
+      <c r="L239" s="41"/>
+      <c r="M239" s="41"/>
+      <c r="N239" s="41"/>
+      <c r="O239" s="41"/>
+      <c r="P239" s="41"/>
+    </row>
+    <row r="240" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C240" s="41" t="s">
+      <c r="C240" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D240" s="41" t="s">
+      <c r="D240" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E240" s="42" t="s">
+      <c r="E240" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="F240" s="43"/>
-      <c r="G240" s="43" t="s">
+      <c r="F240" s="41"/>
+      <c r="G240" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H240" s="44" t="s">
+      <c r="H240" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I240" s="44"/>
-      <c r="J240" s="43"/>
-      <c r="K240" s="43"/>
-      <c r="L240" s="43"/>
-      <c r="M240" s="43"/>
-      <c r="N240" s="43"/>
-      <c r="O240" s="43"/>
-      <c r="P240" s="43"/>
-    </row>
-    <row r="241" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="40" t="s">
+      <c r="I240" s="42"/>
+      <c r="J240" s="41"/>
+      <c r="K240" s="41"/>
+      <c r="L240" s="41"/>
+      <c r="M240" s="41"/>
+      <c r="N240" s="41"/>
+      <c r="O240" s="41"/>
+      <c r="P240" s="41"/>
+    </row>
+    <row r="241" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C241" s="41" t="s">
+      <c r="C241" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D241" s="41">
+      <c r="D241" s="39">
         <v>1</v>
       </c>
-      <c r="E241" s="42" t="s">
+      <c r="E241" s="40" t="s">
         <v>631</v>
       </c>
-      <c r="F241" s="43"/>
-      <c r="G241" s="43" t="s">
+      <c r="F241" s="41"/>
+      <c r="G241" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H241" s="44" t="s">
+      <c r="H241" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I241" s="44"/>
-      <c r="J241" s="43"/>
-      <c r="K241" s="43"/>
-      <c r="L241" s="43"/>
-      <c r="M241" s="43"/>
-      <c r="N241" s="43"/>
-      <c r="O241" s="43"/>
-      <c r="P241" s="43"/>
-    </row>
-    <row r="242" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="40" t="s">
+      <c r="I241" s="42"/>
+      <c r="J241" s="41"/>
+      <c r="K241" s="41"/>
+      <c r="L241" s="41"/>
+      <c r="M241" s="41"/>
+      <c r="N241" s="41"/>
+      <c r="O241" s="41"/>
+      <c r="P241" s="41"/>
+    </row>
+    <row r="242" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C242" s="41" t="s">
+      <c r="C242" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D242" s="41" t="s">
+      <c r="D242" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E242" s="42" t="s">
+      <c r="E242" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="F242" s="43"/>
-      <c r="G242" s="43" t="s">
+      <c r="F242" s="41"/>
+      <c r="G242" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H242" s="44" t="s">
+      <c r="H242" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I242" s="44"/>
-      <c r="J242" s="43"/>
-      <c r="K242" s="43"/>
-      <c r="L242" s="43"/>
-      <c r="M242" s="43"/>
-      <c r="N242" s="43"/>
-      <c r="O242" s="43"/>
-      <c r="P242" s="43"/>
-    </row>
-    <row r="243" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="40" t="s">
+      <c r="I242" s="42"/>
+      <c r="J242" s="41"/>
+      <c r="K242" s="41"/>
+      <c r="L242" s="41"/>
+      <c r="M242" s="41"/>
+      <c r="N242" s="41"/>
+      <c r="O242" s="41"/>
+      <c r="P242" s="41"/>
+    </row>
+    <row r="243" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C243" s="41" t="s">
+      <c r="C243" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D243" s="41">
+      <c r="D243" s="39">
         <v>1</v>
       </c>
-      <c r="E243" s="42" t="s">
+      <c r="E243" s="40" t="s">
         <v>633</v>
       </c>
-      <c r="F243" s="43"/>
-      <c r="G243" s="43" t="s">
+      <c r="F243" s="41"/>
+      <c r="G243" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H243" s="44" t="s">
+      <c r="H243" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I243" s="44"/>
-      <c r="J243" s="43"/>
-      <c r="K243" s="43"/>
-      <c r="L243" s="43"/>
-      <c r="M243" s="43"/>
-      <c r="N243" s="43"/>
-      <c r="O243" s="43"/>
-      <c r="P243" s="43"/>
-    </row>
-    <row r="244" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="40" t="s">
+      <c r="I243" s="42"/>
+      <c r="J243" s="41"/>
+      <c r="K243" s="41"/>
+      <c r="L243" s="41"/>
+      <c r="M243" s="41"/>
+      <c r="N243" s="41"/>
+      <c r="O243" s="41"/>
+      <c r="P243" s="41"/>
+    </row>
+    <row r="244" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C244" s="41" t="s">
+      <c r="C244" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D244" s="41" t="s">
+      <c r="D244" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E244" s="42" t="s">
+      <c r="E244" s="40" t="s">
         <v>634</v>
       </c>
-      <c r="F244" s="43"/>
-      <c r="G244" s="43" t="s">
+      <c r="F244" s="41"/>
+      <c r="G244" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H244" s="44" t="s">
+      <c r="H244" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I244" s="44"/>
-      <c r="J244" s="43"/>
-      <c r="K244" s="43"/>
-      <c r="L244" s="43"/>
-      <c r="M244" s="43"/>
-      <c r="N244" s="43"/>
-      <c r="O244" s="43"/>
-      <c r="P244" s="43"/>
-    </row>
-    <row r="245" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="40" t="s">
+      <c r="I244" s="42"/>
+      <c r="J244" s="41"/>
+      <c r="K244" s="41"/>
+      <c r="L244" s="41"/>
+      <c r="M244" s="41"/>
+      <c r="N244" s="41"/>
+      <c r="O244" s="41"/>
+      <c r="P244" s="41"/>
+    </row>
+    <row r="245" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C245" s="41" t="s">
+      <c r="C245" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D245" s="41">
+      <c r="D245" s="39">
         <v>1</v>
       </c>
-      <c r="E245" s="42" t="s">
+      <c r="E245" s="40" t="s">
         <v>635</v>
       </c>
-      <c r="F245" s="43"/>
-      <c r="G245" s="43" t="s">
+      <c r="F245" s="41"/>
+      <c r="G245" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H245" s="44" t="s">
+      <c r="H245" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I245" s="44"/>
-      <c r="J245" s="43"/>
-      <c r="K245" s="43"/>
-      <c r="L245" s="43"/>
-      <c r="M245" s="43"/>
-      <c r="N245" s="43"/>
-      <c r="O245" s="43"/>
-      <c r="P245" s="43"/>
-    </row>
-    <row r="246" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="40" t="s">
+      <c r="I245" s="42"/>
+      <c r="J245" s="41"/>
+      <c r="K245" s="41"/>
+      <c r="L245" s="41"/>
+      <c r="M245" s="41"/>
+      <c r="N245" s="41"/>
+      <c r="O245" s="41"/>
+      <c r="P245" s="41"/>
+    </row>
+    <row r="246" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C246" s="41" t="s">
+      <c r="C246" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D246" s="41" t="s">
+      <c r="D246" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E246" s="42" t="s">
+      <c r="E246" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="F246" s="43"/>
-      <c r="G246" s="43" t="s">
+      <c r="F246" s="41"/>
+      <c r="G246" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H246" s="44" t="s">
+      <c r="H246" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I246" s="44"/>
-      <c r="J246" s="43"/>
-      <c r="K246" s="43"/>
-      <c r="L246" s="43"/>
-      <c r="M246" s="43"/>
-      <c r="N246" s="43"/>
-      <c r="O246" s="43"/>
-      <c r="P246" s="43"/>
-    </row>
-    <row r="247" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="40" t="s">
+      <c r="I246" s="42"/>
+      <c r="J246" s="41"/>
+      <c r="K246" s="41"/>
+      <c r="L246" s="41"/>
+      <c r="M246" s="41"/>
+      <c r="N246" s="41"/>
+      <c r="O246" s="41"/>
+      <c r="P246" s="41"/>
+    </row>
+    <row r="247" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C247" s="41" t="s">
+      <c r="C247" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D247" s="41">
+      <c r="D247" s="39">
         <v>1</v>
       </c>
-      <c r="E247" s="42" t="s">
+      <c r="E247" s="40" t="s">
         <v>637</v>
       </c>
-      <c r="F247" s="43"/>
-      <c r="G247" s="43" t="s">
+      <c r="F247" s="41"/>
+      <c r="G247" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H247" s="44" t="s">
+      <c r="H247" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I247" s="44"/>
-      <c r="J247" s="43"/>
-      <c r="K247" s="43"/>
-      <c r="L247" s="43"/>
-      <c r="M247" s="43"/>
-      <c r="N247" s="43"/>
-      <c r="O247" s="43"/>
-      <c r="P247" s="43"/>
-    </row>
-    <row r="248" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="40" t="s">
+      <c r="I247" s="42"/>
+      <c r="J247" s="41"/>
+      <c r="K247" s="41"/>
+      <c r="L247" s="41"/>
+      <c r="M247" s="41"/>
+      <c r="N247" s="41"/>
+      <c r="O247" s="41"/>
+      <c r="P247" s="41"/>
+    </row>
+    <row r="248" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C248" s="41" t="s">
+      <c r="C248" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D248" s="41" t="s">
+      <c r="D248" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E248" s="42" t="s">
+      <c r="E248" s="40" t="s">
         <v>638</v>
       </c>
-      <c r="F248" s="43"/>
-      <c r="G248" s="43" t="s">
+      <c r="F248" s="41"/>
+      <c r="G248" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H248" s="44" t="s">
+      <c r="H248" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I248" s="44"/>
-      <c r="J248" s="43"/>
-      <c r="K248" s="43"/>
-      <c r="L248" s="43"/>
-      <c r="M248" s="43"/>
-      <c r="N248" s="43"/>
-      <c r="O248" s="43"/>
-      <c r="P248" s="43"/>
-    </row>
-    <row r="249" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="40" t="s">
+      <c r="I248" s="42"/>
+      <c r="J248" s="41"/>
+      <c r="K248" s="41"/>
+      <c r="L248" s="41"/>
+      <c r="M248" s="41"/>
+      <c r="N248" s="41"/>
+      <c r="O248" s="41"/>
+      <c r="P248" s="41"/>
+    </row>
+    <row r="249" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C249" s="41" t="s">
+      <c r="C249" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D249" s="41">
+      <c r="D249" s="39">
         <v>1</v>
       </c>
-      <c r="E249" s="42" t="s">
+      <c r="E249" s="40" t="s">
         <v>639</v>
       </c>
-      <c r="F249" s="43"/>
-      <c r="G249" s="43" t="s">
+      <c r="F249" s="41"/>
+      <c r="G249" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H249" s="44" t="s">
+      <c r="H249" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I249" s="44"/>
-      <c r="J249" s="43"/>
-      <c r="K249" s="43"/>
-      <c r="L249" s="43"/>
-      <c r="M249" s="43"/>
-      <c r="N249" s="43"/>
-      <c r="O249" s="43"/>
-      <c r="P249" s="43"/>
-    </row>
-    <row r="250" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="40" t="s">
+      <c r="I249" s="42"/>
+      <c r="J249" s="41"/>
+      <c r="K249" s="41"/>
+      <c r="L249" s="41"/>
+      <c r="M249" s="41"/>
+      <c r="N249" s="41"/>
+      <c r="O249" s="41"/>
+      <c r="P249" s="41"/>
+    </row>
+    <row r="250" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C250" s="41" t="s">
+      <c r="C250" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D250" s="41" t="s">
+      <c r="D250" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E250" s="42" t="s">
+      <c r="E250" s="40" t="s">
         <v>640</v>
       </c>
-      <c r="F250" s="43"/>
-      <c r="G250" s="43" t="s">
+      <c r="F250" s="41"/>
+      <c r="G250" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H250" s="44" t="s">
+      <c r="H250" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I250" s="44"/>
-      <c r="J250" s="43"/>
-      <c r="K250" s="43"/>
-      <c r="L250" s="43"/>
-      <c r="M250" s="43"/>
-      <c r="N250" s="43"/>
-      <c r="O250" s="43"/>
-      <c r="P250" s="43"/>
-    </row>
-    <row r="251" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="40" t="s">
+      <c r="I250" s="42"/>
+      <c r="J250" s="41"/>
+      <c r="K250" s="41"/>
+      <c r="L250" s="41"/>
+      <c r="M250" s="41"/>
+      <c r="N250" s="41"/>
+      <c r="O250" s="41"/>
+      <c r="P250" s="41"/>
+    </row>
+    <row r="251" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C251" s="41" t="s">
+      <c r="C251" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D251" s="41">
+      <c r="D251" s="39">
         <v>1</v>
       </c>
-      <c r="E251" s="42" t="s">
+      <c r="E251" s="40" t="s">
         <v>641</v>
       </c>
-      <c r="F251" s="43"/>
-      <c r="G251" s="43" t="s">
+      <c r="F251" s="41"/>
+      <c r="G251" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H251" s="44" t="s">
+      <c r="H251" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I251" s="44"/>
-      <c r="J251" s="43"/>
-      <c r="K251" s="43"/>
-      <c r="L251" s="43"/>
-      <c r="M251" s="43"/>
-      <c r="N251" s="43"/>
-      <c r="O251" s="43"/>
-      <c r="P251" s="43"/>
-    </row>
-    <row r="252" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="40" t="s">
+      <c r="I251" s="42"/>
+      <c r="J251" s="41"/>
+      <c r="K251" s="41"/>
+      <c r="L251" s="41"/>
+      <c r="M251" s="41"/>
+      <c r="N251" s="41"/>
+      <c r="O251" s="41"/>
+      <c r="P251" s="41"/>
+    </row>
+    <row r="252" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C252" s="41" t="s">
+      <c r="C252" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D252" s="41" t="s">
+      <c r="D252" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E252" s="42" t="s">
+      <c r="E252" s="40" t="s">
         <v>642</v>
       </c>
-      <c r="F252" s="43"/>
-      <c r="G252" s="43" t="s">
+      <c r="F252" s="41"/>
+      <c r="G252" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H252" s="44" t="s">
+      <c r="H252" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I252" s="44"/>
-      <c r="J252" s="43"/>
-      <c r="K252" s="43"/>
-      <c r="L252" s="43"/>
-      <c r="M252" s="43"/>
-      <c r="N252" s="43"/>
-      <c r="O252" s="43"/>
-      <c r="P252" s="43"/>
-    </row>
-    <row r="253" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="40" t="s">
+      <c r="I252" s="42"/>
+      <c r="J252" s="41"/>
+      <c r="K252" s="41"/>
+      <c r="L252" s="41"/>
+      <c r="M252" s="41"/>
+      <c r="N252" s="41"/>
+      <c r="O252" s="41"/>
+      <c r="P252" s="41"/>
+    </row>
+    <row r="253" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C253" s="41" t="s">
+      <c r="C253" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D253" s="41">
+      <c r="D253" s="39">
         <v>1</v>
       </c>
-      <c r="E253" s="42" t="s">
+      <c r="E253" s="40" t="s">
         <v>643</v>
       </c>
-      <c r="F253" s="43"/>
-      <c r="G253" s="43" t="s">
+      <c r="F253" s="41"/>
+      <c r="G253" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H253" s="44" t="s">
+      <c r="H253" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I253" s="44"/>
-      <c r="J253" s="43"/>
-      <c r="K253" s="43"/>
-      <c r="L253" s="43"/>
-      <c r="M253" s="43"/>
-      <c r="N253" s="43"/>
-      <c r="O253" s="43"/>
-      <c r="P253" s="43"/>
-    </row>
-    <row r="254" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="40" t="s">
+      <c r="I253" s="42"/>
+      <c r="J253" s="41"/>
+      <c r="K253" s="41"/>
+      <c r="L253" s="41"/>
+      <c r="M253" s="41"/>
+      <c r="N253" s="41"/>
+      <c r="O253" s="41"/>
+      <c r="P253" s="41"/>
+    </row>
+    <row r="254" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C254" s="41" t="s">
+      <c r="C254" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D254" s="41" t="s">
+      <c r="D254" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E254" s="42" t="s">
+      <c r="E254" s="40" t="s">
         <v>644</v>
       </c>
-      <c r="F254" s="43"/>
-      <c r="G254" s="43" t="s">
+      <c r="F254" s="41"/>
+      <c r="G254" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H254" s="44" t="s">
+      <c r="H254" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I254" s="44"/>
-      <c r="J254" s="43"/>
-      <c r="K254" s="43"/>
-      <c r="L254" s="43"/>
-      <c r="M254" s="43"/>
-      <c r="N254" s="43"/>
-      <c r="O254" s="43"/>
-      <c r="P254" s="43"/>
-    </row>
-    <row r="255" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="40" t="s">
+      <c r="I254" s="42"/>
+      <c r="J254" s="41"/>
+      <c r="K254" s="41"/>
+      <c r="L254" s="41"/>
+      <c r="M254" s="41"/>
+      <c r="N254" s="41"/>
+      <c r="O254" s="41"/>
+      <c r="P254" s="41"/>
+    </row>
+    <row r="255" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C255" s="41" t="s">
+      <c r="C255" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D255" s="41">
+      <c r="D255" s="39">
         <v>1</v>
       </c>
-      <c r="E255" s="42" t="s">
+      <c r="E255" s="40" t="s">
         <v>645</v>
       </c>
-      <c r="F255" s="43"/>
-      <c r="G255" s="43" t="s">
+      <c r="F255" s="41"/>
+      <c r="G255" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H255" s="44" t="s">
+      <c r="H255" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I255" s="44"/>
-      <c r="J255" s="43"/>
-      <c r="K255" s="43"/>
-      <c r="L255" s="43"/>
-      <c r="M255" s="43"/>
-      <c r="N255" s="43"/>
-      <c r="O255" s="43"/>
-      <c r="P255" s="43"/>
-    </row>
-    <row r="256" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="40" t="s">
+      <c r="I255" s="42"/>
+      <c r="J255" s="41"/>
+      <c r="K255" s="41"/>
+      <c r="L255" s="41"/>
+      <c r="M255" s="41"/>
+      <c r="N255" s="41"/>
+      <c r="O255" s="41"/>
+      <c r="P255" s="41"/>
+    </row>
+    <row r="256" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C256" s="41" t="s">
+      <c r="C256" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="D256" s="41" t="s">
+      <c r="D256" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E256" s="42" t="s">
+      <c r="E256" s="40" t="s">
         <v>646</v>
       </c>
-      <c r="F256" s="43"/>
-      <c r="G256" s="43" t="s">
+      <c r="F256" s="41"/>
+      <c r="G256" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="H256" s="44" t="s">
+      <c r="H256" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I256" s="44"/>
-      <c r="J256" s="43"/>
-      <c r="K256" s="43"/>
-      <c r="L256" s="43"/>
-      <c r="M256" s="43"/>
-      <c r="N256" s="43"/>
-      <c r="O256" s="43"/>
-      <c r="P256" s="43"/>
-    </row>
-    <row r="257" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="40"/>
-      <c r="C257" s="40"/>
-      <c r="D257" s="41"/>
-      <c r="E257" s="42"/>
-      <c r="F257" s="43"/>
-      <c r="G257" s="43"/>
-      <c r="H257" s="44"/>
-      <c r="I257" s="44"/>
-      <c r="J257" s="43"/>
-      <c r="K257" s="43"/>
-      <c r="L257" s="43"/>
-      <c r="M257" s="43"/>
-      <c r="N257" s="43"/>
-      <c r="O257" s="43"/>
-      <c r="P257" s="43"/>
-    </row>
-    <row r="258" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="40"/>
-      <c r="C258" s="40"/>
-      <c r="D258" s="41"/>
-      <c r="E258" s="42"/>
-      <c r="F258" s="43"/>
-      <c r="G258" s="43"/>
-      <c r="H258" s="44"/>
-      <c r="I258" s="44"/>
-      <c r="J258" s="43"/>
-      <c r="K258" s="43"/>
-      <c r="L258" s="43"/>
-      <c r="M258" s="43"/>
-      <c r="N258" s="43"/>
-      <c r="O258" s="43"/>
-      <c r="P258" s="43"/>
-    </row>
-    <row r="259" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="40"/>
-      <c r="C259" s="40"/>
-      <c r="D259" s="41"/>
-      <c r="E259" s="42"/>
-      <c r="F259" s="43"/>
-      <c r="G259" s="43"/>
-      <c r="H259" s="44"/>
-      <c r="I259" s="44"/>
-      <c r="J259" s="43"/>
-      <c r="K259" s="43"/>
-      <c r="L259" s="43"/>
-      <c r="M259" s="43"/>
-      <c r="N259" s="43"/>
-      <c r="O259" s="43"/>
-      <c r="P259" s="43"/>
-    </row>
-    <row r="260" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="40"/>
-      <c r="C260" s="40"/>
-      <c r="D260" s="41"/>
-      <c r="E260" s="42"/>
-      <c r="F260" s="43"/>
-      <c r="G260" s="43"/>
-      <c r="H260" s="44"/>
-      <c r="I260" s="44"/>
-      <c r="J260" s="43"/>
-      <c r="K260" s="43"/>
-      <c r="L260" s="43"/>
-      <c r="M260" s="43"/>
-      <c r="N260" s="43"/>
-      <c r="O260" s="43"/>
-      <c r="P260" s="43"/>
-    </row>
-    <row r="261" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="40"/>
-      <c r="C261" s="40"/>
-      <c r="D261" s="41"/>
-      <c r="E261" s="42"/>
-      <c r="F261" s="43"/>
-      <c r="G261" s="43"/>
-      <c r="H261" s="44"/>
-      <c r="I261" s="44"/>
-      <c r="J261" s="43"/>
-      <c r="K261" s="43"/>
-      <c r="L261" s="43"/>
-      <c r="M261" s="43"/>
-      <c r="N261" s="43"/>
-      <c r="O261" s="43"/>
-      <c r="P261" s="43"/>
-    </row>
-    <row r="262" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="40"/>
-      <c r="C262" s="40"/>
-      <c r="D262" s="41"/>
-      <c r="E262" s="42"/>
-      <c r="F262" s="43"/>
-      <c r="G262" s="43"/>
-      <c r="H262" s="44"/>
-      <c r="I262" s="44"/>
-      <c r="J262" s="43"/>
-      <c r="K262" s="43"/>
-      <c r="L262" s="43"/>
-      <c r="M262" s="43"/>
-      <c r="N262" s="43"/>
-      <c r="O262" s="43"/>
-      <c r="P262" s="43"/>
-    </row>
-    <row r="263" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="40"/>
-      <c r="C263" s="40"/>
-      <c r="D263" s="41"/>
-      <c r="E263" s="42"/>
-      <c r="F263" s="43"/>
-      <c r="G263" s="43"/>
-      <c r="H263" s="44"/>
-      <c r="I263" s="44"/>
-      <c r="J263" s="43"/>
-      <c r="K263" s="43"/>
-      <c r="L263" s="43"/>
-      <c r="M263" s="43"/>
-      <c r="N263" s="43"/>
-      <c r="O263" s="43"/>
-      <c r="P263" s="43"/>
-    </row>
-    <row r="264" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="40"/>
-      <c r="C264" s="40"/>
-      <c r="D264" s="41"/>
-      <c r="E264" s="42"/>
-      <c r="F264" s="43"/>
-      <c r="G264" s="43"/>
-      <c r="H264" s="44"/>
-      <c r="I264" s="44"/>
-      <c r="J264" s="43"/>
-      <c r="K264" s="43"/>
-      <c r="L264" s="43"/>
-      <c r="M264" s="43"/>
-      <c r="N264" s="43"/>
-      <c r="O264" s="43"/>
-      <c r="P264" s="43"/>
-    </row>
-    <row r="265" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="40"/>
-      <c r="C265" s="40"/>
-      <c r="D265" s="41"/>
-      <c r="E265" s="42"/>
-      <c r="F265" s="43"/>
-      <c r="G265" s="43"/>
-      <c r="H265" s="44"/>
-      <c r="I265" s="44"/>
-      <c r="J265" s="43"/>
-      <c r="K265" s="43"/>
-      <c r="L265" s="43"/>
-      <c r="M265" s="43"/>
-      <c r="N265" s="43"/>
-      <c r="O265" s="43"/>
-      <c r="P265" s="43"/>
-    </row>
-    <row r="266" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="40"/>
-      <c r="C266" s="40"/>
-      <c r="D266" s="41"/>
-      <c r="E266" s="42"/>
-      <c r="F266" s="43"/>
-      <c r="G266" s="43"/>
-      <c r="H266" s="44"/>
-      <c r="I266" s="44"/>
-      <c r="J266" s="43"/>
-      <c r="K266" s="43"/>
-      <c r="L266" s="43"/>
-      <c r="M266" s="43"/>
-      <c r="N266" s="43"/>
-      <c r="O266" s="43"/>
-      <c r="P266" s="43"/>
-    </row>
-    <row r="267" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="40"/>
-      <c r="C267" s="40"/>
-      <c r="D267" s="41"/>
-      <c r="E267" s="42"/>
-      <c r="F267" s="43"/>
-      <c r="G267" s="43"/>
-      <c r="H267" s="44"/>
-      <c r="I267" s="44"/>
-      <c r="J267" s="43"/>
-      <c r="K267" s="43"/>
-      <c r="L267" s="43"/>
-      <c r="M267" s="43"/>
-      <c r="N267" s="43"/>
-      <c r="O267" s="43"/>
-      <c r="P267" s="43"/>
-    </row>
-    <row r="268" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="40"/>
-      <c r="C268" s="40"/>
-      <c r="D268" s="41"/>
-      <c r="E268" s="42"/>
-      <c r="F268" s="43"/>
-      <c r="G268" s="43"/>
-      <c r="H268" s="44"/>
-      <c r="I268" s="44"/>
-      <c r="J268" s="43"/>
-      <c r="K268" s="43"/>
-      <c r="L268" s="43"/>
-      <c r="M268" s="43"/>
-      <c r="N268" s="43"/>
-      <c r="O268" s="43"/>
-      <c r="P268" s="43"/>
-    </row>
-    <row r="269" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="40"/>
-      <c r="C269" s="40"/>
-      <c r="D269" s="41"/>
-      <c r="E269" s="42"/>
-      <c r="F269" s="43"/>
-      <c r="G269" s="43"/>
-      <c r="H269" s="44"/>
-      <c r="I269" s="44"/>
-      <c r="J269" s="43"/>
-      <c r="K269" s="43"/>
-      <c r="L269" s="43"/>
-      <c r="M269" s="43"/>
-      <c r="N269" s="43"/>
-      <c r="O269" s="43"/>
-      <c r="P269" s="43"/>
-    </row>
-    <row r="270" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="40"/>
-      <c r="C270" s="40"/>
-      <c r="D270" s="41"/>
-      <c r="E270" s="42"/>
-      <c r="F270" s="43"/>
-      <c r="G270" s="43"/>
-      <c r="H270" s="44"/>
-      <c r="I270" s="44"/>
-      <c r="J270" s="43"/>
-      <c r="K270" s="43"/>
-      <c r="L270" s="43"/>
-      <c r="M270" s="43"/>
-      <c r="N270" s="43"/>
-      <c r="O270" s="43"/>
-      <c r="P270" s="43"/>
-    </row>
-    <row r="271" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="40"/>
-      <c r="C271" s="40"/>
-      <c r="D271" s="41"/>
-      <c r="E271" s="42"/>
-      <c r="F271" s="43"/>
-      <c r="G271" s="43"/>
-      <c r="H271" s="44"/>
-      <c r="I271" s="44"/>
-      <c r="J271" s="43"/>
-      <c r="K271" s="43"/>
-      <c r="L271" s="43"/>
-      <c r="M271" s="43"/>
-      <c r="N271" s="43"/>
-      <c r="O271" s="43"/>
-      <c r="P271" s="43"/>
-    </row>
-    <row r="272" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="40"/>
-      <c r="C272" s="40"/>
-      <c r="D272" s="41"/>
-      <c r="E272" s="42"/>
-      <c r="F272" s="43"/>
-      <c r="G272" s="43"/>
-      <c r="H272" s="44"/>
-      <c r="I272" s="44"/>
-      <c r="J272" s="43"/>
-      <c r="K272" s="43"/>
-      <c r="L272" s="43"/>
-      <c r="M272" s="43"/>
-      <c r="N272" s="43"/>
-      <c r="O272" s="43"/>
-      <c r="P272" s="43"/>
-    </row>
-    <row r="273" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="40"/>
-      <c r="C273" s="40"/>
-      <c r="D273" s="41"/>
-      <c r="E273" s="42"/>
-      <c r="F273" s="43"/>
-      <c r="G273" s="43"/>
-      <c r="H273" s="44"/>
-      <c r="I273" s="44"/>
-      <c r="J273" s="43"/>
-      <c r="K273" s="43"/>
-      <c r="L273" s="43"/>
-      <c r="M273" s="43"/>
-      <c r="N273" s="43"/>
-      <c r="O273" s="43"/>
-      <c r="P273" s="43"/>
-    </row>
-    <row r="274" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="40"/>
-      <c r="C274" s="40"/>
-      <c r="D274" s="41"/>
-      <c r="E274" s="42"/>
-      <c r="F274" s="43"/>
-      <c r="G274" s="43"/>
-      <c r="H274" s="44"/>
-      <c r="I274" s="44"/>
-      <c r="J274" s="43"/>
-      <c r="K274" s="43"/>
-      <c r="L274" s="43"/>
-      <c r="M274" s="43"/>
-      <c r="N274" s="43"/>
-      <c r="O274" s="43"/>
-      <c r="P274" s="43"/>
-    </row>
-    <row r="275" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="40"/>
-      <c r="C275" s="40"/>
-      <c r="D275" s="41"/>
-      <c r="E275" s="42"/>
-      <c r="F275" s="43"/>
-      <c r="G275" s="43"/>
-      <c r="H275" s="44"/>
-      <c r="I275" s="44"/>
-      <c r="J275" s="43"/>
-      <c r="K275" s="43"/>
-      <c r="L275" s="43"/>
-      <c r="M275" s="43"/>
-      <c r="N275" s="43"/>
-      <c r="O275" s="43"/>
-      <c r="P275" s="43"/>
-    </row>
-    <row r="276" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="40"/>
-      <c r="C276" s="40"/>
-      <c r="D276" s="41"/>
-      <c r="E276" s="42"/>
-      <c r="F276" s="43"/>
-      <c r="G276" s="43"/>
-      <c r="H276" s="44"/>
-      <c r="I276" s="44"/>
-      <c r="J276" s="43"/>
-      <c r="K276" s="43"/>
-      <c r="L276" s="43"/>
-      <c r="M276" s="43"/>
-      <c r="N276" s="43"/>
-      <c r="O276" s="43"/>
-      <c r="P276" s="43"/>
-    </row>
-    <row r="277" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="40"/>
-      <c r="C277" s="40"/>
-      <c r="D277" s="41"/>
-      <c r="E277" s="42"/>
-      <c r="F277" s="43"/>
-      <c r="G277" s="43"/>
-      <c r="H277" s="44"/>
-      <c r="I277" s="44"/>
-      <c r="J277" s="43"/>
-      <c r="K277" s="43"/>
-      <c r="L277" s="43"/>
-      <c r="M277" s="43"/>
-      <c r="N277" s="43"/>
-      <c r="O277" s="43"/>
-      <c r="P277" s="43"/>
-    </row>
-    <row r="278" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="40"/>
-      <c r="C278" s="40"/>
-      <c r="D278" s="41"/>
-      <c r="E278" s="42"/>
-      <c r="F278" s="43"/>
-      <c r="G278" s="43"/>
-      <c r="H278" s="44"/>
-      <c r="I278" s="44"/>
-      <c r="J278" s="43"/>
-      <c r="K278" s="43"/>
-      <c r="L278" s="43"/>
-      <c r="M278" s="43"/>
-      <c r="N278" s="43"/>
-      <c r="O278" s="43"/>
-      <c r="P278" s="43"/>
-    </row>
-    <row r="279" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="40"/>
-      <c r="C279" s="40"/>
-      <c r="D279" s="41"/>
-      <c r="E279" s="42"/>
-      <c r="F279" s="43"/>
-      <c r="G279" s="43"/>
-      <c r="H279" s="44"/>
-      <c r="I279" s="44"/>
-      <c r="J279" s="43"/>
-      <c r="K279" s="43"/>
-      <c r="L279" s="43"/>
-      <c r="M279" s="43"/>
-      <c r="N279" s="43"/>
-      <c r="O279" s="43"/>
-      <c r="P279" s="43"/>
-    </row>
-    <row r="280" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="40"/>
-      <c r="C280" s="40"/>
-      <c r="D280" s="41"/>
-      <c r="E280" s="42"/>
-      <c r="F280" s="43"/>
-      <c r="G280" s="43"/>
-      <c r="H280" s="44"/>
-      <c r="I280" s="44"/>
-      <c r="J280" s="43"/>
-      <c r="K280" s="43"/>
-      <c r="L280" s="43"/>
-      <c r="M280" s="43"/>
-      <c r="N280" s="43"/>
-      <c r="O280" s="43"/>
-      <c r="P280" s="43"/>
-    </row>
-    <row r="281" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="40"/>
-      <c r="C281" s="40"/>
-      <c r="D281" s="41"/>
-      <c r="E281" s="42"/>
-      <c r="F281" s="43"/>
-      <c r="G281" s="43"/>
-      <c r="H281" s="44"/>
-      <c r="I281" s="44"/>
-      <c r="J281" s="43"/>
-      <c r="K281" s="43"/>
-      <c r="L281" s="43"/>
-      <c r="M281" s="43"/>
-      <c r="N281" s="43"/>
-      <c r="O281" s="43"/>
-      <c r="P281" s="43"/>
-    </row>
-    <row r="282" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="40"/>
-      <c r="C282" s="40"/>
-      <c r="D282" s="41"/>
-      <c r="E282" s="42"/>
-      <c r="F282" s="43"/>
-      <c r="G282" s="43"/>
-      <c r="H282" s="44"/>
-      <c r="I282" s="44"/>
-      <c r="J282" s="43"/>
-      <c r="K282" s="43"/>
-      <c r="L282" s="43"/>
-      <c r="M282" s="43"/>
-      <c r="N282" s="43"/>
-      <c r="O282" s="43"/>
-      <c r="P282" s="43"/>
-    </row>
-    <row r="283" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="40"/>
-      <c r="C283" s="40"/>
-      <c r="D283" s="41"/>
-      <c r="E283" s="42"/>
-      <c r="F283" s="43"/>
-      <c r="G283" s="43"/>
-      <c r="H283" s="44"/>
-      <c r="I283" s="44"/>
-      <c r="J283" s="43"/>
-      <c r="K283" s="43"/>
-      <c r="L283" s="43"/>
-      <c r="M283" s="43"/>
-      <c r="N283" s="43"/>
-      <c r="O283" s="43"/>
-      <c r="P283" s="43"/>
-    </row>
-    <row r="284" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="40"/>
-      <c r="C284" s="40"/>
-      <c r="D284" s="41"/>
-      <c r="E284" s="42"/>
-      <c r="F284" s="43"/>
-      <c r="G284" s="43"/>
-      <c r="H284" s="44"/>
-      <c r="I284" s="44"/>
-      <c r="J284" s="43"/>
-      <c r="K284" s="43"/>
-      <c r="L284" s="43"/>
-      <c r="M284" s="43"/>
-      <c r="N284" s="43"/>
-      <c r="O284" s="43"/>
-      <c r="P284" s="43"/>
-    </row>
-    <row r="285" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="40"/>
-      <c r="C285" s="40"/>
-      <c r="D285" s="41"/>
-      <c r="E285" s="42"/>
-      <c r="F285" s="43"/>
-      <c r="G285" s="43"/>
-      <c r="H285" s="44"/>
-      <c r="I285" s="44"/>
-      <c r="J285" s="43"/>
-      <c r="K285" s="43"/>
-      <c r="L285" s="43"/>
-      <c r="M285" s="43"/>
-      <c r="N285" s="43"/>
-      <c r="O285" s="43"/>
-      <c r="P285" s="43"/>
-    </row>
-    <row r="286" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="40"/>
-      <c r="C286" s="40"/>
-      <c r="D286" s="41"/>
-      <c r="E286" s="42"/>
-      <c r="F286" s="43"/>
-      <c r="G286" s="43"/>
-      <c r="H286" s="44"/>
-      <c r="I286" s="44"/>
-      <c r="J286" s="43"/>
-      <c r="K286" s="43"/>
-      <c r="L286" s="43"/>
-      <c r="M286" s="43"/>
-      <c r="N286" s="43"/>
-      <c r="O286" s="43"/>
-      <c r="P286" s="43"/>
-    </row>
-    <row r="287" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="40"/>
-      <c r="C287" s="40"/>
-      <c r="D287" s="41"/>
-      <c r="E287" s="42"/>
-      <c r="F287" s="43"/>
-      <c r="G287" s="43"/>
-      <c r="H287" s="44"/>
-      <c r="I287" s="44"/>
-      <c r="J287" s="43"/>
-      <c r="K287" s="43"/>
-      <c r="L287" s="43"/>
-      <c r="M287" s="43"/>
-      <c r="N287" s="43"/>
-      <c r="O287" s="43"/>
-      <c r="P287" s="43"/>
-    </row>
-    <row r="288" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="40"/>
-      <c r="C288" s="40"/>
-      <c r="D288" s="41"/>
-      <c r="E288" s="42"/>
-      <c r="F288" s="43"/>
-      <c r="G288" s="43"/>
-      <c r="H288" s="44"/>
-      <c r="I288" s="44"/>
-      <c r="J288" s="43"/>
-      <c r="K288" s="43"/>
-      <c r="L288" s="43"/>
-      <c r="M288" s="43"/>
-      <c r="N288" s="43"/>
-      <c r="O288" s="43"/>
-      <c r="P288" s="43"/>
-    </row>
-    <row r="289" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="40"/>
-      <c r="C289" s="40"/>
-      <c r="D289" s="41"/>
-      <c r="E289" s="42"/>
-      <c r="F289" s="43"/>
-      <c r="G289" s="43"/>
-      <c r="H289" s="44"/>
-      <c r="I289" s="44"/>
-      <c r="J289" s="43"/>
-      <c r="K289" s="43"/>
-      <c r="L289" s="43"/>
-      <c r="M289" s="43"/>
-      <c r="N289" s="43"/>
-      <c r="O289" s="43"/>
-      <c r="P289" s="43"/>
-    </row>
-    <row r="290" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="40"/>
-      <c r="C290" s="40"/>
-      <c r="D290" s="41"/>
-      <c r="E290" s="42"/>
-      <c r="F290" s="43"/>
-      <c r="G290" s="43"/>
-      <c r="H290" s="44"/>
-      <c r="I290" s="44"/>
-      <c r="J290" s="43"/>
-      <c r="K290" s="43"/>
-      <c r="L290" s="43"/>
-      <c r="M290" s="43"/>
-      <c r="N290" s="43"/>
-      <c r="O290" s="43"/>
-      <c r="P290" s="43"/>
-    </row>
-    <row r="291" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="40"/>
-      <c r="C291" s="40"/>
-      <c r="D291" s="41"/>
-      <c r="E291" s="42"/>
-      <c r="F291" s="43"/>
-      <c r="G291" s="43"/>
-      <c r="H291" s="44"/>
-      <c r="I291" s="44"/>
-      <c r="J291" s="43"/>
-      <c r="K291" s="43"/>
-      <c r="L291" s="43"/>
-      <c r="M291" s="43"/>
-      <c r="N291" s="43"/>
-      <c r="O291" s="43"/>
-      <c r="P291" s="43"/>
-    </row>
-    <row r="292" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="40"/>
-      <c r="C292" s="40"/>
-      <c r="D292" s="41"/>
-      <c r="E292" s="42"/>
-      <c r="F292" s="43"/>
-      <c r="G292" s="43"/>
-      <c r="H292" s="44"/>
-      <c r="I292" s="44"/>
-      <c r="J292" s="43"/>
-      <c r="K292" s="43"/>
-      <c r="L292" s="43"/>
-      <c r="M292" s="43"/>
-      <c r="N292" s="43"/>
-      <c r="O292" s="43"/>
-      <c r="P292" s="43"/>
-    </row>
-    <row r="293" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="40"/>
-      <c r="C293" s="40"/>
-      <c r="D293" s="41"/>
-      <c r="E293" s="42"/>
-      <c r="F293" s="43"/>
-      <c r="G293" s="43"/>
-      <c r="H293" s="44"/>
-      <c r="I293" s="44"/>
-      <c r="J293" s="43"/>
-      <c r="K293" s="43"/>
-      <c r="L293" s="43"/>
-      <c r="M293" s="43"/>
-      <c r="N293" s="43"/>
-      <c r="O293" s="43"/>
-      <c r="P293" s="43"/>
-    </row>
-    <row r="294" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="40"/>
-      <c r="C294" s="40"/>
-      <c r="D294" s="41"/>
-      <c r="E294" s="42"/>
-      <c r="F294" s="43"/>
-      <c r="G294" s="43"/>
-      <c r="H294" s="44"/>
-      <c r="I294" s="44"/>
-      <c r="J294" s="43"/>
-      <c r="K294" s="43"/>
-      <c r="L294" s="43"/>
-      <c r="M294" s="43"/>
-      <c r="N294" s="43"/>
-      <c r="O294" s="43"/>
-      <c r="P294" s="43"/>
-    </row>
-    <row r="295" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="40"/>
-      <c r="C295" s="40"/>
-      <c r="D295" s="41"/>
-      <c r="E295" s="42"/>
-      <c r="F295" s="43"/>
-      <c r="G295" s="43"/>
-      <c r="H295" s="44"/>
-      <c r="I295" s="44"/>
-      <c r="J295" s="43"/>
-      <c r="K295" s="43"/>
-      <c r="L295" s="43"/>
-      <c r="M295" s="43"/>
-      <c r="N295" s="43"/>
-      <c r="O295" s="43"/>
-      <c r="P295" s="43"/>
-    </row>
-    <row r="296" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="40"/>
-      <c r="C296" s="40"/>
-      <c r="D296" s="41"/>
-      <c r="E296" s="42"/>
-      <c r="F296" s="43"/>
-      <c r="G296" s="43"/>
-      <c r="H296" s="44"/>
-      <c r="I296" s="44"/>
-      <c r="J296" s="43"/>
-      <c r="K296" s="43"/>
-      <c r="L296" s="43"/>
-      <c r="M296" s="43"/>
-      <c r="N296" s="43"/>
-      <c r="O296" s="43"/>
-      <c r="P296" s="43"/>
-    </row>
-    <row r="297" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="40"/>
-      <c r="C297" s="40"/>
-      <c r="D297" s="41"/>
-      <c r="E297" s="42"/>
-      <c r="F297" s="43"/>
-      <c r="G297" s="43"/>
-      <c r="H297" s="44"/>
-      <c r="I297" s="44"/>
-      <c r="J297" s="43"/>
-      <c r="K297" s="43"/>
-      <c r="L297" s="43"/>
-      <c r="M297" s="43"/>
-      <c r="N297" s="43"/>
-      <c r="O297" s="43"/>
-      <c r="P297" s="43"/>
-    </row>
-    <row r="298" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="40"/>
-      <c r="C298" s="40"/>
-      <c r="D298" s="41"/>
-      <c r="E298" s="42"/>
-      <c r="F298" s="43"/>
-      <c r="G298" s="43"/>
-      <c r="H298" s="44"/>
-      <c r="I298" s="44"/>
-      <c r="J298" s="43"/>
-      <c r="K298" s="43"/>
-      <c r="L298" s="43"/>
-      <c r="M298" s="43"/>
-      <c r="N298" s="43"/>
-      <c r="O298" s="43"/>
-      <c r="P298" s="43"/>
-    </row>
-    <row r="299" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="40"/>
-      <c r="C299" s="40"/>
-      <c r="D299" s="41"/>
-      <c r="E299" s="42"/>
-      <c r="F299" s="43"/>
-      <c r="G299" s="43"/>
-      <c r="H299" s="44"/>
-      <c r="I299" s="44"/>
-      <c r="J299" s="43"/>
-      <c r="K299" s="43"/>
-      <c r="L299" s="43"/>
-      <c r="M299" s="43"/>
-      <c r="N299" s="43"/>
-      <c r="O299" s="43"/>
-      <c r="P299" s="43"/>
-    </row>
-    <row r="300" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="40"/>
-      <c r="C300" s="40"/>
-      <c r="D300" s="41"/>
-      <c r="E300" s="42"/>
-      <c r="F300" s="43"/>
-      <c r="G300" s="43"/>
-      <c r="H300" s="44"/>
-      <c r="I300" s="44"/>
-      <c r="J300" s="43"/>
-      <c r="K300" s="43"/>
-      <c r="L300" s="43"/>
-      <c r="M300" s="43"/>
-      <c r="N300" s="43"/>
-      <c r="O300" s="43"/>
-      <c r="P300" s="43"/>
-    </row>
-    <row r="301" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="40"/>
-      <c r="C301" s="40"/>
-      <c r="D301" s="41"/>
-      <c r="E301" s="42"/>
-      <c r="F301" s="43"/>
-      <c r="G301" s="43"/>
-      <c r="H301" s="44"/>
-      <c r="I301" s="44"/>
-      <c r="J301" s="43"/>
-      <c r="K301" s="43"/>
-      <c r="L301" s="43"/>
-      <c r="M301" s="43"/>
-      <c r="N301" s="43"/>
-      <c r="O301" s="43"/>
-      <c r="P301" s="43"/>
-    </row>
-    <row r="302" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="40"/>
-      <c r="C302" s="40"/>
-      <c r="D302" s="41"/>
-      <c r="E302" s="42"/>
-      <c r="F302" s="43"/>
-      <c r="G302" s="43"/>
-      <c r="H302" s="44"/>
-      <c r="I302" s="44"/>
-      <c r="J302" s="43"/>
-      <c r="K302" s="43"/>
-      <c r="L302" s="43"/>
-      <c r="M302" s="43"/>
-      <c r="N302" s="43"/>
-      <c r="O302" s="43"/>
-      <c r="P302" s="43"/>
-    </row>
-    <row r="303" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="40"/>
-      <c r="C303" s="40"/>
-      <c r="D303" s="41"/>
-      <c r="E303" s="42"/>
-      <c r="F303" s="43"/>
-      <c r="G303" s="43"/>
-      <c r="H303" s="44"/>
-      <c r="I303" s="44"/>
-      <c r="J303" s="43"/>
-      <c r="K303" s="43"/>
-      <c r="L303" s="43"/>
-      <c r="M303" s="43"/>
-      <c r="N303" s="43"/>
-      <c r="O303" s="43"/>
-      <c r="P303" s="43"/>
-    </row>
-    <row r="304" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="40"/>
-      <c r="C304" s="40"/>
-      <c r="D304" s="41"/>
-      <c r="E304" s="42"/>
-      <c r="F304" s="43"/>
-      <c r="G304" s="43"/>
-      <c r="H304" s="44"/>
-      <c r="I304" s="44"/>
-      <c r="J304" s="43"/>
-      <c r="K304" s="43"/>
-      <c r="L304" s="43"/>
-      <c r="M304" s="43"/>
-      <c r="N304" s="43"/>
-      <c r="O304" s="43"/>
-      <c r="P304" s="43"/>
-    </row>
-    <row r="305" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="40"/>
-      <c r="C305" s="40"/>
-      <c r="D305" s="41"/>
-      <c r="E305" s="42"/>
-      <c r="F305" s="43"/>
-      <c r="G305" s="43"/>
-      <c r="H305" s="44"/>
-      <c r="I305" s="44"/>
-      <c r="J305" s="43"/>
-      <c r="K305" s="43"/>
-      <c r="L305" s="43"/>
-      <c r="M305" s="43"/>
-      <c r="N305" s="43"/>
-      <c r="O305" s="43"/>
-      <c r="P305" s="43"/>
-    </row>
-    <row r="306" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="40"/>
-      <c r="C306" s="40"/>
-      <c r="D306" s="41"/>
-      <c r="E306" s="42"/>
-      <c r="F306" s="43"/>
-      <c r="G306" s="43"/>
-      <c r="H306" s="44"/>
-      <c r="I306" s="44"/>
-      <c r="J306" s="43"/>
-      <c r="K306" s="43"/>
-      <c r="L306" s="43"/>
-      <c r="M306" s="43"/>
-      <c r="N306" s="43"/>
-      <c r="O306" s="43"/>
-      <c r="P306" s="43"/>
-    </row>
-    <row r="307" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="40"/>
-      <c r="C307" s="40"/>
-      <c r="D307" s="41"/>
-      <c r="E307" s="42"/>
-      <c r="F307" s="43"/>
-      <c r="G307" s="43"/>
-      <c r="H307" s="44"/>
-      <c r="I307" s="44"/>
-      <c r="J307" s="43"/>
-      <c r="K307" s="43"/>
-      <c r="L307" s="43"/>
-      <c r="M307" s="43"/>
-      <c r="N307" s="43"/>
-      <c r="O307" s="43"/>
-      <c r="P307" s="43"/>
-    </row>
-    <row r="308" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="40"/>
-      <c r="C308" s="40"/>
-      <c r="D308" s="41"/>
-      <c r="E308" s="42"/>
-      <c r="F308" s="43"/>
-      <c r="G308" s="43"/>
-      <c r="H308" s="44"/>
-      <c r="I308" s="44"/>
-      <c r="J308" s="43"/>
-      <c r="K308" s="43"/>
-      <c r="L308" s="43"/>
-      <c r="M308" s="43"/>
-      <c r="N308" s="43"/>
-      <c r="O308" s="43"/>
-      <c r="P308" s="43"/>
-    </row>
-    <row r="309" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="40"/>
-      <c r="C309" s="40"/>
-      <c r="D309" s="41"/>
-      <c r="E309" s="42"/>
-      <c r="F309" s="43"/>
-      <c r="G309" s="43"/>
-      <c r="H309" s="44"/>
-      <c r="I309" s="44"/>
-      <c r="J309" s="43"/>
-      <c r="K309" s="43"/>
-      <c r="L309" s="43"/>
-      <c r="M309" s="43"/>
-      <c r="N309" s="43"/>
-      <c r="O309" s="43"/>
-      <c r="P309" s="43"/>
-    </row>
-    <row r="310" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="40"/>
-      <c r="C310" s="40"/>
-      <c r="D310" s="41"/>
-      <c r="E310" s="42"/>
-      <c r="F310" s="43"/>
-      <c r="G310" s="43"/>
-      <c r="H310" s="44"/>
-      <c r="I310" s="44"/>
-      <c r="J310" s="43"/>
-      <c r="K310" s="43"/>
-      <c r="L310" s="43"/>
-      <c r="M310" s="43"/>
-      <c r="N310" s="43"/>
-      <c r="O310" s="43"/>
-      <c r="P310" s="43"/>
-    </row>
-    <row r="311" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="40"/>
-      <c r="C311" s="40"/>
-      <c r="D311" s="41"/>
-      <c r="E311" s="42"/>
-      <c r="F311" s="43"/>
-      <c r="G311" s="43"/>
-      <c r="H311" s="44"/>
-      <c r="I311" s="44"/>
-      <c r="J311" s="43"/>
-      <c r="K311" s="43"/>
-      <c r="L311" s="43"/>
-      <c r="M311" s="43"/>
-      <c r="N311" s="43"/>
-      <c r="O311" s="43"/>
-      <c r="P311" s="43"/>
-    </row>
-    <row r="312" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="40"/>
-      <c r="C312" s="40"/>
-      <c r="D312" s="41"/>
-      <c r="E312" s="42"/>
-      <c r="F312" s="43"/>
-      <c r="G312" s="43"/>
-      <c r="H312" s="44"/>
-      <c r="I312" s="44"/>
-      <c r="J312" s="43"/>
-      <c r="K312" s="43"/>
-      <c r="L312" s="43"/>
-      <c r="M312" s="43"/>
-      <c r="N312" s="43"/>
-      <c r="O312" s="43"/>
-      <c r="P312" s="43"/>
-    </row>
-    <row r="313" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="40"/>
-      <c r="C313" s="40"/>
-      <c r="D313" s="41"/>
-      <c r="E313" s="42"/>
-      <c r="F313" s="43"/>
-      <c r="G313" s="43"/>
-      <c r="H313" s="44"/>
-      <c r="I313" s="44"/>
-      <c r="J313" s="43"/>
-      <c r="K313" s="43"/>
-      <c r="L313" s="43"/>
-      <c r="M313" s="43"/>
-      <c r="N313" s="43"/>
-      <c r="O313" s="43"/>
-      <c r="P313" s="43"/>
-    </row>
-    <row r="314" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="40"/>
-      <c r="C314" s="40"/>
-      <c r="D314" s="41"/>
-      <c r="E314" s="42"/>
-      <c r="F314" s="43"/>
-      <c r="G314" s="43"/>
-      <c r="H314" s="44"/>
-      <c r="I314" s="44"/>
-      <c r="J314" s="43"/>
-      <c r="K314" s="43"/>
-      <c r="L314" s="43"/>
-      <c r="M314" s="43"/>
-      <c r="N314" s="43"/>
-      <c r="O314" s="43"/>
-      <c r="P314" s="43"/>
-    </row>
-    <row r="315" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="40"/>
-      <c r="C315" s="40"/>
-      <c r="D315" s="41"/>
-      <c r="E315" s="42"/>
-      <c r="F315" s="43"/>
-      <c r="G315" s="43"/>
-      <c r="H315" s="44"/>
-      <c r="I315" s="44"/>
-      <c r="J315" s="43"/>
-      <c r="K315" s="43"/>
-      <c r="L315" s="43"/>
-      <c r="M315" s="43"/>
-      <c r="N315" s="43"/>
-      <c r="O315" s="43"/>
-      <c r="P315" s="43"/>
-    </row>
-    <row r="316" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="40"/>
-      <c r="C316" s="40"/>
-      <c r="D316" s="41"/>
-      <c r="E316" s="42"/>
-      <c r="F316" s="43"/>
-      <c r="G316" s="43"/>
-      <c r="H316" s="44"/>
-      <c r="I316" s="44"/>
-      <c r="J316" s="43"/>
-      <c r="K316" s="43"/>
-      <c r="L316" s="43"/>
-      <c r="M316" s="43"/>
-      <c r="N316" s="43"/>
-      <c r="O316" s="43"/>
-      <c r="P316" s="43"/>
-    </row>
-    <row r="317" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="40"/>
-      <c r="C317" s="40"/>
-      <c r="D317" s="41"/>
-      <c r="E317" s="42"/>
-      <c r="F317" s="43"/>
-      <c r="G317" s="43"/>
-      <c r="H317" s="44"/>
-      <c r="I317" s="44"/>
-      <c r="J317" s="43"/>
-      <c r="K317" s="43"/>
-      <c r="L317" s="43"/>
-      <c r="M317" s="43"/>
-      <c r="N317" s="43"/>
-      <c r="O317" s="43"/>
-      <c r="P317" s="43"/>
-    </row>
-    <row r="318" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="40"/>
-      <c r="C318" s="40"/>
-      <c r="D318" s="41"/>
-      <c r="E318" s="42"/>
-      <c r="F318" s="43"/>
-      <c r="G318" s="43"/>
-      <c r="H318" s="44"/>
-      <c r="I318" s="44"/>
-      <c r="J318" s="43"/>
-      <c r="K318" s="43"/>
-      <c r="L318" s="43"/>
-      <c r="M318" s="43"/>
-      <c r="N318" s="43"/>
-      <c r="O318" s="43"/>
-      <c r="P318" s="43"/>
-    </row>
-    <row r="319" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="40"/>
-      <c r="C319" s="40"/>
-      <c r="D319" s="41"/>
-      <c r="E319" s="42"/>
-      <c r="F319" s="43"/>
-      <c r="G319" s="43"/>
-      <c r="H319" s="44"/>
-      <c r="I319" s="44"/>
-      <c r="J319" s="43"/>
-      <c r="K319" s="43"/>
-      <c r="L319" s="43"/>
-      <c r="M319" s="43"/>
-      <c r="N319" s="43"/>
-      <c r="O319" s="43"/>
-      <c r="P319" s="43"/>
-    </row>
-    <row r="320" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="40"/>
-      <c r="C320" s="40"/>
-      <c r="D320" s="41"/>
-      <c r="E320" s="42"/>
-      <c r="F320" s="43"/>
-      <c r="G320" s="43"/>
-      <c r="H320" s="44"/>
-      <c r="I320" s="44"/>
-      <c r="J320" s="43"/>
-      <c r="K320" s="43"/>
-      <c r="L320" s="43"/>
-      <c r="M320" s="43"/>
-      <c r="N320" s="43"/>
-      <c r="O320" s="43"/>
-      <c r="P320" s="43"/>
-    </row>
-    <row r="321" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="40"/>
-      <c r="C321" s="40"/>
-      <c r="D321" s="41"/>
-      <c r="E321" s="42"/>
-      <c r="F321" s="43"/>
-      <c r="G321" s="43"/>
-      <c r="H321" s="44"/>
-      <c r="I321" s="44"/>
-      <c r="J321" s="43"/>
-      <c r="K321" s="43"/>
-      <c r="L321" s="43"/>
-      <c r="M321" s="43"/>
-      <c r="N321" s="43"/>
-      <c r="O321" s="43"/>
-      <c r="P321" s="43"/>
-    </row>
-    <row r="322" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="40"/>
-      <c r="C322" s="40"/>
-      <c r="D322" s="41"/>
-      <c r="E322" s="42"/>
-      <c r="F322" s="43"/>
-      <c r="G322" s="43"/>
-      <c r="H322" s="44"/>
-      <c r="I322" s="44"/>
-      <c r="J322" s="43"/>
-      <c r="K322" s="43"/>
-      <c r="L322" s="43"/>
-      <c r="M322" s="43"/>
-      <c r="N322" s="43"/>
-      <c r="O322" s="43"/>
-      <c r="P322" s="43"/>
-    </row>
-    <row r="323" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="40"/>
-      <c r="C323" s="40"/>
-      <c r="D323" s="41"/>
-      <c r="E323" s="42"/>
-      <c r="F323" s="43"/>
-      <c r="G323" s="43"/>
-      <c r="H323" s="44"/>
-      <c r="I323" s="44"/>
-      <c r="J323" s="43"/>
-      <c r="K323" s="43"/>
-      <c r="L323" s="43"/>
-      <c r="M323" s="43"/>
-      <c r="N323" s="43"/>
-      <c r="O323" s="43"/>
-      <c r="P323" s="43"/>
-    </row>
-    <row r="324" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="40"/>
-      <c r="C324" s="40"/>
-      <c r="D324" s="41"/>
-      <c r="E324" s="42"/>
-      <c r="F324" s="43"/>
-      <c r="G324" s="43"/>
-      <c r="H324" s="44"/>
-      <c r="I324" s="44"/>
-      <c r="J324" s="43"/>
-      <c r="K324" s="43"/>
-      <c r="L324" s="43"/>
-      <c r="M324" s="43"/>
-      <c r="N324" s="43"/>
-      <c r="O324" s="43"/>
-      <c r="P324" s="43"/>
-    </row>
-    <row r="325" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="40"/>
-      <c r="C325" s="40"/>
-      <c r="D325" s="41"/>
-      <c r="E325" s="42"/>
-      <c r="F325" s="43"/>
-      <c r="G325" s="43"/>
-      <c r="H325" s="44"/>
-      <c r="I325" s="44"/>
-      <c r="J325" s="43"/>
-      <c r="K325" s="43"/>
-      <c r="L325" s="43"/>
-      <c r="M325" s="43"/>
-      <c r="N325" s="43"/>
-      <c r="O325" s="43"/>
-      <c r="P325" s="43"/>
-    </row>
-    <row r="326" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="40"/>
-      <c r="C326" s="40"/>
-      <c r="D326" s="41"/>
-      <c r="E326" s="42"/>
-      <c r="F326" s="43"/>
-      <c r="G326" s="43"/>
-      <c r="H326" s="44"/>
-      <c r="I326" s="44"/>
-      <c r="J326" s="43"/>
-      <c r="K326" s="43"/>
-      <c r="L326" s="43"/>
-      <c r="M326" s="43"/>
-      <c r="N326" s="43"/>
-      <c r="O326" s="43"/>
-      <c r="P326" s="43"/>
-    </row>
-    <row r="327" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="40"/>
-      <c r="C327" s="40"/>
-      <c r="D327" s="41"/>
-      <c r="E327" s="42"/>
-      <c r="F327" s="43"/>
-      <c r="G327" s="43"/>
-      <c r="H327" s="44"/>
-      <c r="I327" s="44"/>
-      <c r="J327" s="43"/>
-      <c r="K327" s="43"/>
-      <c r="L327" s="43"/>
-      <c r="M327" s="43"/>
-      <c r="N327" s="43"/>
-      <c r="O327" s="43"/>
-      <c r="P327" s="43"/>
-    </row>
-    <row r="328" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="40"/>
-      <c r="C328" s="40"/>
-      <c r="D328" s="41"/>
-      <c r="E328" s="42"/>
-      <c r="F328" s="43"/>
-      <c r="G328" s="43"/>
-      <c r="H328" s="44"/>
-      <c r="I328" s="44"/>
-      <c r="J328" s="43"/>
-      <c r="K328" s="43"/>
-      <c r="L328" s="43"/>
-      <c r="M328" s="43"/>
-      <c r="N328" s="43"/>
-      <c r="O328" s="43"/>
-      <c r="P328" s="43"/>
-    </row>
-    <row r="329" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="40"/>
-      <c r="C329" s="40"/>
-      <c r="D329" s="41"/>
-      <c r="E329" s="42"/>
-      <c r="F329" s="43"/>
-      <c r="G329" s="43"/>
-      <c r="H329" s="44"/>
-      <c r="I329" s="44"/>
-      <c r="J329" s="43"/>
-      <c r="K329" s="43"/>
-      <c r="L329" s="43"/>
-      <c r="M329" s="43"/>
-      <c r="N329" s="43"/>
-      <c r="O329" s="43"/>
-      <c r="P329" s="43"/>
-    </row>
-    <row r="330" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="40"/>
-      <c r="C330" s="40"/>
-      <c r="D330" s="41"/>
-      <c r="E330" s="42"/>
-      <c r="F330" s="43"/>
-      <c r="G330" s="43"/>
-      <c r="H330" s="44"/>
-      <c r="I330" s="44"/>
-      <c r="J330" s="43"/>
-      <c r="K330" s="43"/>
-      <c r="L330" s="43"/>
-      <c r="M330" s="43"/>
-      <c r="N330" s="43"/>
-      <c r="O330" s="43"/>
-      <c r="P330" s="43"/>
-    </row>
-    <row r="331" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="40"/>
-      <c r="C331" s="40"/>
-      <c r="D331" s="41"/>
-      <c r="E331" s="42"/>
-      <c r="F331" s="43"/>
-      <c r="G331" s="43"/>
-      <c r="H331" s="44"/>
-      <c r="I331" s="44"/>
-      <c r="J331" s="43"/>
-      <c r="K331" s="43"/>
-      <c r="L331" s="43"/>
-      <c r="M331" s="43"/>
-      <c r="N331" s="43"/>
-      <c r="O331" s="43"/>
-      <c r="P331" s="43"/>
-    </row>
-    <row r="332" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="40"/>
-      <c r="C332" s="40"/>
-      <c r="D332" s="41"/>
-      <c r="E332" s="42"/>
-      <c r="F332" s="43"/>
-      <c r="G332" s="43"/>
-      <c r="H332" s="44"/>
-      <c r="I332" s="44"/>
-      <c r="J332" s="43"/>
-      <c r="K332" s="43"/>
-      <c r="L332" s="43"/>
-      <c r="M332" s="43"/>
-      <c r="N332" s="43"/>
-      <c r="O332" s="43"/>
-      <c r="P332" s="43"/>
-    </row>
-    <row r="333" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="40"/>
-      <c r="C333" s="40"/>
-      <c r="D333" s="41"/>
-      <c r="E333" s="42"/>
-      <c r="F333" s="43"/>
-      <c r="G333" s="43"/>
-      <c r="H333" s="44"/>
-      <c r="I333" s="44"/>
-      <c r="J333" s="43"/>
-      <c r="K333" s="43"/>
-      <c r="L333" s="43"/>
-      <c r="M333" s="43"/>
-      <c r="N333" s="43"/>
-      <c r="O333" s="43"/>
-      <c r="P333" s="43"/>
-    </row>
-    <row r="334" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="40"/>
-      <c r="C334" s="40"/>
-      <c r="D334" s="41"/>
-      <c r="E334" s="42"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="44"/>
-      <c r="I334" s="44"/>
-      <c r="J334" s="43"/>
-      <c r="K334" s="43"/>
-      <c r="L334" s="43"/>
-      <c r="M334" s="43"/>
-      <c r="N334" s="43"/>
-      <c r="O334" s="43"/>
-      <c r="P334" s="43"/>
-    </row>
-    <row r="335" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="40"/>
-      <c r="C335" s="40"/>
-      <c r="D335" s="41"/>
-      <c r="E335" s="42"/>
-      <c r="F335" s="43"/>
-      <c r="G335" s="43"/>
-      <c r="H335" s="44"/>
-      <c r="I335" s="44"/>
-      <c r="J335" s="43"/>
-      <c r="K335" s="43"/>
-      <c r="L335" s="43"/>
-      <c r="M335" s="43"/>
-      <c r="N335" s="43"/>
-      <c r="O335" s="43"/>
-      <c r="P335" s="43"/>
-    </row>
-    <row r="336" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="40"/>
-      <c r="C336" s="40"/>
-      <c r="D336" s="41"/>
-      <c r="E336" s="42"/>
-      <c r="F336" s="43"/>
-      <c r="G336" s="43"/>
-      <c r="H336" s="44"/>
-      <c r="I336" s="44"/>
-      <c r="J336" s="43"/>
-      <c r="K336" s="43"/>
-      <c r="L336" s="43"/>
-      <c r="M336" s="43"/>
-      <c r="N336" s="43"/>
-      <c r="O336" s="43"/>
-      <c r="P336" s="43"/>
-    </row>
-    <row r="337" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="40"/>
-      <c r="C337" s="40"/>
-      <c r="D337" s="41"/>
-      <c r="E337" s="42"/>
-      <c r="F337" s="43"/>
-      <c r="G337" s="43"/>
-      <c r="H337" s="44"/>
-      <c r="I337" s="44"/>
-      <c r="J337" s="43"/>
-      <c r="K337" s="43"/>
-      <c r="L337" s="43"/>
-      <c r="M337" s="43"/>
-      <c r="N337" s="43"/>
-      <c r="O337" s="43"/>
-      <c r="P337" s="43"/>
-    </row>
-    <row r="338" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="40"/>
-      <c r="C338" s="40"/>
-      <c r="D338" s="41"/>
-      <c r="E338" s="42"/>
-      <c r="F338" s="43"/>
-      <c r="G338" s="43"/>
-      <c r="H338" s="44"/>
-      <c r="I338" s="44"/>
-      <c r="J338" s="43"/>
-      <c r="K338" s="43"/>
-      <c r="L338" s="43"/>
-      <c r="M338" s="43"/>
-      <c r="N338" s="43"/>
-      <c r="O338" s="43"/>
-      <c r="P338" s="43"/>
-    </row>
-    <row r="339" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="40"/>
-      <c r="C339" s="40"/>
-      <c r="D339" s="41"/>
-      <c r="E339" s="42"/>
-      <c r="F339" s="43"/>
-      <c r="G339" s="43"/>
-      <c r="H339" s="44"/>
-      <c r="I339" s="44"/>
-      <c r="J339" s="43"/>
-      <c r="K339" s="43"/>
-      <c r="L339" s="43"/>
-      <c r="M339" s="43"/>
-      <c r="N339" s="43"/>
-      <c r="O339" s="43"/>
-      <c r="P339" s="43"/>
-    </row>
-    <row r="340" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="40"/>
-      <c r="C340" s="40"/>
-      <c r="D340" s="41"/>
-      <c r="E340" s="42"/>
-      <c r="F340" s="43"/>
-      <c r="G340" s="43"/>
-      <c r="H340" s="44"/>
-      <c r="I340" s="44"/>
-      <c r="J340" s="43"/>
-      <c r="K340" s="43"/>
-      <c r="L340" s="43"/>
-      <c r="M340" s="43"/>
-      <c r="N340" s="43"/>
-      <c r="O340" s="43"/>
-      <c r="P340" s="43"/>
-    </row>
-    <row r="341" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="40"/>
-      <c r="C341" s="40"/>
-      <c r="D341" s="41"/>
-      <c r="E341" s="42"/>
-      <c r="F341" s="43"/>
-      <c r="G341" s="43"/>
-      <c r="H341" s="44"/>
-      <c r="I341" s="44"/>
-      <c r="J341" s="43"/>
-      <c r="K341" s="43"/>
-      <c r="L341" s="43"/>
-      <c r="M341" s="43"/>
-      <c r="N341" s="43"/>
-      <c r="O341" s="43"/>
-      <c r="P341" s="43"/>
-    </row>
-    <row r="342" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="40"/>
-      <c r="C342" s="40"/>
-      <c r="D342" s="41"/>
-      <c r="E342" s="42"/>
-      <c r="F342" s="43"/>
-      <c r="G342" s="43"/>
-      <c r="H342" s="44"/>
-      <c r="I342" s="44"/>
-      <c r="J342" s="43"/>
-      <c r="K342" s="43"/>
-      <c r="L342" s="43"/>
-      <c r="M342" s="43"/>
-      <c r="N342" s="43"/>
-      <c r="O342" s="43"/>
-      <c r="P342" s="43"/>
-    </row>
-    <row r="343" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="40"/>
-      <c r="C343" s="40"/>
-      <c r="D343" s="41"/>
-      <c r="E343" s="42"/>
-      <c r="F343" s="43"/>
-      <c r="G343" s="43"/>
-      <c r="H343" s="44"/>
-      <c r="I343" s="44"/>
-      <c r="J343" s="43"/>
-      <c r="K343" s="43"/>
-      <c r="L343" s="43"/>
-      <c r="M343" s="43"/>
-      <c r="N343" s="43"/>
-      <c r="O343" s="43"/>
-      <c r="P343" s="43"/>
-    </row>
-    <row r="344" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="40"/>
-      <c r="C344" s="40"/>
-      <c r="D344" s="41"/>
-      <c r="E344" s="42"/>
-      <c r="F344" s="43"/>
-      <c r="G344" s="43"/>
-      <c r="H344" s="44"/>
-      <c r="I344" s="44"/>
-      <c r="J344" s="43"/>
-      <c r="K344" s="43"/>
-      <c r="L344" s="43"/>
-      <c r="M344" s="43"/>
-      <c r="N344" s="43"/>
-      <c r="O344" s="43"/>
-      <c r="P344" s="43"/>
-    </row>
-    <row r="345" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="40"/>
-      <c r="C345" s="40"/>
-      <c r="D345" s="41"/>
-      <c r="E345" s="42"/>
-      <c r="F345" s="43"/>
-      <c r="G345" s="43"/>
-      <c r="H345" s="44"/>
-      <c r="I345" s="44"/>
-      <c r="J345" s="43"/>
-      <c r="K345" s="43"/>
-      <c r="L345" s="43"/>
-      <c r="M345" s="43"/>
-      <c r="N345" s="43"/>
-      <c r="O345" s="43"/>
-      <c r="P345" s="43"/>
-    </row>
-    <row r="346" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="40"/>
-      <c r="C346" s="40"/>
-      <c r="D346" s="41"/>
-      <c r="E346" s="42"/>
-      <c r="F346" s="43"/>
-      <c r="G346" s="43"/>
-      <c r="H346" s="44"/>
-      <c r="I346" s="44"/>
-      <c r="J346" s="43"/>
-      <c r="K346" s="43"/>
-      <c r="L346" s="43"/>
-      <c r="M346" s="43"/>
-      <c r="N346" s="43"/>
-      <c r="O346" s="43"/>
-      <c r="P346" s="43"/>
-    </row>
-    <row r="347" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="40"/>
-      <c r="C347" s="40"/>
-      <c r="D347" s="41"/>
-      <c r="E347" s="42"/>
-      <c r="F347" s="43"/>
-      <c r="G347" s="43"/>
-      <c r="H347" s="44"/>
-      <c r="I347" s="44"/>
-      <c r="J347" s="43"/>
-      <c r="K347" s="43"/>
-      <c r="L347" s="43"/>
-      <c r="M347" s="43"/>
-      <c r="N347" s="43"/>
-      <c r="O347" s="43"/>
-      <c r="P347" s="43"/>
-    </row>
-    <row r="348" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="40"/>
-      <c r="C348" s="40"/>
-      <c r="D348" s="41"/>
-      <c r="E348" s="42"/>
-      <c r="F348" s="43"/>
-      <c r="G348" s="43"/>
-      <c r="H348" s="44"/>
-      <c r="I348" s="44"/>
-      <c r="J348" s="43"/>
-      <c r="K348" s="43"/>
-      <c r="L348" s="43"/>
-      <c r="M348" s="43"/>
-      <c r="N348" s="43"/>
-      <c r="O348" s="43"/>
-      <c r="P348" s="43"/>
-    </row>
-    <row r="349" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="40"/>
-      <c r="C349" s="40"/>
-      <c r="D349" s="41"/>
-      <c r="E349" s="42"/>
-      <c r="F349" s="43"/>
-      <c r="G349" s="43"/>
-      <c r="H349" s="44"/>
-      <c r="I349" s="44"/>
-      <c r="J349" s="43"/>
-      <c r="K349" s="43"/>
-      <c r="L349" s="43"/>
-      <c r="M349" s="43"/>
-      <c r="N349" s="43"/>
-      <c r="O349" s="43"/>
-      <c r="P349" s="43"/>
-    </row>
-    <row r="350" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="40"/>
-      <c r="C350" s="40"/>
-      <c r="D350" s="41"/>
-      <c r="E350" s="42"/>
-      <c r="F350" s="43"/>
-      <c r="G350" s="43"/>
-      <c r="H350" s="44"/>
-      <c r="I350" s="44"/>
-      <c r="J350" s="43"/>
-      <c r="K350" s="43"/>
-      <c r="L350" s="43"/>
-      <c r="M350" s="43"/>
-      <c r="N350" s="43"/>
-      <c r="O350" s="43"/>
-      <c r="P350" s="43"/>
-    </row>
-    <row r="351" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="40"/>
-      <c r="C351" s="40"/>
-      <c r="D351" s="41"/>
-      <c r="E351" s="42"/>
-      <c r="F351" s="43"/>
-      <c r="G351" s="43"/>
-      <c r="H351" s="44"/>
-      <c r="I351" s="44"/>
-      <c r="J351" s="43"/>
-      <c r="K351" s="43"/>
-      <c r="L351" s="43"/>
-      <c r="M351" s="43"/>
-      <c r="N351" s="43"/>
-      <c r="O351" s="43"/>
-      <c r="P351" s="43"/>
-    </row>
-    <row r="352" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="40"/>
-      <c r="C352" s="40"/>
-      <c r="D352" s="41"/>
-      <c r="E352" s="42"/>
-      <c r="F352" s="43"/>
-      <c r="G352" s="43"/>
-      <c r="H352" s="44"/>
-      <c r="I352" s="44"/>
-      <c r="J352" s="43"/>
-      <c r="K352" s="43"/>
-      <c r="L352" s="43"/>
-      <c r="M352" s="43"/>
-      <c r="N352" s="43"/>
-      <c r="O352" s="43"/>
-      <c r="P352" s="43"/>
-    </row>
-    <row r="353" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="40"/>
-      <c r="C353" s="40"/>
-      <c r="D353" s="41"/>
-      <c r="E353" s="42"/>
-      <c r="F353" s="43"/>
-      <c r="G353" s="43"/>
-      <c r="H353" s="44"/>
-      <c r="I353" s="44"/>
-      <c r="J353" s="43"/>
-      <c r="K353" s="43"/>
-      <c r="L353" s="43"/>
-      <c r="M353" s="43"/>
-      <c r="N353" s="43"/>
-      <c r="O353" s="43"/>
-      <c r="P353" s="43"/>
-    </row>
-    <row r="354" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="40"/>
-      <c r="C354" s="40"/>
-      <c r="D354" s="41"/>
-      <c r="E354" s="42"/>
-      <c r="F354" s="43"/>
-      <c r="G354" s="43"/>
-      <c r="H354" s="44"/>
-      <c r="I354" s="44"/>
-      <c r="J354" s="43"/>
-      <c r="K354" s="43"/>
-      <c r="L354" s="43"/>
-      <c r="M354" s="43"/>
-      <c r="N354" s="43"/>
-      <c r="O354" s="43"/>
-      <c r="P354" s="43"/>
-    </row>
-    <row r="355" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="40"/>
-      <c r="C355" s="40"/>
-      <c r="D355" s="41"/>
-      <c r="E355" s="42"/>
-      <c r="F355" s="43"/>
-      <c r="G355" s="43"/>
-      <c r="H355" s="44"/>
-      <c r="I355" s="44"/>
-      <c r="J355" s="43"/>
-      <c r="K355" s="43"/>
-      <c r="L355" s="43"/>
-      <c r="M355" s="43"/>
-      <c r="N355" s="43"/>
-      <c r="O355" s="43"/>
-      <c r="P355" s="43"/>
-    </row>
-    <row r="356" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="40"/>
-      <c r="C356" s="40"/>
-      <c r="D356" s="41"/>
-      <c r="E356" s="42"/>
-      <c r="F356" s="43"/>
-      <c r="G356" s="43"/>
-      <c r="H356" s="44"/>
-      <c r="I356" s="44"/>
-      <c r="J356" s="43"/>
-      <c r="K356" s="43"/>
-      <c r="L356" s="43"/>
-      <c r="M356" s="43"/>
-      <c r="N356" s="43"/>
-      <c r="O356" s="43"/>
-      <c r="P356" s="43"/>
-    </row>
-    <row r="357" spans="2:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="40"/>
-      <c r="C357" s="40"/>
-      <c r="D357" s="41"/>
-      <c r="E357" s="42"/>
-      <c r="F357" s="43"/>
-      <c r="G357" s="43"/>
-      <c r="H357" s="44"/>
-      <c r="I357" s="44"/>
-      <c r="J357" s="43"/>
-      <c r="K357" s="43"/>
-      <c r="L357" s="43"/>
-      <c r="M357" s="43"/>
-      <c r="N357" s="43"/>
-      <c r="O357" s="43"/>
-      <c r="P357" s="43"/>
+      <c r="I256" s="42"/>
+      <c r="J256" s="41"/>
+      <c r="K256" s="41"/>
+      <c r="L256" s="41"/>
+      <c r="M256" s="41"/>
+      <c r="N256" s="41"/>
+      <c r="O256" s="41"/>
+      <c r="P256" s="41"/>
+    </row>
+    <row r="257" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="38"/>
+      <c r="C257" s="38"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="40"/>
+      <c r="F257" s="41"/>
+      <c r="G257" s="41"/>
+      <c r="H257" s="42"/>
+      <c r="I257" s="42"/>
+      <c r="J257" s="41"/>
+      <c r="K257" s="41"/>
+      <c r="L257" s="41"/>
+      <c r="M257" s="41"/>
+      <c r="N257" s="41"/>
+      <c r="O257" s="41"/>
+      <c r="P257" s="41"/>
+    </row>
+    <row r="258" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="38"/>
+      <c r="C258" s="38"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="40"/>
+      <c r="F258" s="41"/>
+      <c r="G258" s="41"/>
+      <c r="H258" s="42"/>
+      <c r="I258" s="42"/>
+      <c r="J258" s="41"/>
+      <c r="K258" s="41"/>
+      <c r="L258" s="41"/>
+      <c r="M258" s="41"/>
+      <c r="N258" s="41"/>
+      <c r="O258" s="41"/>
+      <c r="P258" s="41"/>
+    </row>
+    <row r="259" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="38"/>
+      <c r="C259" s="38"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="40"/>
+      <c r="F259" s="41"/>
+      <c r="G259" s="41"/>
+      <c r="H259" s="42"/>
+      <c r="I259" s="42"/>
+      <c r="J259" s="41"/>
+      <c r="K259" s="41"/>
+      <c r="L259" s="41"/>
+      <c r="M259" s="41"/>
+      <c r="N259" s="41"/>
+      <c r="O259" s="41"/>
+      <c r="P259" s="41"/>
+    </row>
+    <row r="260" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="38"/>
+      <c r="C260" s="38"/>
+      <c r="D260" s="39"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="41"/>
+      <c r="G260" s="41"/>
+      <c r="H260" s="42"/>
+      <c r="I260" s="42"/>
+      <c r="J260" s="41"/>
+      <c r="K260" s="41"/>
+      <c r="L260" s="41"/>
+      <c r="M260" s="41"/>
+      <c r="N260" s="41"/>
+      <c r="O260" s="41"/>
+      <c r="P260" s="41"/>
+    </row>
+    <row r="261" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="38"/>
+      <c r="C261" s="38"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="40"/>
+      <c r="F261" s="41"/>
+      <c r="G261" s="41"/>
+      <c r="H261" s="42"/>
+      <c r="I261" s="42"/>
+      <c r="J261" s="41"/>
+      <c r="K261" s="41"/>
+      <c r="L261" s="41"/>
+      <c r="M261" s="41"/>
+      <c r="N261" s="41"/>
+      <c r="O261" s="41"/>
+      <c r="P261" s="41"/>
+    </row>
+    <row r="262" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="38"/>
+      <c r="C262" s="38"/>
+      <c r="D262" s="39"/>
+      <c r="E262" s="40"/>
+      <c r="F262" s="41"/>
+      <c r="G262" s="41"/>
+      <c r="H262" s="42"/>
+      <c r="I262" s="42"/>
+      <c r="J262" s="41"/>
+      <c r="K262" s="41"/>
+      <c r="L262" s="41"/>
+      <c r="M262" s="41"/>
+      <c r="N262" s="41"/>
+      <c r="O262" s="41"/>
+      <c r="P262" s="41"/>
+    </row>
+    <row r="263" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="38"/>
+      <c r="C263" s="38"/>
+      <c r="D263" s="39"/>
+      <c r="E263" s="40"/>
+      <c r="F263" s="41"/>
+      <c r="G263" s="41"/>
+      <c r="H263" s="42"/>
+      <c r="I263" s="42"/>
+      <c r="J263" s="41"/>
+      <c r="K263" s="41"/>
+      <c r="L263" s="41"/>
+      <c r="M263" s="41"/>
+      <c r="N263" s="41"/>
+      <c r="O263" s="41"/>
+      <c r="P263" s="41"/>
+    </row>
+    <row r="264" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="38"/>
+      <c r="C264" s="38"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="40"/>
+      <c r="F264" s="41"/>
+      <c r="G264" s="41"/>
+      <c r="H264" s="42"/>
+      <c r="I264" s="42"/>
+      <c r="J264" s="41"/>
+      <c r="K264" s="41"/>
+      <c r="L264" s="41"/>
+      <c r="M264" s="41"/>
+      <c r="N264" s="41"/>
+      <c r="O264" s="41"/>
+      <c r="P264" s="41"/>
+    </row>
+    <row r="265" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="38"/>
+      <c r="C265" s="38"/>
+      <c r="D265" s="39"/>
+      <c r="E265" s="40"/>
+      <c r="F265" s="41"/>
+      <c r="G265" s="41"/>
+      <c r="H265" s="42"/>
+      <c r="I265" s="42"/>
+      <c r="J265" s="41"/>
+      <c r="K265" s="41"/>
+      <c r="L265" s="41"/>
+      <c r="M265" s="41"/>
+      <c r="N265" s="41"/>
+      <c r="O265" s="41"/>
+      <c r="P265" s="41"/>
+    </row>
+    <row r="266" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="38"/>
+      <c r="C266" s="38"/>
+      <c r="D266" s="39"/>
+      <c r="E266" s="40"/>
+      <c r="F266" s="41"/>
+      <c r="G266" s="41"/>
+      <c r="H266" s="42"/>
+      <c r="I266" s="42"/>
+      <c r="J266" s="41"/>
+      <c r="K266" s="41"/>
+      <c r="L266" s="41"/>
+      <c r="M266" s="41"/>
+      <c r="N266" s="41"/>
+      <c r="O266" s="41"/>
+      <c r="P266" s="41"/>
+    </row>
+    <row r="267" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="38"/>
+      <c r="C267" s="38"/>
+      <c r="D267" s="39"/>
+      <c r="E267" s="40"/>
+      <c r="F267" s="41"/>
+      <c r="G267" s="41"/>
+      <c r="H267" s="42"/>
+      <c r="I267" s="42"/>
+      <c r="J267" s="41"/>
+      <c r="K267" s="41"/>
+      <c r="L267" s="41"/>
+      <c r="M267" s="41"/>
+      <c r="N267" s="41"/>
+      <c r="O267" s="41"/>
+      <c r="P267" s="41"/>
+    </row>
+    <row r="268" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="38"/>
+      <c r="C268" s="38"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="40"/>
+      <c r="F268" s="41"/>
+      <c r="G268" s="41"/>
+      <c r="H268" s="42"/>
+      <c r="I268" s="42"/>
+      <c r="J268" s="41"/>
+      <c r="K268" s="41"/>
+      <c r="L268" s="41"/>
+      <c r="M268" s="41"/>
+      <c r="N268" s="41"/>
+      <c r="O268" s="41"/>
+      <c r="P268" s="41"/>
+    </row>
+    <row r="269" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="38"/>
+      <c r="C269" s="38"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="40"/>
+      <c r="F269" s="41"/>
+      <c r="G269" s="41"/>
+      <c r="H269" s="42"/>
+      <c r="I269" s="42"/>
+      <c r="J269" s="41"/>
+      <c r="K269" s="41"/>
+      <c r="L269" s="41"/>
+      <c r="M269" s="41"/>
+      <c r="N269" s="41"/>
+      <c r="O269" s="41"/>
+      <c r="P269" s="41"/>
+    </row>
+    <row r="270" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="38"/>
+      <c r="C270" s="38"/>
+      <c r="D270" s="39"/>
+      <c r="E270" s="40"/>
+      <c r="F270" s="41"/>
+      <c r="G270" s="41"/>
+      <c r="H270" s="42"/>
+      <c r="I270" s="42"/>
+      <c r="J270" s="41"/>
+      <c r="K270" s="41"/>
+      <c r="L270" s="41"/>
+      <c r="M270" s="41"/>
+      <c r="N270" s="41"/>
+      <c r="O270" s="41"/>
+      <c r="P270" s="41"/>
+    </row>
+    <row r="271" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="38"/>
+      <c r="C271" s="38"/>
+      <c r="D271" s="39"/>
+      <c r="E271" s="40"/>
+      <c r="F271" s="41"/>
+      <c r="G271" s="41"/>
+      <c r="H271" s="42"/>
+      <c r="I271" s="42"/>
+      <c r="J271" s="41"/>
+      <c r="K271" s="41"/>
+      <c r="L271" s="41"/>
+      <c r="M271" s="41"/>
+      <c r="N271" s="41"/>
+      <c r="O271" s="41"/>
+      <c r="P271" s="41"/>
+    </row>
+    <row r="272" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="38"/>
+      <c r="C272" s="38"/>
+      <c r="D272" s="39"/>
+      <c r="E272" s="40"/>
+      <c r="F272" s="41"/>
+      <c r="G272" s="41"/>
+      <c r="H272" s="42"/>
+      <c r="I272" s="42"/>
+      <c r="J272" s="41"/>
+      <c r="K272" s="41"/>
+      <c r="L272" s="41"/>
+      <c r="M272" s="41"/>
+      <c r="N272" s="41"/>
+      <c r="O272" s="41"/>
+      <c r="P272" s="41"/>
+    </row>
+    <row r="273" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="38"/>
+      <c r="C273" s="38"/>
+      <c r="D273" s="39"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="41"/>
+      <c r="G273" s="41"/>
+      <c r="H273" s="42"/>
+      <c r="I273" s="42"/>
+      <c r="J273" s="41"/>
+      <c r="K273" s="41"/>
+      <c r="L273" s="41"/>
+      <c r="M273" s="41"/>
+      <c r="N273" s="41"/>
+      <c r="O273" s="41"/>
+      <c r="P273" s="41"/>
+    </row>
+    <row r="274" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="38"/>
+      <c r="C274" s="38"/>
+      <c r="D274" s="39"/>
+      <c r="E274" s="40"/>
+      <c r="F274" s="41"/>
+      <c r="G274" s="41"/>
+      <c r="H274" s="42"/>
+      <c r="I274" s="42"/>
+      <c r="J274" s="41"/>
+      <c r="K274" s="41"/>
+      <c r="L274" s="41"/>
+      <c r="M274" s="41"/>
+      <c r="N274" s="41"/>
+      <c r="O274" s="41"/>
+      <c r="P274" s="41"/>
+    </row>
+    <row r="275" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="38"/>
+      <c r="C275" s="38"/>
+      <c r="D275" s="39"/>
+      <c r="E275" s="40"/>
+      <c r="F275" s="41"/>
+      <c r="G275" s="41"/>
+      <c r="H275" s="42"/>
+      <c r="I275" s="42"/>
+      <c r="J275" s="41"/>
+      <c r="K275" s="41"/>
+      <c r="L275" s="41"/>
+      <c r="M275" s="41"/>
+      <c r="N275" s="41"/>
+      <c r="O275" s="41"/>
+      <c r="P275" s="41"/>
+    </row>
+    <row r="276" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="38"/>
+      <c r="C276" s="38"/>
+      <c r="D276" s="39"/>
+      <c r="E276" s="40"/>
+      <c r="F276" s="41"/>
+      <c r="G276" s="41"/>
+      <c r="H276" s="42"/>
+      <c r="I276" s="42"/>
+      <c r="J276" s="41"/>
+      <c r="K276" s="41"/>
+      <c r="L276" s="41"/>
+      <c r="M276" s="41"/>
+      <c r="N276" s="41"/>
+      <c r="O276" s="41"/>
+      <c r="P276" s="41"/>
+    </row>
+    <row r="277" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="38"/>
+      <c r="C277" s="38"/>
+      <c r="D277" s="39"/>
+      <c r="E277" s="40"/>
+      <c r="F277" s="41"/>
+      <c r="G277" s="41"/>
+      <c r="H277" s="42"/>
+      <c r="I277" s="42"/>
+      <c r="J277" s="41"/>
+      <c r="K277" s="41"/>
+      <c r="L277" s="41"/>
+      <c r="M277" s="41"/>
+      <c r="N277" s="41"/>
+      <c r="O277" s="41"/>
+      <c r="P277" s="41"/>
+    </row>
+    <row r="278" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="38"/>
+      <c r="C278" s="38"/>
+      <c r="D278" s="39"/>
+      <c r="E278" s="40"/>
+      <c r="F278" s="41"/>
+      <c r="G278" s="41"/>
+      <c r="H278" s="42"/>
+      <c r="I278" s="42"/>
+      <c r="J278" s="41"/>
+      <c r="K278" s="41"/>
+      <c r="L278" s="41"/>
+      <c r="M278" s="41"/>
+      <c r="N278" s="41"/>
+      <c r="O278" s="41"/>
+      <c r="P278" s="41"/>
+    </row>
+    <row r="279" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="38"/>
+      <c r="C279" s="38"/>
+      <c r="D279" s="39"/>
+      <c r="E279" s="40"/>
+      <c r="F279" s="41"/>
+      <c r="G279" s="41"/>
+      <c r="H279" s="42"/>
+      <c r="I279" s="42"/>
+      <c r="J279" s="41"/>
+      <c r="K279" s="41"/>
+      <c r="L279" s="41"/>
+      <c r="M279" s="41"/>
+      <c r="N279" s="41"/>
+      <c r="O279" s="41"/>
+      <c r="P279" s="41"/>
+    </row>
+    <row r="280" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="38"/>
+      <c r="C280" s="38"/>
+      <c r="D280" s="39"/>
+      <c r="E280" s="40"/>
+      <c r="F280" s="41"/>
+      <c r="G280" s="41"/>
+      <c r="H280" s="42"/>
+      <c r="I280" s="42"/>
+      <c r="J280" s="41"/>
+      <c r="K280" s="41"/>
+      <c r="L280" s="41"/>
+      <c r="M280" s="41"/>
+      <c r="N280" s="41"/>
+      <c r="O280" s="41"/>
+      <c r="P280" s="41"/>
+    </row>
+    <row r="281" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="38"/>
+      <c r="C281" s="38"/>
+      <c r="D281" s="39"/>
+      <c r="E281" s="40"/>
+      <c r="F281" s="41"/>
+      <c r="G281" s="41"/>
+      <c r="H281" s="42"/>
+      <c r="I281" s="42"/>
+      <c r="J281" s="41"/>
+      <c r="K281" s="41"/>
+      <c r="L281" s="41"/>
+      <c r="M281" s="41"/>
+      <c r="N281" s="41"/>
+      <c r="O281" s="41"/>
+      <c r="P281" s="41"/>
+    </row>
+    <row r="282" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="38"/>
+      <c r="C282" s="38"/>
+      <c r="D282" s="39"/>
+      <c r="E282" s="40"/>
+      <c r="F282" s="41"/>
+      <c r="G282" s="41"/>
+      <c r="H282" s="42"/>
+      <c r="I282" s="42"/>
+      <c r="J282" s="41"/>
+      <c r="K282" s="41"/>
+      <c r="L282" s="41"/>
+      <c r="M282" s="41"/>
+      <c r="N282" s="41"/>
+      <c r="O282" s="41"/>
+      <c r="P282" s="41"/>
+    </row>
+    <row r="283" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="38"/>
+      <c r="C283" s="38"/>
+      <c r="D283" s="39"/>
+      <c r="E283" s="40"/>
+      <c r="F283" s="41"/>
+      <c r="G283" s="41"/>
+      <c r="H283" s="42"/>
+      <c r="I283" s="42"/>
+      <c r="J283" s="41"/>
+      <c r="K283" s="41"/>
+      <c r="L283" s="41"/>
+      <c r="M283" s="41"/>
+      <c r="N283" s="41"/>
+      <c r="O283" s="41"/>
+      <c r="P283" s="41"/>
+    </row>
+    <row r="284" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="38"/>
+      <c r="C284" s="38"/>
+      <c r="D284" s="39"/>
+      <c r="E284" s="40"/>
+      <c r="F284" s="41"/>
+      <c r="G284" s="41"/>
+      <c r="H284" s="42"/>
+      <c r="I284" s="42"/>
+      <c r="J284" s="41"/>
+      <c r="K284" s="41"/>
+      <c r="L284" s="41"/>
+      <c r="M284" s="41"/>
+      <c r="N284" s="41"/>
+      <c r="O284" s="41"/>
+      <c r="P284" s="41"/>
+    </row>
+    <row r="285" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="38"/>
+      <c r="C285" s="38"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="40"/>
+      <c r="F285" s="41"/>
+      <c r="G285" s="41"/>
+      <c r="H285" s="42"/>
+      <c r="I285" s="42"/>
+      <c r="J285" s="41"/>
+      <c r="K285" s="41"/>
+      <c r="L285" s="41"/>
+      <c r="M285" s="41"/>
+      <c r="N285" s="41"/>
+      <c r="O285" s="41"/>
+      <c r="P285" s="41"/>
+    </row>
+    <row r="286" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="38"/>
+      <c r="C286" s="38"/>
+      <c r="D286" s="39"/>
+      <c r="E286" s="40"/>
+      <c r="F286" s="41"/>
+      <c r="G286" s="41"/>
+      <c r="H286" s="42"/>
+      <c r="I286" s="42"/>
+      <c r="J286" s="41"/>
+      <c r="K286" s="41"/>
+      <c r="L286" s="41"/>
+      <c r="M286" s="41"/>
+      <c r="N286" s="41"/>
+      <c r="O286" s="41"/>
+      <c r="P286" s="41"/>
+    </row>
+    <row r="287" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="38"/>
+      <c r="C287" s="38"/>
+      <c r="D287" s="39"/>
+      <c r="E287" s="40"/>
+      <c r="F287" s="41"/>
+      <c r="G287" s="41"/>
+      <c r="H287" s="42"/>
+      <c r="I287" s="42"/>
+      <c r="J287" s="41"/>
+      <c r="K287" s="41"/>
+      <c r="L287" s="41"/>
+      <c r="M287" s="41"/>
+      <c r="N287" s="41"/>
+      <c r="O287" s="41"/>
+      <c r="P287" s="41"/>
+    </row>
+    <row r="288" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="38"/>
+      <c r="C288" s="38"/>
+      <c r="D288" s="39"/>
+      <c r="E288" s="40"/>
+      <c r="F288" s="41"/>
+      <c r="G288" s="41"/>
+      <c r="H288" s="42"/>
+      <c r="I288" s="42"/>
+      <c r="J288" s="41"/>
+      <c r="K288" s="41"/>
+      <c r="L288" s="41"/>
+      <c r="M288" s="41"/>
+      <c r="N288" s="41"/>
+      <c r="O288" s="41"/>
+      <c r="P288" s="41"/>
+    </row>
+    <row r="289" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="38"/>
+      <c r="C289" s="38"/>
+      <c r="D289" s="39"/>
+      <c r="E289" s="40"/>
+      <c r="F289" s="41"/>
+      <c r="G289" s="41"/>
+      <c r="H289" s="42"/>
+      <c r="I289" s="42"/>
+      <c r="J289" s="41"/>
+      <c r="K289" s="41"/>
+      <c r="L289" s="41"/>
+      <c r="M289" s="41"/>
+      <c r="N289" s="41"/>
+      <c r="O289" s="41"/>
+      <c r="P289" s="41"/>
+    </row>
+    <row r="290" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="38"/>
+      <c r="C290" s="38"/>
+      <c r="D290" s="39"/>
+      <c r="E290" s="40"/>
+      <c r="F290" s="41"/>
+      <c r="G290" s="41"/>
+      <c r="H290" s="42"/>
+      <c r="I290" s="42"/>
+      <c r="J290" s="41"/>
+      <c r="K290" s="41"/>
+      <c r="L290" s="41"/>
+      <c r="M290" s="41"/>
+      <c r="N290" s="41"/>
+      <c r="O290" s="41"/>
+      <c r="P290" s="41"/>
+    </row>
+    <row r="291" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="38"/>
+      <c r="C291" s="38"/>
+      <c r="D291" s="39"/>
+      <c r="E291" s="40"/>
+      <c r="F291" s="41"/>
+      <c r="G291" s="41"/>
+      <c r="H291" s="42"/>
+      <c r="I291" s="42"/>
+      <c r="J291" s="41"/>
+      <c r="K291" s="41"/>
+      <c r="L291" s="41"/>
+      <c r="M291" s="41"/>
+      <c r="N291" s="41"/>
+      <c r="O291" s="41"/>
+      <c r="P291" s="41"/>
+    </row>
+    <row r="292" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="38"/>
+      <c r="C292" s="38"/>
+      <c r="D292" s="39"/>
+      <c r="E292" s="40"/>
+      <c r="F292" s="41"/>
+      <c r="G292" s="41"/>
+      <c r="H292" s="42"/>
+      <c r="I292" s="42"/>
+      <c r="J292" s="41"/>
+      <c r="K292" s="41"/>
+      <c r="L292" s="41"/>
+      <c r="M292" s="41"/>
+      <c r="N292" s="41"/>
+      <c r="O292" s="41"/>
+      <c r="P292" s="41"/>
+    </row>
+    <row r="293" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="38"/>
+      <c r="C293" s="38"/>
+      <c r="D293" s="39"/>
+      <c r="E293" s="40"/>
+      <c r="F293" s="41"/>
+      <c r="G293" s="41"/>
+      <c r="H293" s="42"/>
+      <c r="I293" s="42"/>
+      <c r="J293" s="41"/>
+      <c r="K293" s="41"/>
+      <c r="L293" s="41"/>
+      <c r="M293" s="41"/>
+      <c r="N293" s="41"/>
+      <c r="O293" s="41"/>
+      <c r="P293" s="41"/>
+    </row>
+    <row r="294" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="38"/>
+      <c r="C294" s="38"/>
+      <c r="D294" s="39"/>
+      <c r="E294" s="40"/>
+      <c r="F294" s="41"/>
+      <c r="G294" s="41"/>
+      <c r="H294" s="42"/>
+      <c r="I294" s="42"/>
+      <c r="J294" s="41"/>
+      <c r="K294" s="41"/>
+      <c r="L294" s="41"/>
+      <c r="M294" s="41"/>
+      <c r="N294" s="41"/>
+      <c r="O294" s="41"/>
+      <c r="P294" s="41"/>
+    </row>
+    <row r="295" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="38"/>
+      <c r="C295" s="38"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="40"/>
+      <c r="F295" s="41"/>
+      <c r="G295" s="41"/>
+      <c r="H295" s="42"/>
+      <c r="I295" s="42"/>
+      <c r="J295" s="41"/>
+      <c r="K295" s="41"/>
+      <c r="L295" s="41"/>
+      <c r="M295" s="41"/>
+      <c r="N295" s="41"/>
+      <c r="O295" s="41"/>
+      <c r="P295" s="41"/>
+    </row>
+    <row r="296" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="38"/>
+      <c r="C296" s="38"/>
+      <c r="D296" s="39"/>
+      <c r="E296" s="40"/>
+      <c r="F296" s="41"/>
+      <c r="G296" s="41"/>
+      <c r="H296" s="42"/>
+      <c r="I296" s="42"/>
+      <c r="J296" s="41"/>
+      <c r="K296" s="41"/>
+      <c r="L296" s="41"/>
+      <c r="M296" s="41"/>
+      <c r="N296" s="41"/>
+      <c r="O296" s="41"/>
+      <c r="P296" s="41"/>
+    </row>
+    <row r="297" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="38"/>
+      <c r="C297" s="38"/>
+      <c r="D297" s="39"/>
+      <c r="E297" s="40"/>
+      <c r="F297" s="41"/>
+      <c r="G297" s="41"/>
+      <c r="H297" s="42"/>
+      <c r="I297" s="42"/>
+      <c r="J297" s="41"/>
+      <c r="K297" s="41"/>
+      <c r="L297" s="41"/>
+      <c r="M297" s="41"/>
+      <c r="N297" s="41"/>
+      <c r="O297" s="41"/>
+      <c r="P297" s="41"/>
+    </row>
+    <row r="298" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="38"/>
+      <c r="C298" s="38"/>
+      <c r="D298" s="39"/>
+      <c r="E298" s="40"/>
+      <c r="F298" s="41"/>
+      <c r="G298" s="41"/>
+      <c r="H298" s="42"/>
+      <c r="I298" s="42"/>
+      <c r="J298" s="41"/>
+      <c r="K298" s="41"/>
+      <c r="L298" s="41"/>
+      <c r="M298" s="41"/>
+      <c r="N298" s="41"/>
+      <c r="O298" s="41"/>
+      <c r="P298" s="41"/>
+    </row>
+    <row r="299" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="38"/>
+      <c r="C299" s="38"/>
+      <c r="D299" s="39"/>
+      <c r="E299" s="40"/>
+      <c r="F299" s="41"/>
+      <c r="G299" s="41"/>
+      <c r="H299" s="42"/>
+      <c r="I299" s="42"/>
+      <c r="J299" s="41"/>
+      <c r="K299" s="41"/>
+      <c r="L299" s="41"/>
+      <c r="M299" s="41"/>
+      <c r="N299" s="41"/>
+      <c r="O299" s="41"/>
+      <c r="P299" s="41"/>
+    </row>
+    <row r="300" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="38"/>
+      <c r="C300" s="38"/>
+      <c r="D300" s="39"/>
+      <c r="E300" s="40"/>
+      <c r="F300" s="41"/>
+      <c r="G300" s="41"/>
+      <c r="H300" s="42"/>
+      <c r="I300" s="42"/>
+      <c r="J300" s="41"/>
+      <c r="K300" s="41"/>
+      <c r="L300" s="41"/>
+      <c r="M300" s="41"/>
+      <c r="N300" s="41"/>
+      <c r="O300" s="41"/>
+      <c r="P300" s="41"/>
+    </row>
+    <row r="301" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="38"/>
+      <c r="C301" s="38"/>
+      <c r="D301" s="39"/>
+      <c r="E301" s="40"/>
+      <c r="F301" s="41"/>
+      <c r="G301" s="41"/>
+      <c r="H301" s="42"/>
+      <c r="I301" s="42"/>
+      <c r="J301" s="41"/>
+      <c r="K301" s="41"/>
+      <c r="L301" s="41"/>
+      <c r="M301" s="41"/>
+      <c r="N301" s="41"/>
+      <c r="O301" s="41"/>
+      <c r="P301" s="41"/>
+    </row>
+    <row r="302" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="38"/>
+      <c r="C302" s="38"/>
+      <c r="D302" s="39"/>
+      <c r="E302" s="40"/>
+      <c r="F302" s="41"/>
+      <c r="G302" s="41"/>
+      <c r="H302" s="42"/>
+      <c r="I302" s="42"/>
+      <c r="J302" s="41"/>
+      <c r="K302" s="41"/>
+      <c r="L302" s="41"/>
+      <c r="M302" s="41"/>
+      <c r="N302" s="41"/>
+      <c r="O302" s="41"/>
+      <c r="P302" s="41"/>
+    </row>
+    <row r="303" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="38"/>
+      <c r="C303" s="38"/>
+      <c r="D303" s="39"/>
+      <c r="E303" s="40"/>
+      <c r="F303" s="41"/>
+      <c r="G303" s="41"/>
+      <c r="H303" s="42"/>
+      <c r="I303" s="42"/>
+      <c r="J303" s="41"/>
+      <c r="K303" s="41"/>
+      <c r="L303" s="41"/>
+      <c r="M303" s="41"/>
+      <c r="N303" s="41"/>
+      <c r="O303" s="41"/>
+      <c r="P303" s="41"/>
+    </row>
+    <row r="304" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="38"/>
+      <c r="C304" s="38"/>
+      <c r="D304" s="39"/>
+      <c r="E304" s="40"/>
+      <c r="F304" s="41"/>
+      <c r="G304" s="41"/>
+      <c r="H304" s="42"/>
+      <c r="I304" s="42"/>
+      <c r="J304" s="41"/>
+      <c r="K304" s="41"/>
+      <c r="L304" s="41"/>
+      <c r="M304" s="41"/>
+      <c r="N304" s="41"/>
+      <c r="O304" s="41"/>
+      <c r="P304" s="41"/>
+    </row>
+    <row r="305" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="38"/>
+      <c r="C305" s="38"/>
+      <c r="D305" s="39"/>
+      <c r="E305" s="40"/>
+      <c r="F305" s="41"/>
+      <c r="G305" s="41"/>
+      <c r="H305" s="42"/>
+      <c r="I305" s="42"/>
+      <c r="J305" s="41"/>
+      <c r="K305" s="41"/>
+      <c r="L305" s="41"/>
+      <c r="M305" s="41"/>
+      <c r="N305" s="41"/>
+      <c r="O305" s="41"/>
+      <c r="P305" s="41"/>
+    </row>
+    <row r="306" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="38"/>
+      <c r="C306" s="38"/>
+      <c r="D306" s="39"/>
+      <c r="E306" s="40"/>
+      <c r="F306" s="41"/>
+      <c r="G306" s="41"/>
+      <c r="H306" s="42"/>
+      <c r="I306" s="42"/>
+      <c r="J306" s="41"/>
+      <c r="K306" s="41"/>
+      <c r="L306" s="41"/>
+      <c r="M306" s="41"/>
+      <c r="N306" s="41"/>
+      <c r="O306" s="41"/>
+      <c r="P306" s="41"/>
+    </row>
+    <row r="307" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="38"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="39"/>
+      <c r="E307" s="40"/>
+      <c r="F307" s="41"/>
+      <c r="G307" s="41"/>
+      <c r="H307" s="42"/>
+      <c r="I307" s="42"/>
+      <c r="J307" s="41"/>
+      <c r="K307" s="41"/>
+      <c r="L307" s="41"/>
+      <c r="M307" s="41"/>
+      <c r="N307" s="41"/>
+      <c r="O307" s="41"/>
+      <c r="P307" s="41"/>
+    </row>
+    <row r="308" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="38"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="39"/>
+      <c r="E308" s="40"/>
+      <c r="F308" s="41"/>
+      <c r="G308" s="41"/>
+      <c r="H308" s="42"/>
+      <c r="I308" s="42"/>
+      <c r="J308" s="41"/>
+      <c r="K308" s="41"/>
+      <c r="L308" s="41"/>
+      <c r="M308" s="41"/>
+      <c r="N308" s="41"/>
+      <c r="O308" s="41"/>
+      <c r="P308" s="41"/>
+    </row>
+    <row r="309" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="38"/>
+      <c r="C309" s="38"/>
+      <c r="D309" s="39"/>
+      <c r="E309" s="40"/>
+      <c r="F309" s="41"/>
+      <c r="G309" s="41"/>
+      <c r="H309" s="42"/>
+      <c r="I309" s="42"/>
+      <c r="J309" s="41"/>
+      <c r="K309" s="41"/>
+      <c r="L309" s="41"/>
+      <c r="M309" s="41"/>
+      <c r="N309" s="41"/>
+      <c r="O309" s="41"/>
+      <c r="P309" s="41"/>
+    </row>
+    <row r="310" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="38"/>
+      <c r="C310" s="38"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="40"/>
+      <c r="F310" s="41"/>
+      <c r="G310" s="41"/>
+      <c r="H310" s="42"/>
+      <c r="I310" s="42"/>
+      <c r="J310" s="41"/>
+      <c r="K310" s="41"/>
+      <c r="L310" s="41"/>
+      <c r="M310" s="41"/>
+      <c r="N310" s="41"/>
+      <c r="O310" s="41"/>
+      <c r="P310" s="41"/>
+    </row>
+    <row r="311" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="38"/>
+      <c r="C311" s="38"/>
+      <c r="D311" s="39"/>
+      <c r="E311" s="40"/>
+      <c r="F311" s="41"/>
+      <c r="G311" s="41"/>
+      <c r="H311" s="42"/>
+      <c r="I311" s="42"/>
+      <c r="J311" s="41"/>
+      <c r="K311" s="41"/>
+      <c r="L311" s="41"/>
+      <c r="M311" s="41"/>
+      <c r="N311" s="41"/>
+      <c r="O311" s="41"/>
+      <c r="P311" s="41"/>
+    </row>
+    <row r="312" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="38"/>
+      <c r="C312" s="38"/>
+      <c r="D312" s="39"/>
+      <c r="E312" s="40"/>
+      <c r="F312" s="41"/>
+      <c r="G312" s="41"/>
+      <c r="H312" s="42"/>
+      <c r="I312" s="42"/>
+      <c r="J312" s="41"/>
+      <c r="K312" s="41"/>
+      <c r="L312" s="41"/>
+      <c r="M312" s="41"/>
+      <c r="N312" s="41"/>
+      <c r="O312" s="41"/>
+      <c r="P312" s="41"/>
+    </row>
+    <row r="313" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="38"/>
+      <c r="C313" s="38"/>
+      <c r="D313" s="39"/>
+      <c r="E313" s="40"/>
+      <c r="F313" s="41"/>
+      <c r="G313" s="41"/>
+      <c r="H313" s="42"/>
+      <c r="I313" s="42"/>
+      <c r="J313" s="41"/>
+      <c r="K313" s="41"/>
+      <c r="L313" s="41"/>
+      <c r="M313" s="41"/>
+      <c r="N313" s="41"/>
+      <c r="O313" s="41"/>
+      <c r="P313" s="41"/>
+    </row>
+    <row r="314" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="38"/>
+      <c r="C314" s="38"/>
+      <c r="D314" s="39"/>
+      <c r="E314" s="40"/>
+      <c r="F314" s="41"/>
+      <c r="G314" s="41"/>
+      <c r="H314" s="42"/>
+      <c r="I314" s="42"/>
+      <c r="J314" s="41"/>
+      <c r="K314" s="41"/>
+      <c r="L314" s="41"/>
+      <c r="M314" s="41"/>
+      <c r="N314" s="41"/>
+      <c r="O314" s="41"/>
+      <c r="P314" s="41"/>
+    </row>
+    <row r="315" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="38"/>
+      <c r="C315" s="38"/>
+      <c r="D315" s="39"/>
+      <c r="E315" s="40"/>
+      <c r="F315" s="41"/>
+      <c r="G315" s="41"/>
+      <c r="H315" s="42"/>
+      <c r="I315" s="42"/>
+      <c r="J315" s="41"/>
+      <c r="K315" s="41"/>
+      <c r="L315" s="41"/>
+      <c r="M315" s="41"/>
+      <c r="N315" s="41"/>
+      <c r="O315" s="41"/>
+      <c r="P315" s="41"/>
+    </row>
+    <row r="316" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="38"/>
+      <c r="C316" s="38"/>
+      <c r="D316" s="39"/>
+      <c r="E316" s="40"/>
+      <c r="F316" s="41"/>
+      <c r="G316" s="41"/>
+      <c r="H316" s="42"/>
+      <c r="I316" s="42"/>
+      <c r="J316" s="41"/>
+      <c r="K316" s="41"/>
+      <c r="L316" s="41"/>
+      <c r="M316" s="41"/>
+      <c r="N316" s="41"/>
+      <c r="O316" s="41"/>
+      <c r="P316" s="41"/>
+    </row>
+    <row r="317" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="38"/>
+      <c r="C317" s="38"/>
+      <c r="D317" s="39"/>
+      <c r="E317" s="40"/>
+      <c r="F317" s="41"/>
+      <c r="G317" s="41"/>
+      <c r="H317" s="42"/>
+      <c r="I317" s="42"/>
+      <c r="J317" s="41"/>
+      <c r="K317" s="41"/>
+      <c r="L317" s="41"/>
+      <c r="M317" s="41"/>
+      <c r="N317" s="41"/>
+      <c r="O317" s="41"/>
+      <c r="P317" s="41"/>
+    </row>
+    <row r="318" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="38"/>
+      <c r="C318" s="38"/>
+      <c r="D318" s="39"/>
+      <c r="E318" s="40"/>
+      <c r="F318" s="41"/>
+      <c r="G318" s="41"/>
+      <c r="H318" s="42"/>
+      <c r="I318" s="42"/>
+      <c r="J318" s="41"/>
+      <c r="K318" s="41"/>
+      <c r="L318" s="41"/>
+      <c r="M318" s="41"/>
+      <c r="N318" s="41"/>
+      <c r="O318" s="41"/>
+      <c r="P318" s="41"/>
+    </row>
+    <row r="319" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="38"/>
+      <c r="C319" s="38"/>
+      <c r="D319" s="39"/>
+      <c r="E319" s="40"/>
+      <c r="F319" s="41"/>
+      <c r="G319" s="41"/>
+      <c r="H319" s="42"/>
+      <c r="I319" s="42"/>
+      <c r="J319" s="41"/>
+      <c r="K319" s="41"/>
+      <c r="L319" s="41"/>
+      <c r="M319" s="41"/>
+      <c r="N319" s="41"/>
+      <c r="O319" s="41"/>
+      <c r="P319" s="41"/>
+    </row>
+    <row r="320" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="38"/>
+      <c r="C320" s="38"/>
+      <c r="D320" s="39"/>
+      <c r="E320" s="40"/>
+      <c r="F320" s="41"/>
+      <c r="G320" s="41"/>
+      <c r="H320" s="42"/>
+      <c r="I320" s="42"/>
+      <c r="J320" s="41"/>
+      <c r="K320" s="41"/>
+      <c r="L320" s="41"/>
+      <c r="M320" s="41"/>
+      <c r="N320" s="41"/>
+      <c r="O320" s="41"/>
+      <c r="P320" s="41"/>
+    </row>
+    <row r="321" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="38"/>
+      <c r="C321" s="38"/>
+      <c r="D321" s="39"/>
+      <c r="E321" s="40"/>
+      <c r="F321" s="41"/>
+      <c r="G321" s="41"/>
+      <c r="H321" s="42"/>
+      <c r="I321" s="42"/>
+      <c r="J321" s="41"/>
+      <c r="K321" s="41"/>
+      <c r="L321" s="41"/>
+      <c r="M321" s="41"/>
+      <c r="N321" s="41"/>
+      <c r="O321" s="41"/>
+      <c r="P321" s="41"/>
+    </row>
+    <row r="322" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="38"/>
+      <c r="C322" s="38"/>
+      <c r="D322" s="39"/>
+      <c r="E322" s="40"/>
+      <c r="F322" s="41"/>
+      <c r="G322" s="41"/>
+      <c r="H322" s="42"/>
+      <c r="I322" s="42"/>
+      <c r="J322" s="41"/>
+      <c r="K322" s="41"/>
+      <c r="L322" s="41"/>
+      <c r="M322" s="41"/>
+      <c r="N322" s="41"/>
+      <c r="O322" s="41"/>
+      <c r="P322" s="41"/>
+    </row>
+    <row r="323" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="38"/>
+      <c r="C323" s="38"/>
+      <c r="D323" s="39"/>
+      <c r="E323" s="40"/>
+      <c r="F323" s="41"/>
+      <c r="G323" s="41"/>
+      <c r="H323" s="42"/>
+      <c r="I323" s="42"/>
+      <c r="J323" s="41"/>
+      <c r="K323" s="41"/>
+      <c r="L323" s="41"/>
+      <c r="M323" s="41"/>
+      <c r="N323" s="41"/>
+      <c r="O323" s="41"/>
+      <c r="P323" s="41"/>
+    </row>
+    <row r="324" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="38"/>
+      <c r="C324" s="38"/>
+      <c r="D324" s="39"/>
+      <c r="E324" s="40"/>
+      <c r="F324" s="41"/>
+      <c r="G324" s="41"/>
+      <c r="H324" s="42"/>
+      <c r="I324" s="42"/>
+      <c r="J324" s="41"/>
+      <c r="K324" s="41"/>
+      <c r="L324" s="41"/>
+      <c r="M324" s="41"/>
+      <c r="N324" s="41"/>
+      <c r="O324" s="41"/>
+      <c r="P324" s="41"/>
+    </row>
+    <row r="325" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="38"/>
+      <c r="C325" s="38"/>
+      <c r="D325" s="39"/>
+      <c r="E325" s="40"/>
+      <c r="F325" s="41"/>
+      <c r="G325" s="41"/>
+      <c r="H325" s="42"/>
+      <c r="I325" s="42"/>
+      <c r="J325" s="41"/>
+      <c r="K325" s="41"/>
+      <c r="L325" s="41"/>
+      <c r="M325" s="41"/>
+      <c r="N325" s="41"/>
+      <c r="O325" s="41"/>
+      <c r="P325" s="41"/>
+    </row>
+    <row r="326" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="38"/>
+      <c r="C326" s="38"/>
+      <c r="D326" s="39"/>
+      <c r="E326" s="40"/>
+      <c r="F326" s="41"/>
+      <c r="G326" s="41"/>
+      <c r="H326" s="42"/>
+      <c r="I326" s="42"/>
+      <c r="J326" s="41"/>
+      <c r="K326" s="41"/>
+      <c r="L326" s="41"/>
+      <c r="M326" s="41"/>
+      <c r="N326" s="41"/>
+      <c r="O326" s="41"/>
+      <c r="P326" s="41"/>
+    </row>
+    <row r="327" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="38"/>
+      <c r="C327" s="38"/>
+      <c r="D327" s="39"/>
+      <c r="E327" s="40"/>
+      <c r="F327" s="41"/>
+      <c r="G327" s="41"/>
+      <c r="H327" s="42"/>
+      <c r="I327" s="42"/>
+      <c r="J327" s="41"/>
+      <c r="K327" s="41"/>
+      <c r="L327" s="41"/>
+      <c r="M327" s="41"/>
+      <c r="N327" s="41"/>
+      <c r="O327" s="41"/>
+      <c r="P327" s="41"/>
+    </row>
+    <row r="328" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="38"/>
+      <c r="C328" s="38"/>
+      <c r="D328" s="39"/>
+      <c r="E328" s="40"/>
+      <c r="F328" s="41"/>
+      <c r="G328" s="41"/>
+      <c r="H328" s="42"/>
+      <c r="I328" s="42"/>
+      <c r="J328" s="41"/>
+      <c r="K328" s="41"/>
+      <c r="L328" s="41"/>
+      <c r="M328" s="41"/>
+      <c r="N328" s="41"/>
+      <c r="O328" s="41"/>
+      <c r="P328" s="41"/>
+    </row>
+    <row r="329" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="38"/>
+      <c r="C329" s="38"/>
+      <c r="D329" s="39"/>
+      <c r="E329" s="40"/>
+      <c r="F329" s="41"/>
+      <c r="G329" s="41"/>
+      <c r="H329" s="42"/>
+      <c r="I329" s="42"/>
+      <c r="J329" s="41"/>
+      <c r="K329" s="41"/>
+      <c r="L329" s="41"/>
+      <c r="M329" s="41"/>
+      <c r="N329" s="41"/>
+      <c r="O329" s="41"/>
+      <c r="P329" s="41"/>
+    </row>
+    <row r="330" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="38"/>
+      <c r="C330" s="38"/>
+      <c r="D330" s="39"/>
+      <c r="E330" s="40"/>
+      <c r="F330" s="41"/>
+      <c r="G330" s="41"/>
+      <c r="H330" s="42"/>
+      <c r="I330" s="42"/>
+      <c r="J330" s="41"/>
+      <c r="K330" s="41"/>
+      <c r="L330" s="41"/>
+      <c r="M330" s="41"/>
+      <c r="N330" s="41"/>
+      <c r="O330" s="41"/>
+      <c r="P330" s="41"/>
+    </row>
+    <row r="331" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="38"/>
+      <c r="C331" s="38"/>
+      <c r="D331" s="39"/>
+      <c r="E331" s="40"/>
+      <c r="F331" s="41"/>
+      <c r="G331" s="41"/>
+      <c r="H331" s="42"/>
+      <c r="I331" s="42"/>
+      <c r="J331" s="41"/>
+      <c r="K331" s="41"/>
+      <c r="L331" s="41"/>
+      <c r="M331" s="41"/>
+      <c r="N331" s="41"/>
+      <c r="O331" s="41"/>
+      <c r="P331" s="41"/>
+    </row>
+    <row r="332" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="38"/>
+      <c r="C332" s="38"/>
+      <c r="D332" s="39"/>
+      <c r="E332" s="40"/>
+      <c r="F332" s="41"/>
+      <c r="G332" s="41"/>
+      <c r="H332" s="42"/>
+      <c r="I332" s="42"/>
+      <c r="J332" s="41"/>
+      <c r="K332" s="41"/>
+      <c r="L332" s="41"/>
+      <c r="M332" s="41"/>
+      <c r="N332" s="41"/>
+      <c r="O332" s="41"/>
+      <c r="P332" s="41"/>
+    </row>
+    <row r="333" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="38"/>
+      <c r="C333" s="38"/>
+      <c r="D333" s="39"/>
+      <c r="E333" s="40"/>
+      <c r="F333" s="41"/>
+      <c r="G333" s="41"/>
+      <c r="H333" s="42"/>
+      <c r="I333" s="42"/>
+      <c r="J333" s="41"/>
+      <c r="K333" s="41"/>
+      <c r="L333" s="41"/>
+      <c r="M333" s="41"/>
+      <c r="N333" s="41"/>
+      <c r="O333" s="41"/>
+      <c r="P333" s="41"/>
+    </row>
+    <row r="334" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="38"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="39"/>
+      <c r="E334" s="40"/>
+      <c r="F334" s="41"/>
+      <c r="G334" s="41"/>
+      <c r="H334" s="42"/>
+      <c r="I334" s="42"/>
+      <c r="J334" s="41"/>
+      <c r="K334" s="41"/>
+      <c r="L334" s="41"/>
+      <c r="M334" s="41"/>
+      <c r="N334" s="41"/>
+      <c r="O334" s="41"/>
+      <c r="P334" s="41"/>
+    </row>
+    <row r="335" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="38"/>
+      <c r="C335" s="38"/>
+      <c r="D335" s="39"/>
+      <c r="E335" s="40"/>
+      <c r="F335" s="41"/>
+      <c r="G335" s="41"/>
+      <c r="H335" s="42"/>
+      <c r="I335" s="42"/>
+      <c r="J335" s="41"/>
+      <c r="K335" s="41"/>
+      <c r="L335" s="41"/>
+      <c r="M335" s="41"/>
+      <c r="N335" s="41"/>
+      <c r="O335" s="41"/>
+      <c r="P335" s="41"/>
+    </row>
+    <row r="336" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="38"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="40"/>
+      <c r="F336" s="41"/>
+      <c r="G336" s="41"/>
+      <c r="H336" s="42"/>
+      <c r="I336" s="42"/>
+      <c r="J336" s="41"/>
+      <c r="K336" s="41"/>
+      <c r="L336" s="41"/>
+      <c r="M336" s="41"/>
+      <c r="N336" s="41"/>
+      <c r="O336" s="41"/>
+      <c r="P336" s="41"/>
+    </row>
+    <row r="337" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="38"/>
+      <c r="C337" s="38"/>
+      <c r="D337" s="39"/>
+      <c r="E337" s="40"/>
+      <c r="F337" s="41"/>
+      <c r="G337" s="41"/>
+      <c r="H337" s="42"/>
+      <c r="I337" s="42"/>
+      <c r="J337" s="41"/>
+      <c r="K337" s="41"/>
+      <c r="L337" s="41"/>
+      <c r="M337" s="41"/>
+      <c r="N337" s="41"/>
+      <c r="O337" s="41"/>
+      <c r="P337" s="41"/>
+    </row>
+    <row r="338" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="38"/>
+      <c r="C338" s="38"/>
+      <c r="D338" s="39"/>
+      <c r="E338" s="40"/>
+      <c r="F338" s="41"/>
+      <c r="G338" s="41"/>
+      <c r="H338" s="42"/>
+      <c r="I338" s="42"/>
+      <c r="J338" s="41"/>
+      <c r="K338" s="41"/>
+      <c r="L338" s="41"/>
+      <c r="M338" s="41"/>
+      <c r="N338" s="41"/>
+      <c r="O338" s="41"/>
+      <c r="P338" s="41"/>
+    </row>
+    <row r="339" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="38"/>
+      <c r="C339" s="38"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="40"/>
+      <c r="F339" s="41"/>
+      <c r="G339" s="41"/>
+      <c r="H339" s="42"/>
+      <c r="I339" s="42"/>
+      <c r="J339" s="41"/>
+      <c r="K339" s="41"/>
+      <c r="L339" s="41"/>
+      <c r="M339" s="41"/>
+      <c r="N339" s="41"/>
+      <c r="O339" s="41"/>
+      <c r="P339" s="41"/>
+    </row>
+    <row r="340" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="38"/>
+      <c r="C340" s="38"/>
+      <c r="D340" s="39"/>
+      <c r="E340" s="40"/>
+      <c r="F340" s="41"/>
+      <c r="G340" s="41"/>
+      <c r="H340" s="42"/>
+      <c r="I340" s="42"/>
+      <c r="J340" s="41"/>
+      <c r="K340" s="41"/>
+      <c r="L340" s="41"/>
+      <c r="M340" s="41"/>
+      <c r="N340" s="41"/>
+      <c r="O340" s="41"/>
+      <c r="P340" s="41"/>
+    </row>
+    <row r="341" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="38"/>
+      <c r="C341" s="38"/>
+      <c r="D341" s="39"/>
+      <c r="E341" s="40"/>
+      <c r="F341" s="41"/>
+      <c r="G341" s="41"/>
+      <c r="H341" s="42"/>
+      <c r="I341" s="42"/>
+      <c r="J341" s="41"/>
+      <c r="K341" s="41"/>
+      <c r="L341" s="41"/>
+      <c r="M341" s="41"/>
+      <c r="N341" s="41"/>
+      <c r="O341" s="41"/>
+      <c r="P341" s="41"/>
+    </row>
+    <row r="342" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="38"/>
+      <c r="C342" s="38"/>
+      <c r="D342" s="39"/>
+      <c r="E342" s="40"/>
+      <c r="F342" s="41"/>
+      <c r="G342" s="41"/>
+      <c r="H342" s="42"/>
+      <c r="I342" s="42"/>
+      <c r="J342" s="41"/>
+      <c r="K342" s="41"/>
+      <c r="L342" s="41"/>
+      <c r="M342" s="41"/>
+      <c r="N342" s="41"/>
+      <c r="O342" s="41"/>
+      <c r="P342" s="41"/>
+    </row>
+    <row r="343" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="38"/>
+      <c r="C343" s="38"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="40"/>
+      <c r="F343" s="41"/>
+      <c r="G343" s="41"/>
+      <c r="H343" s="42"/>
+      <c r="I343" s="42"/>
+      <c r="J343" s="41"/>
+      <c r="K343" s="41"/>
+      <c r="L343" s="41"/>
+      <c r="M343" s="41"/>
+      <c r="N343" s="41"/>
+      <c r="O343" s="41"/>
+      <c r="P343" s="41"/>
+    </row>
+    <row r="344" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="38"/>
+      <c r="C344" s="38"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="40"/>
+      <c r="F344" s="41"/>
+      <c r="G344" s="41"/>
+      <c r="H344" s="42"/>
+      <c r="I344" s="42"/>
+      <c r="J344" s="41"/>
+      <c r="K344" s="41"/>
+      <c r="L344" s="41"/>
+      <c r="M344" s="41"/>
+      <c r="N344" s="41"/>
+      <c r="O344" s="41"/>
+      <c r="P344" s="41"/>
+    </row>
+    <row r="345" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="38"/>
+      <c r="C345" s="38"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="40"/>
+      <c r="F345" s="41"/>
+      <c r="G345" s="41"/>
+      <c r="H345" s="42"/>
+      <c r="I345" s="42"/>
+      <c r="J345" s="41"/>
+      <c r="K345" s="41"/>
+      <c r="L345" s="41"/>
+      <c r="M345" s="41"/>
+      <c r="N345" s="41"/>
+      <c r="O345" s="41"/>
+      <c r="P345" s="41"/>
+    </row>
+    <row r="346" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="38"/>
+      <c r="C346" s="38"/>
+      <c r="D346" s="39"/>
+      <c r="E346" s="40"/>
+      <c r="F346" s="41"/>
+      <c r="G346" s="41"/>
+      <c r="H346" s="42"/>
+      <c r="I346" s="42"/>
+      <c r="J346" s="41"/>
+      <c r="K346" s="41"/>
+      <c r="L346" s="41"/>
+      <c r="M346" s="41"/>
+      <c r="N346" s="41"/>
+      <c r="O346" s="41"/>
+      <c r="P346" s="41"/>
+    </row>
+    <row r="347" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="38"/>
+      <c r="C347" s="38"/>
+      <c r="D347" s="39"/>
+      <c r="E347" s="40"/>
+      <c r="F347" s="41"/>
+      <c r="G347" s="41"/>
+      <c r="H347" s="42"/>
+      <c r="I347" s="42"/>
+      <c r="J347" s="41"/>
+      <c r="K347" s="41"/>
+      <c r="L347" s="41"/>
+      <c r="M347" s="41"/>
+      <c r="N347" s="41"/>
+      <c r="O347" s="41"/>
+      <c r="P347" s="41"/>
+    </row>
+    <row r="348" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="38"/>
+      <c r="C348" s="38"/>
+      <c r="D348" s="39"/>
+      <c r="E348" s="40"/>
+      <c r="F348" s="41"/>
+      <c r="G348" s="41"/>
+      <c r="H348" s="42"/>
+      <c r="I348" s="42"/>
+      <c r="J348" s="41"/>
+      <c r="K348" s="41"/>
+      <c r="L348" s="41"/>
+      <c r="M348" s="41"/>
+      <c r="N348" s="41"/>
+      <c r="O348" s="41"/>
+      <c r="P348" s="41"/>
+    </row>
+    <row r="349" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="38"/>
+      <c r="C349" s="38"/>
+      <c r="D349" s="39"/>
+      <c r="E349" s="40"/>
+      <c r="F349" s="41"/>
+      <c r="G349" s="41"/>
+      <c r="H349" s="42"/>
+      <c r="I349" s="42"/>
+      <c r="J349" s="41"/>
+      <c r="K349" s="41"/>
+      <c r="L349" s="41"/>
+      <c r="M349" s="41"/>
+      <c r="N349" s="41"/>
+      <c r="O349" s="41"/>
+      <c r="P349" s="41"/>
+    </row>
+    <row r="350" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="38"/>
+      <c r="C350" s="38"/>
+      <c r="D350" s="39"/>
+      <c r="E350" s="40"/>
+      <c r="F350" s="41"/>
+      <c r="G350" s="41"/>
+      <c r="H350" s="42"/>
+      <c r="I350" s="42"/>
+      <c r="J350" s="41"/>
+      <c r="K350" s="41"/>
+      <c r="L350" s="41"/>
+      <c r="M350" s="41"/>
+      <c r="N350" s="41"/>
+      <c r="O350" s="41"/>
+      <c r="P350" s="41"/>
+    </row>
+    <row r="351" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="38"/>
+      <c r="C351" s="38"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="40"/>
+      <c r="F351" s="41"/>
+      <c r="G351" s="41"/>
+      <c r="H351" s="42"/>
+      <c r="I351" s="42"/>
+      <c r="J351" s="41"/>
+      <c r="K351" s="41"/>
+      <c r="L351" s="41"/>
+      <c r="M351" s="41"/>
+      <c r="N351" s="41"/>
+      <c r="O351" s="41"/>
+      <c r="P351" s="41"/>
+    </row>
+    <row r="352" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="38"/>
+      <c r="C352" s="38"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="40"/>
+      <c r="F352" s="41"/>
+      <c r="G352" s="41"/>
+      <c r="H352" s="42"/>
+      <c r="I352" s="42"/>
+      <c r="J352" s="41"/>
+      <c r="K352" s="41"/>
+      <c r="L352" s="41"/>
+      <c r="M352" s="41"/>
+      <c r="N352" s="41"/>
+      <c r="O352" s="41"/>
+      <c r="P352" s="41"/>
+    </row>
+    <row r="353" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="38"/>
+      <c r="C353" s="38"/>
+      <c r="D353" s="39"/>
+      <c r="E353" s="40"/>
+      <c r="F353" s="41"/>
+      <c r="G353" s="41"/>
+      <c r="H353" s="42"/>
+      <c r="I353" s="42"/>
+      <c r="J353" s="41"/>
+      <c r="K353" s="41"/>
+      <c r="L353" s="41"/>
+      <c r="M353" s="41"/>
+      <c r="N353" s="41"/>
+      <c r="O353" s="41"/>
+      <c r="P353" s="41"/>
+    </row>
+    <row r="354" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="38"/>
+      <c r="C354" s="38"/>
+      <c r="D354" s="39"/>
+      <c r="E354" s="40"/>
+      <c r="F354" s="41"/>
+      <c r="G354" s="41"/>
+      <c r="H354" s="42"/>
+      <c r="I354" s="42"/>
+      <c r="J354" s="41"/>
+      <c r="K354" s="41"/>
+      <c r="L354" s="41"/>
+      <c r="M354" s="41"/>
+      <c r="N354" s="41"/>
+      <c r="O354" s="41"/>
+      <c r="P354" s="41"/>
+    </row>
+    <row r="355" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="38"/>
+      <c r="C355" s="38"/>
+      <c r="D355" s="39"/>
+      <c r="E355" s="40"/>
+      <c r="F355" s="41"/>
+      <c r="G355" s="41"/>
+      <c r="H355" s="42"/>
+      <c r="I355" s="42"/>
+      <c r="J355" s="41"/>
+      <c r="K355" s="41"/>
+      <c r="L355" s="41"/>
+      <c r="M355" s="41"/>
+      <c r="N355" s="41"/>
+      <c r="O355" s="41"/>
+      <c r="P355" s="41"/>
+    </row>
+    <row r="356" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="38"/>
+      <c r="C356" s="38"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="40"/>
+      <c r="F356" s="41"/>
+      <c r="G356" s="41"/>
+      <c r="H356" s="42"/>
+      <c r="I356" s="42"/>
+      <c r="J356" s="41"/>
+      <c r="K356" s="41"/>
+      <c r="L356" s="41"/>
+      <c r="M356" s="41"/>
+      <c r="N356" s="41"/>
+      <c r="O356" s="41"/>
+      <c r="P356" s="41"/>
+    </row>
+    <row r="357" spans="2:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="38"/>
+      <c r="C357" s="38"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="40"/>
+      <c r="F357" s="41"/>
+      <c r="G357" s="41"/>
+      <c r="H357" s="42"/>
+      <c r="I357" s="42"/>
+      <c r="J357" s="41"/>
+      <c r="K357" s="41"/>
+      <c r="L357" s="41"/>
+      <c r="M357" s="41"/>
+      <c r="N357" s="41"/>
+      <c r="O357" s="41"/>
+      <c r="P357" s="41"/>
     </row>
     <row r="358" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="20" t="s">
@@ -15441,7 +15440,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="32"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15458,7 +15456,7 @@
       <c r="D1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15472,7 +15470,7 @@
       <c r="D2" t="s">
         <v>385</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" t="s">
         <v>272</v>
       </c>
       <c r="F2" t="s">
@@ -15492,7 +15490,7 @@
       <c r="D3" t="s">
         <v>536</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" t="s">
         <v>300</v>
       </c>
       <c r="F3" t="s">
@@ -15512,7 +15510,7 @@
       <c r="D4" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" t="s">
         <v>301</v>
       </c>
       <c r="F4" t="s">
@@ -15532,7 +15530,7 @@
       <c r="D5" t="s">
         <v>458</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" t="s">
         <v>302</v>
       </c>
       <c r="F5" t="s">
@@ -15552,7 +15550,7 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" t="s">
         <v>303</v>
       </c>
       <c r="F6" t="s">
@@ -15572,7 +15570,7 @@
       <c r="D7" t="s">
         <v>485</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" t="s">
         <v>304</v>
       </c>
       <c r="F7" t="s">
@@ -15592,7 +15590,7 @@
       <c r="D8" t="s">
         <v>533</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" t="s">
         <v>305</v>
       </c>
       <c r="F8" t="s">
@@ -15612,7 +15610,7 @@
       <c r="D9" t="s">
         <v>527</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" t="s">
         <v>306</v>
       </c>
       <c r="F9" t="s">
@@ -15632,7 +15630,7 @@
       <c r="D10" t="s">
         <v>524</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" t="s">
         <v>307</v>
       </c>
       <c r="F10" t="s">
@@ -15652,7 +15650,7 @@
       <c r="D11" t="s">
         <v>440</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" t="s">
         <v>308</v>
       </c>
       <c r="F11" t="s">
@@ -15672,7 +15670,7 @@
       <c r="D12" t="s">
         <v>443</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" t="s">
         <v>309</v>
       </c>
       <c r="F12" t="s">
@@ -15692,7 +15690,7 @@
       <c r="D13" t="s">
         <v>542</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" t="s">
         <v>310</v>
       </c>
       <c r="F13" t="s">
@@ -15712,7 +15710,7 @@
       <c r="D14" t="s">
         <v>545</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" t="s">
         <v>311</v>
       </c>
       <c r="F14" t="s">
@@ -15732,7 +15730,7 @@
       <c r="D15" t="s">
         <v>548</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" t="s">
         <v>312</v>
       </c>
       <c r="F15" t="s">
@@ -15752,7 +15750,7 @@
       <c r="D16" t="s">
         <v>551</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" t="s">
         <v>313</v>
       </c>
       <c r="F16" t="s">
@@ -15772,7 +15770,7 @@
       <c r="D17" t="s">
         <v>479</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" t="s">
         <v>314</v>
       </c>
       <c r="F17" t="s">
@@ -15792,7 +15790,7 @@
       <c r="D18" t="s">
         <v>482</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" t="s">
         <v>315</v>
       </c>
       <c r="F18" t="s">
@@ -15812,7 +15810,7 @@
       <c r="D19" t="s">
         <v>364</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" t="s">
         <v>265</v>
       </c>
       <c r="F19" t="s">
@@ -15832,7 +15830,7 @@
       <c r="D20" t="s">
         <v>367</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" t="s">
         <v>266</v>
       </c>
       <c r="F20" t="s">
@@ -15852,7 +15850,7 @@
       <c r="D21" t="s">
         <v>370</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" t="s">
         <v>267</v>
       </c>
       <c r="F21" t="s">
@@ -15872,7 +15870,7 @@
       <c r="D22" t="s">
         <v>373</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" t="s">
         <v>268</v>
       </c>
       <c r="F22" t="s">
@@ -15892,7 +15890,7 @@
       <c r="D23" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" t="s">
         <v>269</v>
       </c>
       <c r="F23" t="s">
@@ -15912,7 +15910,7 @@
       <c r="D24" t="s">
         <v>382</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" t="s">
         <v>271</v>
       </c>
       <c r="F24" t="s">
@@ -15932,7 +15930,7 @@
       <c r="D25" t="s">
         <v>539</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" t="s">
         <v>316</v>
       </c>
       <c r="F25" t="s">
@@ -15972,7 +15970,7 @@
         <v>592</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B2,C2)</f>
+        <f t="shared" ref="D2:D49" si="0">_xlfn.TEXTJOIN(", ",,B2,C2)</f>
         <v>Lot 16,  B-1-4</v>
       </c>
     </row>
@@ -15984,7 +15982,7 @@
         <v>365</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B3,C3)</f>
+        <f t="shared" si="0"/>
         <v>Lot 16, B-0-4</v>
       </c>
     </row>
@@ -15996,7 +15994,7 @@
         <v>593</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B4,C4)</f>
+        <f t="shared" si="0"/>
         <v>Lot 17,  B-1-5</v>
       </c>
     </row>
@@ -16008,7 +16006,7 @@
         <v>368</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B5,C5)</f>
+        <f t="shared" si="0"/>
         <v>Lot 17, B-0-5</v>
       </c>
     </row>
@@ -16020,7 +16018,7 @@
         <v>594</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B6,C6)</f>
+        <f t="shared" si="0"/>
         <v>Lot 18,  B-1-6</v>
       </c>
     </row>
@@ -16032,7 +16030,7 @@
         <v>371</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B7,C7)</f>
+        <f t="shared" si="0"/>
         <v>Lot 18, B-0-6</v>
       </c>
     </row>
@@ -16044,7 +16042,7 @@
         <v>595</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B8,C8)</f>
+        <f t="shared" si="0"/>
         <v>Lot 19,  B-1-7</v>
       </c>
     </row>
@@ -16056,7 +16054,7 @@
         <v>374</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B9,C9)</f>
+        <f t="shared" si="0"/>
         <v>Lot 19, B-0-7</v>
       </c>
     </row>
@@ -16068,7 +16066,7 @@
         <v>596</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B10,C10)</f>
+        <f t="shared" si="0"/>
         <v>Lot 20,  B-1-8</v>
       </c>
     </row>
@@ -16080,7 +16078,7 @@
         <v>377</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B11,C11)</f>
+        <f t="shared" si="0"/>
         <v>Lot 20, B-0-8</v>
       </c>
     </row>
@@ -16092,7 +16090,7 @@
         <v>597</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B12,C12)</f>
+        <f t="shared" si="0"/>
         <v>Lot 22,  B-1-10</v>
       </c>
     </row>
@@ -16104,7 +16102,7 @@
         <v>383</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B13,C13)</f>
+        <f t="shared" si="0"/>
         <v>Lot 22, B-0-10</v>
       </c>
     </row>
@@ -16116,7 +16114,7 @@
         <v>575</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B14,C14)</f>
+        <f t="shared" si="0"/>
         <v>Lot 23,  B-1-11</v>
       </c>
     </row>
@@ -16128,7 +16126,7 @@
         <v>386</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B15,C15)</f>
+        <f t="shared" si="0"/>
         <v>Lot 23, B-0-11</v>
       </c>
     </row>
@@ -16140,7 +16138,7 @@
         <v>584</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B16,C16)</f>
+        <f t="shared" si="0"/>
         <v>Lot 49,  E-1-3</v>
       </c>
     </row>
@@ -16152,7 +16150,7 @@
         <v>441</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B17,C17)</f>
+        <f t="shared" si="0"/>
         <v>Lot 49, E-0-3</v>
       </c>
     </row>
@@ -16164,7 +16162,7 @@
         <v>585</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B18,C18)</f>
+        <f t="shared" si="0"/>
         <v>Lot 50,  E-1-4</v>
       </c>
     </row>
@@ -16176,7 +16174,7 @@
         <v>444</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B19,C19)</f>
+        <f t="shared" si="0"/>
         <v>Lot 50, E-0-4</v>
       </c>
     </row>
@@ -16188,7 +16186,7 @@
         <v>577</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B20,C20)</f>
+        <f t="shared" si="0"/>
         <v>Lot 54,  E-1-8</v>
       </c>
     </row>
@@ -16200,7 +16198,7 @@
         <v>456</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B21,C21)</f>
+        <f t="shared" si="0"/>
         <v>Lot 54, E-0-8</v>
       </c>
     </row>
@@ -16212,7 +16210,7 @@
         <v>578</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B22,C22)</f>
+        <f t="shared" si="0"/>
         <v>Lot 55,  E-1-9</v>
       </c>
     </row>
@@ -16224,7 +16222,7 @@
         <v>459</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B23,C23)</f>
+        <f t="shared" si="0"/>
         <v>Lot 55, E-0-9</v>
       </c>
     </row>
@@ -16236,7 +16234,7 @@
         <v>579</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B24,C24)</f>
+        <f t="shared" si="0"/>
         <v>Lot 61,  F-1-3</v>
       </c>
     </row>
@@ -16248,7 +16246,7 @@
         <v>477</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B25,C25)</f>
+        <f t="shared" si="0"/>
         <v>Lot 61, F-0-3</v>
       </c>
     </row>
@@ -16260,7 +16258,7 @@
         <v>590</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B26,C26)</f>
+        <f t="shared" si="0"/>
         <v>Lot 62,  F-1-4</v>
       </c>
     </row>
@@ -16272,7 +16270,7 @@
         <v>480</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B27,C27)</f>
+        <f t="shared" si="0"/>
         <v>Lot 62, F-0-4</v>
       </c>
     </row>
@@ -16284,7 +16282,7 @@
         <v>591</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B28,C28)</f>
+        <f t="shared" si="0"/>
         <v>Lot 63,  F-1-5</v>
       </c>
     </row>
@@ -16296,7 +16294,7 @@
         <v>483</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B29,C29)</f>
+        <f t="shared" si="0"/>
         <v>Lot 63, F-0-5</v>
       </c>
     </row>
@@ -16308,7 +16306,7 @@
         <v>580</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B30,C30)</f>
+        <f t="shared" si="0"/>
         <v>Lot 64,  F-1-6</v>
       </c>
     </row>
@@ -16320,7 +16318,7 @@
         <v>486</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B31,C31)</f>
+        <f t="shared" si="0"/>
         <v>Lot 64, F-0-6</v>
       </c>
     </row>
@@ -16332,7 +16330,7 @@
         <v>576</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B32,C32)</f>
+        <f t="shared" si="0"/>
         <v>Lot 70,  G-1-12</v>
       </c>
     </row>
@@ -16344,7 +16342,7 @@
         <v>537</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B33,C33)</f>
+        <f t="shared" si="0"/>
         <v>Lot 70, G-0-12</v>
       </c>
     </row>
@@ -16356,7 +16354,7 @@
         <v>581</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B34,C34)</f>
+        <f t="shared" si="0"/>
         <v>Lot 71,  G-1-11</v>
       </c>
     </row>
@@ -16368,7 +16366,7 @@
         <v>534</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B35,C35)</f>
+        <f t="shared" si="0"/>
         <v>Lot 71, G-0-11</v>
       </c>
     </row>
@@ -16380,7 +16378,7 @@
         <v>582</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B36,C36)</f>
+        <f t="shared" si="0"/>
         <v>Lot 73,  G-1-9</v>
       </c>
     </row>
@@ -16392,7 +16390,7 @@
         <v>528</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B37,C37)</f>
+        <f t="shared" si="0"/>
         <v>Lot 73, G-0-9</v>
       </c>
     </row>
@@ -16404,7 +16402,7 @@
         <v>583</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B38,C38)</f>
+        <f t="shared" si="0"/>
         <v>Lot 74,  G-1-8</v>
       </c>
     </row>
@@ -16416,7 +16414,7 @@
         <v>525</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B39,C39)</f>
+        <f t="shared" si="0"/>
         <v>Lot 74, G-0-8</v>
       </c>
     </row>
@@ -16428,7 +16426,7 @@
         <v>598</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B40,C40)</f>
+        <f t="shared" si="0"/>
         <v>Lot 82,  H-1-1</v>
       </c>
     </row>
@@ -16440,7 +16438,7 @@
         <v>540</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B41,C41)</f>
+        <f t="shared" si="0"/>
         <v>Lot 82, H-0-1</v>
       </c>
     </row>
@@ -16452,7 +16450,7 @@
         <v>586</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B42,C42)</f>
+        <f t="shared" si="0"/>
         <v>Lot 83,  H-1-2</v>
       </c>
     </row>
@@ -16464,7 +16462,7 @@
         <v>543</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B43,C43)</f>
+        <f t="shared" si="0"/>
         <v>Lot 83, H-0-2</v>
       </c>
     </row>
@@ -16476,7 +16474,7 @@
         <v>587</v>
       </c>
       <c r="D44" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B44,C44)</f>
+        <f t="shared" si="0"/>
         <v>Lot 84,  H-1-3</v>
       </c>
     </row>
@@ -16488,7 +16486,7 @@
         <v>546</v>
       </c>
       <c r="D45" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B45,C45)</f>
+        <f t="shared" si="0"/>
         <v>Lot 84, H-0-3</v>
       </c>
     </row>
@@ -16500,7 +16498,7 @@
         <v>588</v>
       </c>
       <c r="D46" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B46,C46)</f>
+        <f t="shared" si="0"/>
         <v>Lot 85,  H-1-4</v>
       </c>
     </row>
@@ -16512,7 +16510,7 @@
         <v>549</v>
       </c>
       <c r="D47" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B47,C47)</f>
+        <f t="shared" si="0"/>
         <v>Lot 85, H-0-4</v>
       </c>
     </row>
@@ -16524,7 +16522,7 @@
         <v>589</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B48,C48)</f>
+        <f t="shared" si="0"/>
         <v>Lot 86,  H-1-5</v>
       </c>
     </row>
@@ -16536,7 +16534,7 @@
         <v>552</v>
       </c>
       <c r="D49" t="str">
-        <f>_xlfn.TEXTJOIN(", ",,B49,C49)</f>
+        <f t="shared" si="0"/>
         <v>Lot 86, H-0-5</v>
       </c>
     </row>
